--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>91199300</v>
+        <v>102991100</v>
       </c>
       <c r="E8" s="3">
-        <v>92704100</v>
+        <v>88961900</v>
       </c>
       <c r="F8" s="3">
-        <v>77972300</v>
+        <v>90429800</v>
       </c>
       <c r="G8" s="3">
-        <v>72854800</v>
+        <v>76059400</v>
       </c>
       <c r="H8" s="3">
-        <v>63406000</v>
+        <v>71067500</v>
       </c>
       <c r="I8" s="3">
-        <v>60503500</v>
+        <v>61850400</v>
       </c>
       <c r="J8" s="3">
+        <v>59019200</v>
+      </c>
+      <c r="K8" s="3">
         <v>53300700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55045100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79094200</v>
+        <v>83978800</v>
       </c>
       <c r="E9" s="3">
-        <v>77322500</v>
+        <v>77153800</v>
       </c>
       <c r="F9" s="3">
-        <v>66629700</v>
+        <v>75425600</v>
       </c>
       <c r="G9" s="3">
-        <v>55964700</v>
+        <v>64995000</v>
       </c>
       <c r="H9" s="3">
-        <v>49414400</v>
+        <v>54591700</v>
       </c>
       <c r="I9" s="3">
-        <v>48753900</v>
+        <v>48202100</v>
       </c>
       <c r="J9" s="3">
+        <v>47557800</v>
+      </c>
+      <c r="K9" s="3">
         <v>47398300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47518200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12105100</v>
+        <v>19012300</v>
       </c>
       <c r="E10" s="3">
-        <v>15381600</v>
+        <v>11808100</v>
       </c>
       <c r="F10" s="3">
-        <v>11342700</v>
+        <v>15004300</v>
       </c>
       <c r="G10" s="3">
-        <v>16890200</v>
+        <v>11064400</v>
       </c>
       <c r="H10" s="3">
-        <v>13991600</v>
+        <v>16475800</v>
       </c>
       <c r="I10" s="3">
-        <v>11749600</v>
+        <v>13648300</v>
       </c>
       <c r="J10" s="3">
+        <v>11461300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5902300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7526900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1177300</v>
+        <v>893900</v>
       </c>
       <c r="E14" s="3">
-        <v>395600</v>
+        <v>1148400</v>
       </c>
       <c r="F14" s="3">
-        <v>381100</v>
+        <v>385900</v>
       </c>
       <c r="G14" s="3">
-        <v>46100</v>
+        <v>371700</v>
       </c>
       <c r="H14" s="3">
-        <v>164900</v>
+        <v>44900</v>
       </c>
       <c r="I14" s="3">
-        <v>545700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>160800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>532300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90313200</v>
+        <v>95743400</v>
       </c>
       <c r="E17" s="3">
-        <v>87750100</v>
+        <v>88097500</v>
       </c>
       <c r="F17" s="3">
-        <v>75391600</v>
+        <v>85597300</v>
       </c>
       <c r="G17" s="3">
-        <v>66547900</v>
+        <v>73542000</v>
       </c>
       <c r="H17" s="3">
-        <v>57492100</v>
+        <v>64915300</v>
       </c>
       <c r="I17" s="3">
-        <v>56147700</v>
+        <v>56081700</v>
       </c>
       <c r="J17" s="3">
+        <v>54770300</v>
+      </c>
+      <c r="K17" s="3">
         <v>51793300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52199700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>886100</v>
+        <v>7247700</v>
       </c>
       <c r="E18" s="3">
-        <v>4954100</v>
+        <v>864400</v>
       </c>
       <c r="F18" s="3">
-        <v>2580800</v>
+        <v>4832500</v>
       </c>
       <c r="G18" s="3">
-        <v>6307000</v>
+        <v>2517500</v>
       </c>
       <c r="H18" s="3">
-        <v>5913800</v>
+        <v>6152200</v>
       </c>
       <c r="I18" s="3">
-        <v>4355800</v>
+        <v>5768700</v>
       </c>
       <c r="J18" s="3">
+        <v>4248900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1507400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2845500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1111300</v>
+        <v>1121200</v>
       </c>
       <c r="E20" s="3">
-        <v>1024900</v>
+        <v>1084000</v>
       </c>
       <c r="F20" s="3">
-        <v>840100</v>
+        <v>999700</v>
       </c>
       <c r="G20" s="3">
-        <v>283200</v>
+        <v>819500</v>
       </c>
       <c r="H20" s="3">
-        <v>-116900</v>
+        <v>276300</v>
       </c>
       <c r="I20" s="3">
-        <v>448400</v>
+        <v>-114100</v>
       </c>
       <c r="J20" s="3">
+        <v>437400</v>
+      </c>
+      <c r="K20" s="3">
         <v>435700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>328400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2375800</v>
+        <v>8979800</v>
       </c>
       <c r="E21" s="3">
-        <v>6300200</v>
+        <v>2316400</v>
       </c>
       <c r="F21" s="3">
-        <v>3719600</v>
+        <v>6144800</v>
       </c>
       <c r="G21" s="3">
-        <v>6882200</v>
+        <v>3627500</v>
       </c>
       <c r="H21" s="3">
-        <v>6101500</v>
+        <v>6712500</v>
       </c>
       <c r="I21" s="3">
-        <v>5094700</v>
+        <v>5951000</v>
       </c>
       <c r="J21" s="3">
+        <v>4968900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2222700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,78 +1136,87 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>578500</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>564300</v>
+      </c>
+      <c r="K22" s="3">
         <v>369500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>129600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1997400</v>
+        <v>8368900</v>
       </c>
       <c r="E23" s="3">
-        <v>5979000</v>
+        <v>1948400</v>
       </c>
       <c r="F23" s="3">
-        <v>3420900</v>
+        <v>5832300</v>
       </c>
       <c r="G23" s="3">
-        <v>6590200</v>
+        <v>3336900</v>
       </c>
       <c r="H23" s="3">
-        <v>5796900</v>
+        <v>6428500</v>
       </c>
       <c r="I23" s="3">
-        <v>4225600</v>
+        <v>5654700</v>
       </c>
       <c r="J23" s="3">
+        <v>4122000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1573700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3044300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>284800</v>
+        <v>109300</v>
       </c>
       <c r="E24" s="3">
-        <v>1279700</v>
+        <v>277800</v>
       </c>
       <c r="F24" s="3">
-        <v>610800</v>
+        <v>1248300</v>
       </c>
       <c r="G24" s="3">
-        <v>1541500</v>
+        <v>595800</v>
       </c>
       <c r="H24" s="3">
-        <v>1131800</v>
+        <v>1503700</v>
       </c>
       <c r="I24" s="3">
-        <v>637500</v>
+        <v>1104000</v>
       </c>
       <c r="J24" s="3">
+        <v>621800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-43600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1712600</v>
+        <v>8259600</v>
       </c>
       <c r="E26" s="3">
-        <v>4699300</v>
+        <v>1670600</v>
       </c>
       <c r="F26" s="3">
-        <v>2810100</v>
+        <v>4584000</v>
       </c>
       <c r="G26" s="3">
-        <v>5048600</v>
+        <v>2741100</v>
       </c>
       <c r="H26" s="3">
-        <v>4665100</v>
+        <v>4924800</v>
       </c>
       <c r="I26" s="3">
-        <v>3588100</v>
+        <v>4550700</v>
       </c>
       <c r="J26" s="3">
+        <v>3500100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1617300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2744200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1635000</v>
+        <v>8157800</v>
       </c>
       <c r="E27" s="3">
-        <v>4627700</v>
+        <v>1594800</v>
       </c>
       <c r="F27" s="3">
-        <v>2744300</v>
+        <v>4514100</v>
       </c>
       <c r="G27" s="3">
-        <v>4978600</v>
+        <v>2677000</v>
       </c>
       <c r="H27" s="3">
-        <v>4621600</v>
+        <v>4856500</v>
       </c>
       <c r="I27" s="3">
-        <v>3553300</v>
+        <v>4508300</v>
       </c>
       <c r="J27" s="3">
+        <v>3466100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1587000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2720500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1111300</v>
+        <v>-1121200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1024900</v>
+        <v>-1084000</v>
       </c>
       <c r="F32" s="3">
-        <v>-840100</v>
+        <v>-999700</v>
       </c>
       <c r="G32" s="3">
-        <v>-283200</v>
+        <v>-819500</v>
       </c>
       <c r="H32" s="3">
-        <v>116900</v>
+        <v>-276300</v>
       </c>
       <c r="I32" s="3">
-        <v>-448400</v>
+        <v>114100</v>
       </c>
       <c r="J32" s="3">
+        <v>-437400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-435700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-328400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1635000</v>
+        <v>8157800</v>
       </c>
       <c r="E33" s="3">
-        <v>4627700</v>
+        <v>1594800</v>
       </c>
       <c r="F33" s="3">
-        <v>2744300</v>
+        <v>4514100</v>
       </c>
       <c r="G33" s="3">
-        <v>4978600</v>
+        <v>2677000</v>
       </c>
       <c r="H33" s="3">
-        <v>4621600</v>
+        <v>4856500</v>
       </c>
       <c r="I33" s="3">
-        <v>3553300</v>
+        <v>4508300</v>
       </c>
       <c r="J33" s="3">
+        <v>3466100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1587000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2720500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1635000</v>
+        <v>8157800</v>
       </c>
       <c r="E35" s="3">
-        <v>4627700</v>
+        <v>1594800</v>
       </c>
       <c r="F35" s="3">
-        <v>2744300</v>
+        <v>4514100</v>
       </c>
       <c r="G35" s="3">
-        <v>4978600</v>
+        <v>2677000</v>
       </c>
       <c r="H35" s="3">
-        <v>4621600</v>
+        <v>4856500</v>
       </c>
       <c r="I35" s="3">
-        <v>3553300</v>
+        <v>4508300</v>
       </c>
       <c r="J35" s="3">
+        <v>3466100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1587000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2720500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7287600</v>
+        <v>7400400</v>
       </c>
       <c r="E41" s="3">
-        <v>6807300</v>
+        <v>7119000</v>
       </c>
       <c r="F41" s="3">
-        <v>9234900</v>
+        <v>6649800</v>
       </c>
       <c r="G41" s="3">
-        <v>10636900</v>
+        <v>9021300</v>
       </c>
       <c r="H41" s="3">
-        <v>6748400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+        <v>10390800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6592300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>9964400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7717500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,39 +1708,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2245200</v>
+        <v>2422100</v>
       </c>
       <c r="E43" s="3">
-        <v>2026100</v>
+        <v>2193200</v>
       </c>
       <c r="F43" s="3">
-        <v>1925600</v>
+        <v>1979200</v>
       </c>
       <c r="G43" s="3">
-        <v>1709300</v>
+        <v>1881100</v>
       </c>
       <c r="H43" s="3">
-        <v>2289100</v>
+        <v>1669700</v>
       </c>
       <c r="I43" s="3">
-        <v>1495800</v>
+        <v>2236100</v>
       </c>
       <c r="J43" s="3">
+        <v>1461200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1253700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1224800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,26 +1774,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72300</v>
+        <v>118700</v>
       </c>
       <c r="E45" s="3">
-        <v>57800</v>
+        <v>70600</v>
       </c>
       <c r="F45" s="3">
-        <v>942800</v>
+        <v>56500</v>
       </c>
       <c r="G45" s="3">
-        <v>909800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>921000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>888800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,69 +1840,78 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>437617000</v>
+        <v>491717000</v>
       </c>
       <c r="E47" s="3">
-        <v>389661000</v>
+        <v>427491000</v>
       </c>
       <c r="F47" s="3">
-        <v>359544000</v>
+        <v>380645000</v>
       </c>
       <c r="G47" s="3">
-        <v>324491000</v>
+        <v>351224000</v>
       </c>
       <c r="H47" s="3">
-        <v>300665000</v>
+        <v>316983000</v>
       </c>
       <c r="I47" s="3">
-        <v>266290000</v>
+        <v>293708000</v>
       </c>
       <c r="J47" s="3">
+        <v>260128000</v>
+      </c>
+      <c r="K47" s="3">
         <v>250262000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>216866000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8182400</v>
+        <v>9449400</v>
       </c>
       <c r="E48" s="3">
-        <v>6567200</v>
+        <v>7993000</v>
       </c>
       <c r="F48" s="3">
-        <v>4531100</v>
+        <v>6415300</v>
       </c>
       <c r="G48" s="3">
-        <v>4047700</v>
+        <v>4426300</v>
       </c>
       <c r="H48" s="3">
-        <v>3821000</v>
+        <v>3954100</v>
       </c>
       <c r="I48" s="3">
-        <v>3547100</v>
+        <v>3732600</v>
       </c>
       <c r="J48" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3204600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3002500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1817,21 +1927,24 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
-        <v>880500</v>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>887100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+        <v>860200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>866600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,17 +2005,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>180400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>17900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>176200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -1910,18 +2029,21 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>2874800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2808200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>466942000</v>
+        <v>522339000</v>
       </c>
       <c r="E54" s="3">
-        <v>415746000</v>
+        <v>456137000</v>
       </c>
       <c r="F54" s="3">
-        <v>386959000</v>
+        <v>406126000</v>
       </c>
       <c r="G54" s="3">
-        <v>351284000</v>
+        <v>378005000</v>
       </c>
       <c r="H54" s="3">
-        <v>322337000</v>
+        <v>343156000</v>
       </c>
       <c r="I54" s="3">
-        <v>283078000</v>
+        <v>314879000</v>
       </c>
       <c r="J54" s="3">
+        <v>276527000</v>
+      </c>
+      <c r="K54" s="3">
         <v>272457000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>235068000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>405354000</v>
+        <v>442019000</v>
       </c>
       <c r="E59" s="3">
-        <v>355101000</v>
+        <v>395975000</v>
       </c>
       <c r="F59" s="3">
-        <v>324883000</v>
+        <v>346884000</v>
       </c>
       <c r="G59" s="3">
-        <v>285028000</v>
+        <v>317365000</v>
       </c>
       <c r="H59" s="3">
-        <v>262069000</v>
+        <v>278432000</v>
       </c>
       <c r="I59" s="3">
-        <v>235699000</v>
+        <v>256005000</v>
       </c>
       <c r="J59" s="3">
+        <v>230246000</v>
+      </c>
+      <c r="K59" s="3">
         <v>27699500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21459800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2891100</v>
+        <v>8146900</v>
       </c>
       <c r="E61" s="3">
-        <v>2696600</v>
+        <v>2824200</v>
       </c>
       <c r="F61" s="3">
-        <v>7772000</v>
+        <v>2634200</v>
       </c>
       <c r="G61" s="3">
-        <v>10135000</v>
+        <v>7592200</v>
       </c>
       <c r="H61" s="3">
-        <v>10131400</v>
+        <v>9900500</v>
       </c>
       <c r="I61" s="3">
-        <v>9754500</v>
+        <v>9897000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>9528800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1447900</v>
       </c>
       <c r="E62" s="3">
-        <v>698900</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1114600</v>
+        <v>682700</v>
       </c>
       <c r="G62" s="3">
-        <v>2432400</v>
+        <v>1088800</v>
       </c>
       <c r="H62" s="3">
-        <v>2779900</v>
+        <v>2376100</v>
       </c>
       <c r="I62" s="3">
-        <v>705800</v>
+        <v>2715600</v>
       </c>
       <c r="J62" s="3">
+        <v>689400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1124000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>215800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>421262000</v>
+        <v>465748000</v>
       </c>
       <c r="E66" s="3">
-        <v>369699000</v>
+        <v>411514000</v>
       </c>
       <c r="F66" s="3">
-        <v>343395000</v>
+        <v>361144000</v>
       </c>
       <c r="G66" s="3">
-        <v>305013000</v>
+        <v>335449000</v>
       </c>
       <c r="H66" s="3">
-        <v>281572000</v>
+        <v>297955000</v>
       </c>
       <c r="I66" s="3">
-        <v>251465000</v>
+        <v>275056000</v>
       </c>
       <c r="J66" s="3">
+        <v>245646000</v>
+      </c>
+      <c r="K66" s="3">
         <v>240735000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206643000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33584100</v>
+        <v>39901300</v>
       </c>
       <c r="E72" s="3">
-        <v>33654700</v>
+        <v>32807000</v>
       </c>
       <c r="F72" s="3">
-        <v>30035500</v>
+        <v>32875900</v>
       </c>
       <c r="G72" s="3">
-        <v>29045100</v>
+        <v>29340500</v>
       </c>
       <c r="H72" s="3">
-        <v>25672700</v>
+        <v>28373000</v>
       </c>
       <c r="I72" s="3">
-        <v>22150400</v>
+        <v>25078700</v>
       </c>
       <c r="J72" s="3">
+        <v>21637900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19164900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19146700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45679900</v>
+        <v>56591600</v>
       </c>
       <c r="E76" s="3">
-        <v>46047500</v>
+        <v>44622900</v>
       </c>
       <c r="F76" s="3">
-        <v>43563500</v>
+        <v>44982000</v>
       </c>
       <c r="G76" s="3">
-        <v>46271200</v>
+        <v>42555500</v>
       </c>
       <c r="H76" s="3">
-        <v>40765700</v>
+        <v>45200500</v>
       </c>
       <c r="I76" s="3">
-        <v>31613100</v>
+        <v>39822400</v>
       </c>
       <c r="J76" s="3">
+        <v>30881600</v>
+      </c>
+      <c r="K76" s="3">
         <v>31721300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28425000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1635000</v>
+        <v>8157800</v>
       </c>
       <c r="E81" s="3">
-        <v>4627700</v>
+        <v>1594800</v>
       </c>
       <c r="F81" s="3">
-        <v>2744300</v>
+        <v>4514100</v>
       </c>
       <c r="G81" s="3">
-        <v>4978600</v>
+        <v>2677000</v>
       </c>
       <c r="H81" s="3">
-        <v>4621600</v>
+        <v>4856500</v>
       </c>
       <c r="I81" s="3">
-        <v>3553300</v>
+        <v>4508300</v>
       </c>
       <c r="J81" s="3">
+        <v>3466100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1587000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2720500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378500</v>
+        <v>612900</v>
       </c>
       <c r="E83" s="3">
-        <v>321400</v>
+        <v>369200</v>
       </c>
       <c r="F83" s="3">
-        <v>298900</v>
+        <v>313500</v>
       </c>
       <c r="G83" s="3">
-        <v>292100</v>
+        <v>291500</v>
       </c>
       <c r="H83" s="3">
-        <v>304800</v>
+        <v>285000</v>
       </c>
       <c r="I83" s="3">
-        <v>290700</v>
+        <v>297300</v>
       </c>
       <c r="J83" s="3">
+        <v>283600</v>
+      </c>
+      <c r="K83" s="3">
         <v>279600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21170800</v>
+        <v>40033000</v>
       </c>
       <c r="E89" s="3">
-        <v>28838000</v>
+        <v>20651400</v>
       </c>
       <c r="F89" s="3">
-        <v>12783800</v>
+        <v>28130600</v>
       </c>
       <c r="G89" s="3">
-        <v>-2699000</v>
+        <v>12470200</v>
       </c>
       <c r="H89" s="3">
-        <v>11226900</v>
+        <v>-2632800</v>
       </c>
       <c r="I89" s="3">
-        <v>9798500</v>
+        <v>10951500</v>
       </c>
       <c r="J89" s="3">
+        <v>9558100</v>
+      </c>
+      <c r="K89" s="3">
         <v>18965500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19880000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2804500</v>
+        <v>-1597600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1380100</v>
+        <v>-2735700</v>
       </c>
       <c r="F91" s="3">
-        <v>-761900</v>
+        <v>-1346300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1202900</v>
+        <v>-743200</v>
       </c>
       <c r="H91" s="3">
-        <v>-724300</v>
+        <v>-1173400</v>
       </c>
       <c r="I91" s="3">
-        <v>-534300</v>
+        <v>-706500</v>
       </c>
       <c r="J91" s="3">
+        <v>-521200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-951600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-995500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34201800</v>
+        <v>-34642200</v>
       </c>
       <c r="E94" s="3">
-        <v>-24919000</v>
+        <v>-33362700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15022800</v>
+        <v>-24307700</v>
       </c>
       <c r="G94" s="3">
-        <v>9619900</v>
+        <v>-14654200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9937000</v>
+        <v>9383900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8642200</v>
+        <v>-9693200</v>
       </c>
       <c r="J94" s="3">
+        <v>-8430200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29241800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1677300</v>
+        <v>-688000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1027900</v>
+        <v>-1636100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1758600</v>
+        <v>-1002700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1648700</v>
+        <v>-1715500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1879200</v>
+        <v>-1608300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1153600</v>
+        <v>-1833100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1125300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1195600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1762500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13338300</v>
+        <v>-5049100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6542000</v>
+        <v>13011100</v>
       </c>
       <c r="F100" s="3">
-        <v>899600</v>
+        <v>-6381500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2785700</v>
+        <v>877500</v>
       </c>
       <c r="H100" s="3">
-        <v>2396700</v>
+        <v>-2717300</v>
       </c>
       <c r="I100" s="3">
-        <v>-8049900</v>
+        <v>2337900</v>
       </c>
       <c r="J100" s="3">
+        <v>-7852500</v>
+      </c>
+      <c r="K100" s="3">
         <v>12208600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>-25700</v>
+        <v>11300</v>
       </c>
       <c r="F101" s="3">
-        <v>40900</v>
+        <v>-25100</v>
       </c>
       <c r="G101" s="3">
-        <v>34600</v>
+        <v>39900</v>
       </c>
       <c r="H101" s="3">
+        <v>33700</v>
+      </c>
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-10900</v>
-      </c>
       <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-10600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>319000</v>
+        <v>349500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2648600</v>
+        <v>311100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1298500</v>
+        <v>-2583700</v>
       </c>
       <c r="G102" s="3">
-        <v>4169800</v>
+        <v>-1266600</v>
       </c>
       <c r="H102" s="3">
-        <v>3688000</v>
+        <v>4067500</v>
       </c>
       <c r="I102" s="3">
-        <v>-6904500</v>
+        <v>3597500</v>
       </c>
       <c r="J102" s="3">
+        <v>-6735200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1932200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1206700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>102991100</v>
+        <v>106869100</v>
       </c>
       <c r="E8" s="3">
-        <v>88961900</v>
+        <v>92311700</v>
       </c>
       <c r="F8" s="3">
-        <v>90429800</v>
+        <v>93834800</v>
       </c>
       <c r="G8" s="3">
-        <v>76059400</v>
+        <v>78923400</v>
       </c>
       <c r="H8" s="3">
-        <v>71067500</v>
+        <v>73743400</v>
       </c>
       <c r="I8" s="3">
-        <v>61850400</v>
+        <v>64179300</v>
       </c>
       <c r="J8" s="3">
-        <v>59019200</v>
+        <v>61241500</v>
       </c>
       <c r="K8" s="3">
         <v>53300700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>83978800</v>
+        <v>87140900</v>
       </c>
       <c r="E9" s="3">
-        <v>77153800</v>
+        <v>80058900</v>
       </c>
       <c r="F9" s="3">
-        <v>75425600</v>
+        <v>78265600</v>
       </c>
       <c r="G9" s="3">
-        <v>64995000</v>
+        <v>67442300</v>
       </c>
       <c r="H9" s="3">
-        <v>54591700</v>
+        <v>56647300</v>
       </c>
       <c r="I9" s="3">
-        <v>48202100</v>
+        <v>50017100</v>
       </c>
       <c r="J9" s="3">
-        <v>47557800</v>
+        <v>49348600</v>
       </c>
       <c r="K9" s="3">
         <v>47398300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19012300</v>
+        <v>19728200</v>
       </c>
       <c r="E10" s="3">
-        <v>11808100</v>
+        <v>12252800</v>
       </c>
       <c r="F10" s="3">
-        <v>15004300</v>
+        <v>15569200</v>
       </c>
       <c r="G10" s="3">
-        <v>11064400</v>
+        <v>11481000</v>
       </c>
       <c r="H10" s="3">
-        <v>16475800</v>
+        <v>17096200</v>
       </c>
       <c r="I10" s="3">
-        <v>13648300</v>
+        <v>14162200</v>
       </c>
       <c r="J10" s="3">
-        <v>11461300</v>
+        <v>11892900</v>
       </c>
       <c r="K10" s="3">
         <v>5902300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>893900</v>
+        <v>927600</v>
       </c>
       <c r="E14" s="3">
-        <v>1148400</v>
+        <v>1191600</v>
       </c>
       <c r="F14" s="3">
-        <v>385900</v>
+        <v>400400</v>
       </c>
       <c r="G14" s="3">
-        <v>371700</v>
+        <v>385700</v>
       </c>
       <c r="H14" s="3">
-        <v>44900</v>
+        <v>46600</v>
       </c>
       <c r="I14" s="3">
-        <v>160800</v>
+        <v>166900</v>
       </c>
       <c r="J14" s="3">
-        <v>532300</v>
+        <v>552300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95743400</v>
+        <v>99348500</v>
       </c>
       <c r="E17" s="3">
-        <v>88097500</v>
+        <v>91414700</v>
       </c>
       <c r="F17" s="3">
-        <v>85597300</v>
+        <v>88820300</v>
       </c>
       <c r="G17" s="3">
-        <v>73542000</v>
+        <v>76311100</v>
       </c>
       <c r="H17" s="3">
-        <v>64915300</v>
+        <v>67359600</v>
       </c>
       <c r="I17" s="3">
-        <v>56081700</v>
+        <v>58193400</v>
       </c>
       <c r="J17" s="3">
-        <v>54770300</v>
+        <v>56832600</v>
       </c>
       <c r="K17" s="3">
         <v>51793300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7247700</v>
+        <v>7520600</v>
       </c>
       <c r="E18" s="3">
-        <v>864400</v>
+        <v>896900</v>
       </c>
       <c r="F18" s="3">
-        <v>4832500</v>
+        <v>5014500</v>
       </c>
       <c r="G18" s="3">
-        <v>2517500</v>
+        <v>2612300</v>
       </c>
       <c r="H18" s="3">
-        <v>6152200</v>
+        <v>6383900</v>
       </c>
       <c r="I18" s="3">
-        <v>5768700</v>
+        <v>5985900</v>
       </c>
       <c r="J18" s="3">
-        <v>4248900</v>
+        <v>4408900</v>
       </c>
       <c r="K18" s="3">
         <v>1507400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1121200</v>
+        <v>1163400</v>
       </c>
       <c r="E20" s="3">
-        <v>1084000</v>
+        <v>1124800</v>
       </c>
       <c r="F20" s="3">
-        <v>999700</v>
+        <v>1037400</v>
       </c>
       <c r="G20" s="3">
-        <v>819500</v>
+        <v>850300</v>
       </c>
       <c r="H20" s="3">
-        <v>276300</v>
+        <v>286700</v>
       </c>
       <c r="I20" s="3">
-        <v>-114100</v>
+        <v>-118400</v>
       </c>
       <c r="J20" s="3">
-        <v>437400</v>
+        <v>453800</v>
       </c>
       <c r="K20" s="3">
         <v>435700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8979800</v>
+        <v>9317600</v>
       </c>
       <c r="E21" s="3">
-        <v>2316400</v>
+        <v>2403400</v>
       </c>
       <c r="F21" s="3">
-        <v>6144800</v>
+        <v>6376000</v>
       </c>
       <c r="G21" s="3">
-        <v>3627500</v>
+        <v>3763900</v>
       </c>
       <c r="H21" s="3">
-        <v>6712500</v>
+        <v>6965100</v>
       </c>
       <c r="I21" s="3">
-        <v>5951000</v>
+        <v>6174900</v>
       </c>
       <c r="J21" s="3">
-        <v>4968900</v>
+        <v>5155900</v>
       </c>
       <c r="K21" s="3">
         <v>2222700</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>564300</v>
+        <v>585600</v>
       </c>
       <c r="K22" s="3">
         <v>369500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8368900</v>
+        <v>8684000</v>
       </c>
       <c r="E23" s="3">
-        <v>1948400</v>
+        <v>2021700</v>
       </c>
       <c r="F23" s="3">
-        <v>5832300</v>
+        <v>6051900</v>
       </c>
       <c r="G23" s="3">
-        <v>3336900</v>
+        <v>3462600</v>
       </c>
       <c r="H23" s="3">
-        <v>6428500</v>
+        <v>6670600</v>
       </c>
       <c r="I23" s="3">
-        <v>5654700</v>
+        <v>5867600</v>
       </c>
       <c r="J23" s="3">
-        <v>4122000</v>
+        <v>4277200</v>
       </c>
       <c r="K23" s="3">
         <v>1573700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109300</v>
+        <v>113400</v>
       </c>
       <c r="E24" s="3">
-        <v>277800</v>
+        <v>288300</v>
       </c>
       <c r="F24" s="3">
-        <v>1248300</v>
+        <v>1295300</v>
       </c>
       <c r="G24" s="3">
-        <v>595800</v>
+        <v>618200</v>
       </c>
       <c r="H24" s="3">
-        <v>1503700</v>
+        <v>1560400</v>
       </c>
       <c r="I24" s="3">
-        <v>1104000</v>
+        <v>1145600</v>
       </c>
       <c r="J24" s="3">
-        <v>621800</v>
+        <v>645300</v>
       </c>
       <c r="K24" s="3">
         <v>-43600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8259600</v>
+        <v>8570600</v>
       </c>
       <c r="E26" s="3">
-        <v>1670600</v>
+        <v>1733500</v>
       </c>
       <c r="F26" s="3">
-        <v>4584000</v>
+        <v>4756600</v>
       </c>
       <c r="G26" s="3">
-        <v>2741100</v>
+        <v>2844300</v>
       </c>
       <c r="H26" s="3">
-        <v>4924800</v>
+        <v>5110200</v>
       </c>
       <c r="I26" s="3">
-        <v>4550700</v>
+        <v>4722000</v>
       </c>
       <c r="J26" s="3">
-        <v>3500100</v>
+        <v>3631900</v>
       </c>
       <c r="K26" s="3">
         <v>1617300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8157800</v>
+        <v>8465000</v>
       </c>
       <c r="E27" s="3">
-        <v>1594800</v>
+        <v>1654900</v>
       </c>
       <c r="F27" s="3">
-        <v>4514100</v>
+        <v>4684100</v>
       </c>
       <c r="G27" s="3">
-        <v>2677000</v>
+        <v>2777800</v>
       </c>
       <c r="H27" s="3">
-        <v>4856500</v>
+        <v>5039300</v>
       </c>
       <c r="I27" s="3">
-        <v>4508300</v>
+        <v>4678000</v>
       </c>
       <c r="J27" s="3">
-        <v>3466100</v>
+        <v>3596600</v>
       </c>
       <c r="K27" s="3">
         <v>1587000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1121200</v>
+        <v>-1163400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1084000</v>
+        <v>-1124800</v>
       </c>
       <c r="F32" s="3">
-        <v>-999700</v>
+        <v>-1037400</v>
       </c>
       <c r="G32" s="3">
-        <v>-819500</v>
+        <v>-850300</v>
       </c>
       <c r="H32" s="3">
-        <v>-276300</v>
+        <v>-286700</v>
       </c>
       <c r="I32" s="3">
-        <v>114100</v>
+        <v>118400</v>
       </c>
       <c r="J32" s="3">
-        <v>-437400</v>
+        <v>-453800</v>
       </c>
       <c r="K32" s="3">
         <v>-435700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8157800</v>
+        <v>8465000</v>
       </c>
       <c r="E33" s="3">
-        <v>1594800</v>
+        <v>1654900</v>
       </c>
       <c r="F33" s="3">
-        <v>4514100</v>
+        <v>4684100</v>
       </c>
       <c r="G33" s="3">
-        <v>2677000</v>
+        <v>2777800</v>
       </c>
       <c r="H33" s="3">
-        <v>4856500</v>
+        <v>5039300</v>
       </c>
       <c r="I33" s="3">
-        <v>4508300</v>
+        <v>4678000</v>
       </c>
       <c r="J33" s="3">
-        <v>3466100</v>
+        <v>3596600</v>
       </c>
       <c r="K33" s="3">
         <v>1587000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8157800</v>
+        <v>8465000</v>
       </c>
       <c r="E35" s="3">
-        <v>1594800</v>
+        <v>1654900</v>
       </c>
       <c r="F35" s="3">
-        <v>4514100</v>
+        <v>4684100</v>
       </c>
       <c r="G35" s="3">
-        <v>2677000</v>
+        <v>2777800</v>
       </c>
       <c r="H35" s="3">
-        <v>4856500</v>
+        <v>5039300</v>
       </c>
       <c r="I35" s="3">
-        <v>4508300</v>
+        <v>4678000</v>
       </c>
       <c r="J35" s="3">
-        <v>3466100</v>
+        <v>3596600</v>
       </c>
       <c r="K35" s="3">
         <v>1587000</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7400400</v>
+        <v>7668100</v>
       </c>
       <c r="E41" s="3">
-        <v>7119000</v>
+        <v>7376500</v>
       </c>
       <c r="F41" s="3">
-        <v>6649800</v>
+        <v>6890300</v>
       </c>
       <c r="G41" s="3">
-        <v>9021300</v>
+        <v>9347600</v>
       </c>
       <c r="H41" s="3">
-        <v>10390800</v>
+        <v>10766600</v>
       </c>
       <c r="I41" s="3">
-        <v>6592300</v>
+        <v>6830700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2422100</v>
+        <v>2509700</v>
       </c>
       <c r="E43" s="3">
-        <v>2193200</v>
+        <v>2272600</v>
       </c>
       <c r="F43" s="3">
-        <v>1979200</v>
+        <v>2050800</v>
       </c>
       <c r="G43" s="3">
-        <v>1881100</v>
+        <v>1949100</v>
       </c>
       <c r="H43" s="3">
-        <v>1669700</v>
+        <v>1730100</v>
       </c>
       <c r="I43" s="3">
-        <v>2236100</v>
+        <v>2317000</v>
       </c>
       <c r="J43" s="3">
-        <v>1461200</v>
+        <v>1514000</v>
       </c>
       <c r="K43" s="3">
         <v>1253700</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>118700</v>
+        <v>123000</v>
       </c>
       <c r="E45" s="3">
-        <v>70600</v>
+        <v>73200</v>
       </c>
       <c r="F45" s="3">
-        <v>56500</v>
+        <v>58500</v>
       </c>
       <c r="G45" s="3">
-        <v>921000</v>
+        <v>954300</v>
       </c>
       <c r="H45" s="3">
-        <v>888800</v>
+        <v>920900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>491717000</v>
+        <v>509503000</v>
       </c>
       <c r="E47" s="3">
-        <v>427491000</v>
+        <v>442955000</v>
       </c>
       <c r="F47" s="3">
-        <v>380645000</v>
+        <v>394414000</v>
       </c>
       <c r="G47" s="3">
-        <v>351224000</v>
+        <v>363929000</v>
       </c>
       <c r="H47" s="3">
-        <v>316983000</v>
+        <v>328449000</v>
       </c>
       <c r="I47" s="3">
-        <v>293708000</v>
+        <v>304332000</v>
       </c>
       <c r="J47" s="3">
-        <v>260128000</v>
+        <v>269538000</v>
       </c>
       <c r="K47" s="3">
         <v>250262000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9449400</v>
+        <v>9791300</v>
       </c>
       <c r="E48" s="3">
-        <v>7993000</v>
+        <v>8282200</v>
       </c>
       <c r="F48" s="3">
-        <v>6415300</v>
+        <v>6647300</v>
       </c>
       <c r="G48" s="3">
-        <v>4426300</v>
+        <v>4586400</v>
       </c>
       <c r="H48" s="3">
-        <v>3954100</v>
+        <v>4097100</v>
       </c>
       <c r="I48" s="3">
-        <v>3732600</v>
+        <v>3867600</v>
       </c>
       <c r="J48" s="3">
-        <v>3465000</v>
+        <v>3590400</v>
       </c>
       <c r="K48" s="3">
         <v>3204600</v>
@@ -1931,10 +1931,10 @@
         <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>860200</v>
+        <v>891300</v>
       </c>
       <c r="J49" s="3">
-        <v>866600</v>
+        <v>898000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>176200</v>
+        <v>182600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="3">
-        <v>2808200</v>
+        <v>2909800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>522339000</v>
+        <v>541234000</v>
       </c>
       <c r="E54" s="3">
-        <v>456137000</v>
+        <v>472637000</v>
       </c>
       <c r="F54" s="3">
-        <v>406126000</v>
+        <v>420817000</v>
       </c>
       <c r="G54" s="3">
-        <v>378005000</v>
+        <v>391678000</v>
       </c>
       <c r="H54" s="3">
-        <v>343156000</v>
+        <v>355569000</v>
       </c>
       <c r="I54" s="3">
-        <v>314879000</v>
+        <v>326269000</v>
       </c>
       <c r="J54" s="3">
-        <v>276527000</v>
+        <v>286530000</v>
       </c>
       <c r="K54" s="3">
         <v>272457000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>442019000</v>
+        <v>458008000</v>
       </c>
       <c r="E59" s="3">
-        <v>395975000</v>
+        <v>410298000</v>
       </c>
       <c r="F59" s="3">
-        <v>346884000</v>
+        <v>359432000</v>
       </c>
       <c r="G59" s="3">
-        <v>317365000</v>
+        <v>328845000</v>
       </c>
       <c r="H59" s="3">
-        <v>278432000</v>
+        <v>288504000</v>
       </c>
       <c r="I59" s="3">
-        <v>256005000</v>
+        <v>265265000</v>
       </c>
       <c r="J59" s="3">
-        <v>230246000</v>
+        <v>238574000</v>
       </c>
       <c r="K59" s="3">
         <v>27699500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8146900</v>
+        <v>8441600</v>
       </c>
       <c r="E61" s="3">
-        <v>2824200</v>
+        <v>2926400</v>
       </c>
       <c r="F61" s="3">
-        <v>2634200</v>
+        <v>2729500</v>
       </c>
       <c r="G61" s="3">
-        <v>7592200</v>
+        <v>7866800</v>
       </c>
       <c r="H61" s="3">
-        <v>9900500</v>
+        <v>10258600</v>
       </c>
       <c r="I61" s="3">
-        <v>9897000</v>
+        <v>10255000</v>
       </c>
       <c r="J61" s="3">
-        <v>9528800</v>
+        <v>9873500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1447900</v>
+        <v>1500200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>682700</v>
+        <v>707400</v>
       </c>
       <c r="G62" s="3">
-        <v>1088800</v>
+        <v>1128100</v>
       </c>
       <c r="H62" s="3">
-        <v>2376100</v>
+        <v>2462100</v>
       </c>
       <c r="I62" s="3">
-        <v>2715600</v>
+        <v>2813800</v>
       </c>
       <c r="J62" s="3">
-        <v>689400</v>
+        <v>714400</v>
       </c>
       <c r="K62" s="3">
         <v>1124000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>465748000</v>
+        <v>482595000</v>
       </c>
       <c r="E66" s="3">
-        <v>411514000</v>
+        <v>426400000</v>
       </c>
       <c r="F66" s="3">
-        <v>361144000</v>
+        <v>374208000</v>
       </c>
       <c r="G66" s="3">
-        <v>335449000</v>
+        <v>347583000</v>
       </c>
       <c r="H66" s="3">
-        <v>297955000</v>
+        <v>308733000</v>
       </c>
       <c r="I66" s="3">
-        <v>275056000</v>
+        <v>285006000</v>
       </c>
       <c r="J66" s="3">
-        <v>245646000</v>
+        <v>254532000</v>
       </c>
       <c r="K66" s="3">
         <v>240735000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39901300</v>
+        <v>41344700</v>
       </c>
       <c r="E72" s="3">
-        <v>32807000</v>
+        <v>33993700</v>
       </c>
       <c r="F72" s="3">
-        <v>32875900</v>
+        <v>34065100</v>
       </c>
       <c r="G72" s="3">
-        <v>29340500</v>
+        <v>30401900</v>
       </c>
       <c r="H72" s="3">
-        <v>28373000</v>
+        <v>29399300</v>
       </c>
       <c r="I72" s="3">
-        <v>25078700</v>
+        <v>25985900</v>
       </c>
       <c r="J72" s="3">
-        <v>21637900</v>
+        <v>22420600</v>
       </c>
       <c r="K72" s="3">
         <v>19164900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56591600</v>
+        <v>58638600</v>
       </c>
       <c r="E76" s="3">
-        <v>44622900</v>
+        <v>46237000</v>
       </c>
       <c r="F76" s="3">
-        <v>44982000</v>
+        <v>46609100</v>
       </c>
       <c r="G76" s="3">
-        <v>42555500</v>
+        <v>44094900</v>
       </c>
       <c r="H76" s="3">
-        <v>45200500</v>
+        <v>46835500</v>
       </c>
       <c r="I76" s="3">
-        <v>39822400</v>
+        <v>41262900</v>
       </c>
       <c r="J76" s="3">
-        <v>30881600</v>
+        <v>31998700</v>
       </c>
       <c r="K76" s="3">
         <v>31721300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8157800</v>
+        <v>8465000</v>
       </c>
       <c r="E81" s="3">
-        <v>1594800</v>
+        <v>1654900</v>
       </c>
       <c r="F81" s="3">
-        <v>4514100</v>
+        <v>4684100</v>
       </c>
       <c r="G81" s="3">
-        <v>2677000</v>
+        <v>2777800</v>
       </c>
       <c r="H81" s="3">
-        <v>4856500</v>
+        <v>5039300</v>
       </c>
       <c r="I81" s="3">
-        <v>4508300</v>
+        <v>4678000</v>
       </c>
       <c r="J81" s="3">
-        <v>3466100</v>
+        <v>3596600</v>
       </c>
       <c r="K81" s="3">
         <v>1587000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>612900</v>
+        <v>636000</v>
       </c>
       <c r="E83" s="3">
-        <v>369200</v>
+        <v>383100</v>
       </c>
       <c r="F83" s="3">
-        <v>313500</v>
+        <v>325300</v>
       </c>
       <c r="G83" s="3">
-        <v>291500</v>
+        <v>302500</v>
       </c>
       <c r="H83" s="3">
-        <v>285000</v>
+        <v>295700</v>
       </c>
       <c r="I83" s="3">
-        <v>297300</v>
+        <v>308500</v>
       </c>
       <c r="J83" s="3">
-        <v>283600</v>
+        <v>294200</v>
       </c>
       <c r="K83" s="3">
         <v>279600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40033000</v>
+        <v>41540400</v>
       </c>
       <c r="E89" s="3">
-        <v>20651400</v>
+        <v>21429000</v>
       </c>
       <c r="F89" s="3">
-        <v>28130600</v>
+        <v>29189800</v>
       </c>
       <c r="G89" s="3">
-        <v>12470200</v>
+        <v>12939700</v>
       </c>
       <c r="H89" s="3">
-        <v>-2632800</v>
+        <v>-2731900</v>
       </c>
       <c r="I89" s="3">
-        <v>10951500</v>
+        <v>11363800</v>
       </c>
       <c r="J89" s="3">
-        <v>9558100</v>
+        <v>9918000</v>
       </c>
       <c r="K89" s="3">
         <v>18965500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1597600</v>
+        <v>-1657800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2735700</v>
+        <v>-2838700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1346300</v>
+        <v>-1397000</v>
       </c>
       <c r="G91" s="3">
-        <v>-743200</v>
+        <v>-771200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1173400</v>
+        <v>-1217600</v>
       </c>
       <c r="I91" s="3">
-        <v>-706500</v>
+        <v>-733100</v>
       </c>
       <c r="J91" s="3">
-        <v>-521200</v>
+        <v>-540800</v>
       </c>
       <c r="K91" s="3">
         <v>-951600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34642200</v>
+        <v>-35946600</v>
       </c>
       <c r="E94" s="3">
-        <v>-33362700</v>
+        <v>-34618900</v>
       </c>
       <c r="F94" s="3">
-        <v>-24307700</v>
+        <v>-25223000</v>
       </c>
       <c r="G94" s="3">
-        <v>-14654200</v>
+        <v>-15206000</v>
       </c>
       <c r="H94" s="3">
-        <v>9383900</v>
+        <v>9737200</v>
       </c>
       <c r="I94" s="3">
-        <v>-9693200</v>
+        <v>-10058200</v>
       </c>
       <c r="J94" s="3">
-        <v>-8430200</v>
+        <v>-8747600</v>
       </c>
       <c r="K94" s="3">
         <v>-29241800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-688000</v>
+        <v>-714000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1636100</v>
+        <v>-1697700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1002700</v>
+        <v>-1040400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1715500</v>
+        <v>-1780100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1608300</v>
+        <v>-1668800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1833100</v>
+        <v>-1902100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1125300</v>
+        <v>-1167600</v>
       </c>
       <c r="K96" s="3">
         <v>-1195600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5049100</v>
+        <v>-5239200</v>
       </c>
       <c r="E100" s="3">
-        <v>13011100</v>
+        <v>13501000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6381500</v>
+        <v>-6621800</v>
       </c>
       <c r="G100" s="3">
-        <v>877500</v>
+        <v>910600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2717300</v>
+        <v>-2819600</v>
       </c>
       <c r="I100" s="3">
-        <v>2337900</v>
+        <v>2425900</v>
       </c>
       <c r="J100" s="3">
-        <v>-7852500</v>
+        <v>-8148100</v>
       </c>
       <c r="K100" s="3">
         <v>12208600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F101" s="3">
-        <v>-25100</v>
+        <v>-26000</v>
       </c>
       <c r="G101" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="H101" s="3">
-        <v>33700</v>
+        <v>35000</v>
       </c>
       <c r="I101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J101" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>349500</v>
+        <v>362600</v>
       </c>
       <c r="E102" s="3">
-        <v>311100</v>
+        <v>322800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2583700</v>
+        <v>-2680900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1266600</v>
+        <v>-1314300</v>
       </c>
       <c r="H102" s="3">
-        <v>4067500</v>
+        <v>4220700</v>
       </c>
       <c r="I102" s="3">
-        <v>3597500</v>
+        <v>3733000</v>
       </c>
       <c r="J102" s="3">
-        <v>-6735200</v>
+        <v>-6988800</v>
       </c>
       <c r="K102" s="3">
         <v>1932200</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>106869100</v>
+        <v>111939200</v>
       </c>
       <c r="E8" s="3">
-        <v>92311700</v>
+        <v>96691100</v>
       </c>
       <c r="F8" s="3">
-        <v>93834800</v>
+        <v>98286600</v>
       </c>
       <c r="G8" s="3">
-        <v>78923400</v>
+        <v>82667600</v>
       </c>
       <c r="H8" s="3">
-        <v>73743400</v>
+        <v>77242000</v>
       </c>
       <c r="I8" s="3">
-        <v>64179300</v>
+        <v>67224100</v>
       </c>
       <c r="J8" s="3">
-        <v>61241500</v>
+        <v>64146900</v>
       </c>
       <c r="K8" s="3">
         <v>53300700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87140900</v>
+        <v>91275000</v>
       </c>
       <c r="E9" s="3">
-        <v>80058900</v>
+        <v>83857100</v>
       </c>
       <c r="F9" s="3">
-        <v>78265600</v>
+        <v>81978700</v>
       </c>
       <c r="G9" s="3">
-        <v>67442300</v>
+        <v>70641900</v>
       </c>
       <c r="H9" s="3">
-        <v>56647300</v>
+        <v>59334700</v>
       </c>
       <c r="I9" s="3">
-        <v>50017100</v>
+        <v>52390000</v>
       </c>
       <c r="J9" s="3">
-        <v>49348600</v>
+        <v>51689800</v>
       </c>
       <c r="K9" s="3">
         <v>47398300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19728200</v>
+        <v>20664100</v>
       </c>
       <c r="E10" s="3">
-        <v>12252800</v>
+        <v>12834100</v>
       </c>
       <c r="F10" s="3">
-        <v>15569200</v>
+        <v>16307900</v>
       </c>
       <c r="G10" s="3">
-        <v>11481000</v>
+        <v>12025700</v>
       </c>
       <c r="H10" s="3">
-        <v>17096200</v>
+        <v>17907300</v>
       </c>
       <c r="I10" s="3">
-        <v>14162200</v>
+        <v>14834100</v>
       </c>
       <c r="J10" s="3">
-        <v>11892900</v>
+        <v>12457100</v>
       </c>
       <c r="K10" s="3">
         <v>5902300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>927600</v>
+        <v>971600</v>
       </c>
       <c r="E14" s="3">
-        <v>1191600</v>
+        <v>1248100</v>
       </c>
       <c r="F14" s="3">
-        <v>400400</v>
+        <v>419400</v>
       </c>
       <c r="G14" s="3">
-        <v>385700</v>
+        <v>404000</v>
       </c>
       <c r="H14" s="3">
-        <v>46600</v>
+        <v>48800</v>
       </c>
       <c r="I14" s="3">
-        <v>166900</v>
+        <v>174800</v>
       </c>
       <c r="J14" s="3">
-        <v>552300</v>
+        <v>578500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>99348500</v>
+        <v>104061800</v>
       </c>
       <c r="E17" s="3">
-        <v>91414700</v>
+        <v>95751600</v>
       </c>
       <c r="F17" s="3">
-        <v>88820300</v>
+        <v>93034200</v>
       </c>
       <c r="G17" s="3">
-        <v>76311100</v>
+        <v>79931500</v>
       </c>
       <c r="H17" s="3">
-        <v>67359600</v>
+        <v>70555200</v>
       </c>
       <c r="I17" s="3">
-        <v>58193400</v>
+        <v>60954200</v>
       </c>
       <c r="J17" s="3">
-        <v>56832600</v>
+        <v>59528800</v>
       </c>
       <c r="K17" s="3">
         <v>51793300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7520600</v>
+        <v>7877400</v>
       </c>
       <c r="E18" s="3">
-        <v>896900</v>
+        <v>939500</v>
       </c>
       <c r="F18" s="3">
-        <v>5014500</v>
+        <v>5252400</v>
       </c>
       <c r="G18" s="3">
-        <v>2612300</v>
+        <v>2736200</v>
       </c>
       <c r="H18" s="3">
-        <v>6383900</v>
+        <v>6686700</v>
       </c>
       <c r="I18" s="3">
-        <v>5985900</v>
+        <v>6269900</v>
       </c>
       <c r="J18" s="3">
-        <v>4408900</v>
+        <v>4618100</v>
       </c>
       <c r="K18" s="3">
         <v>1507400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1163400</v>
+        <v>1218600</v>
       </c>
       <c r="E20" s="3">
-        <v>1124800</v>
+        <v>1178200</v>
       </c>
       <c r="F20" s="3">
-        <v>1037400</v>
+        <v>1086600</v>
       </c>
       <c r="G20" s="3">
-        <v>850300</v>
+        <v>890700</v>
       </c>
       <c r="H20" s="3">
-        <v>286700</v>
+        <v>300300</v>
       </c>
       <c r="I20" s="3">
-        <v>-118400</v>
+        <v>-124000</v>
       </c>
       <c r="J20" s="3">
-        <v>453800</v>
+        <v>475400</v>
       </c>
       <c r="K20" s="3">
         <v>435700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9317600</v>
+        <v>9762100</v>
       </c>
       <c r="E21" s="3">
-        <v>2403400</v>
+        <v>2518900</v>
       </c>
       <c r="F21" s="3">
-        <v>6376000</v>
+        <v>6679700</v>
       </c>
       <c r="G21" s="3">
-        <v>3763900</v>
+        <v>3943700</v>
       </c>
       <c r="H21" s="3">
-        <v>6965100</v>
+        <v>7296700</v>
       </c>
       <c r="I21" s="3">
-        <v>6174900</v>
+        <v>6469000</v>
       </c>
       <c r="J21" s="3">
-        <v>5155900</v>
+        <v>5401600</v>
       </c>
       <c r="K21" s="3">
         <v>2222700</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>585600</v>
+        <v>613300</v>
       </c>
       <c r="K22" s="3">
         <v>369500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8684000</v>
+        <v>9096000</v>
       </c>
       <c r="E23" s="3">
-        <v>2021700</v>
+        <v>2117700</v>
       </c>
       <c r="F23" s="3">
-        <v>6051900</v>
+        <v>6339000</v>
       </c>
       <c r="G23" s="3">
-        <v>3462600</v>
+        <v>3626800</v>
       </c>
       <c r="H23" s="3">
-        <v>6670600</v>
+        <v>6987000</v>
       </c>
       <c r="I23" s="3">
-        <v>5867600</v>
+        <v>6146000</v>
       </c>
       <c r="J23" s="3">
-        <v>4277200</v>
+        <v>4480100</v>
       </c>
       <c r="K23" s="3">
         <v>1573700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="E24" s="3">
-        <v>288300</v>
+        <v>302000</v>
       </c>
       <c r="F24" s="3">
-        <v>1295300</v>
+        <v>1356800</v>
       </c>
       <c r="G24" s="3">
-        <v>618200</v>
+        <v>647600</v>
       </c>
       <c r="H24" s="3">
-        <v>1560400</v>
+        <v>1634400</v>
       </c>
       <c r="I24" s="3">
-        <v>1145600</v>
+        <v>1199900</v>
       </c>
       <c r="J24" s="3">
-        <v>645300</v>
+        <v>675900</v>
       </c>
       <c r="K24" s="3">
         <v>-43600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8570600</v>
+        <v>8977200</v>
       </c>
       <c r="E26" s="3">
-        <v>1733500</v>
+        <v>1815700</v>
       </c>
       <c r="F26" s="3">
-        <v>4756600</v>
+        <v>4982200</v>
       </c>
       <c r="G26" s="3">
-        <v>2844300</v>
+        <v>2979300</v>
       </c>
       <c r="H26" s="3">
-        <v>5110200</v>
+        <v>5352600</v>
       </c>
       <c r="I26" s="3">
-        <v>4722000</v>
+        <v>4946000</v>
       </c>
       <c r="J26" s="3">
-        <v>3631900</v>
+        <v>3804200</v>
       </c>
       <c r="K26" s="3">
         <v>1617300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8465000</v>
+        <v>8866600</v>
       </c>
       <c r="E27" s="3">
-        <v>1654900</v>
+        <v>1733400</v>
       </c>
       <c r="F27" s="3">
-        <v>4684100</v>
+        <v>4906300</v>
       </c>
       <c r="G27" s="3">
-        <v>2777800</v>
+        <v>2909600</v>
       </c>
       <c r="H27" s="3">
-        <v>5039300</v>
+        <v>5278400</v>
       </c>
       <c r="I27" s="3">
-        <v>4678000</v>
+        <v>4899900</v>
       </c>
       <c r="J27" s="3">
-        <v>3596600</v>
+        <v>3767300</v>
       </c>
       <c r="K27" s="3">
         <v>1587000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1163400</v>
+        <v>-1218600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1124800</v>
+        <v>-1178200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1037400</v>
+        <v>-1086600</v>
       </c>
       <c r="G32" s="3">
-        <v>-850300</v>
+        <v>-890700</v>
       </c>
       <c r="H32" s="3">
-        <v>-286700</v>
+        <v>-300300</v>
       </c>
       <c r="I32" s="3">
-        <v>118400</v>
+        <v>124000</v>
       </c>
       <c r="J32" s="3">
-        <v>-453800</v>
+        <v>-475400</v>
       </c>
       <c r="K32" s="3">
         <v>-435700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8465000</v>
+        <v>8866600</v>
       </c>
       <c r="E33" s="3">
-        <v>1654900</v>
+        <v>1733400</v>
       </c>
       <c r="F33" s="3">
-        <v>4684100</v>
+        <v>4906300</v>
       </c>
       <c r="G33" s="3">
-        <v>2777800</v>
+        <v>2909600</v>
       </c>
       <c r="H33" s="3">
-        <v>5039300</v>
+        <v>5278400</v>
       </c>
       <c r="I33" s="3">
-        <v>4678000</v>
+        <v>4899900</v>
       </c>
       <c r="J33" s="3">
-        <v>3596600</v>
+        <v>3767300</v>
       </c>
       <c r="K33" s="3">
         <v>1587000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8465000</v>
+        <v>8866600</v>
       </c>
       <c r="E35" s="3">
-        <v>1654900</v>
+        <v>1733400</v>
       </c>
       <c r="F35" s="3">
-        <v>4684100</v>
+        <v>4906300</v>
       </c>
       <c r="G35" s="3">
-        <v>2777800</v>
+        <v>2909600</v>
       </c>
       <c r="H35" s="3">
-        <v>5039300</v>
+        <v>5278400</v>
       </c>
       <c r="I35" s="3">
-        <v>4678000</v>
+        <v>4899900</v>
       </c>
       <c r="J35" s="3">
-        <v>3596600</v>
+        <v>3767300</v>
       </c>
       <c r="K35" s="3">
         <v>1587000</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7668100</v>
+        <v>8031900</v>
       </c>
       <c r="E41" s="3">
-        <v>7376500</v>
+        <v>7726500</v>
       </c>
       <c r="F41" s="3">
-        <v>6890300</v>
+        <v>7217200</v>
       </c>
       <c r="G41" s="3">
-        <v>9347600</v>
+        <v>9791100</v>
       </c>
       <c r="H41" s="3">
-        <v>10766600</v>
+        <v>11277400</v>
       </c>
       <c r="I41" s="3">
-        <v>6830700</v>
+        <v>7154800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2509700</v>
+        <v>2628800</v>
       </c>
       <c r="E43" s="3">
-        <v>2272600</v>
+        <v>2380400</v>
       </c>
       <c r="F43" s="3">
-        <v>2050800</v>
+        <v>2148100</v>
       </c>
       <c r="G43" s="3">
-        <v>1949100</v>
+        <v>2041600</v>
       </c>
       <c r="H43" s="3">
-        <v>1730100</v>
+        <v>1812200</v>
       </c>
       <c r="I43" s="3">
-        <v>2317000</v>
+        <v>2426900</v>
       </c>
       <c r="J43" s="3">
-        <v>1514000</v>
+        <v>1585900</v>
       </c>
       <c r="K43" s="3">
         <v>1253700</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123000</v>
+        <v>128800</v>
       </c>
       <c r="E45" s="3">
-        <v>73200</v>
+        <v>76700</v>
       </c>
       <c r="F45" s="3">
-        <v>58500</v>
+        <v>61300</v>
       </c>
       <c r="G45" s="3">
-        <v>954300</v>
+        <v>999600</v>
       </c>
       <c r="H45" s="3">
-        <v>920900</v>
+        <v>964600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>509503000</v>
+        <v>533675000</v>
       </c>
       <c r="E47" s="3">
-        <v>442955000</v>
+        <v>463969000</v>
       </c>
       <c r="F47" s="3">
-        <v>394414000</v>
+        <v>413125000</v>
       </c>
       <c r="G47" s="3">
-        <v>363929000</v>
+        <v>381195000</v>
       </c>
       <c r="H47" s="3">
-        <v>328449000</v>
+        <v>344031000</v>
       </c>
       <c r="I47" s="3">
-        <v>304332000</v>
+        <v>318771000</v>
       </c>
       <c r="J47" s="3">
-        <v>269538000</v>
+        <v>282325000</v>
       </c>
       <c r="K47" s="3">
         <v>250262000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9791300</v>
+        <v>10255800</v>
       </c>
       <c r="E48" s="3">
-        <v>8282200</v>
+        <v>8675100</v>
       </c>
       <c r="F48" s="3">
-        <v>6647300</v>
+        <v>6962700</v>
       </c>
       <c r="G48" s="3">
-        <v>4586400</v>
+        <v>4803900</v>
       </c>
       <c r="H48" s="3">
-        <v>4097100</v>
+        <v>4291500</v>
       </c>
       <c r="I48" s="3">
-        <v>3867600</v>
+        <v>4051100</v>
       </c>
       <c r="J48" s="3">
-        <v>3590400</v>
+        <v>3760700</v>
       </c>
       <c r="K48" s="3">
         <v>3204600</v>
@@ -1931,10 +1931,10 @@
         <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>891300</v>
+        <v>933600</v>
       </c>
       <c r="J49" s="3">
-        <v>898000</v>
+        <v>940600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
-        <v>182600</v>
+        <v>191200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="3">
-        <v>2909800</v>
+        <v>3047900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>541234000</v>
+        <v>566911000</v>
       </c>
       <c r="E54" s="3">
-        <v>472637000</v>
+        <v>495060000</v>
       </c>
       <c r="F54" s="3">
-        <v>420817000</v>
+        <v>440782000</v>
       </c>
       <c r="G54" s="3">
-        <v>391678000</v>
+        <v>410260000</v>
       </c>
       <c r="H54" s="3">
-        <v>355569000</v>
+        <v>372438000</v>
       </c>
       <c r="I54" s="3">
-        <v>326269000</v>
+        <v>341748000</v>
       </c>
       <c r="J54" s="3">
-        <v>286530000</v>
+        <v>300124000</v>
       </c>
       <c r="K54" s="3">
         <v>272457000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>458008000</v>
+        <v>479737000</v>
       </c>
       <c r="E59" s="3">
-        <v>410298000</v>
+        <v>429764000</v>
       </c>
       <c r="F59" s="3">
-        <v>359432000</v>
+        <v>376484000</v>
       </c>
       <c r="G59" s="3">
-        <v>328845000</v>
+        <v>344446000</v>
       </c>
       <c r="H59" s="3">
-        <v>288504000</v>
+        <v>302191000</v>
       </c>
       <c r="I59" s="3">
-        <v>265265000</v>
+        <v>277850000</v>
       </c>
       <c r="J59" s="3">
-        <v>238574000</v>
+        <v>249893000</v>
       </c>
       <c r="K59" s="3">
         <v>27699500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8441600</v>
+        <v>8842100</v>
       </c>
       <c r="E61" s="3">
-        <v>2926400</v>
+        <v>3065200</v>
       </c>
       <c r="F61" s="3">
-        <v>2729500</v>
+        <v>2858900</v>
       </c>
       <c r="G61" s="3">
-        <v>7866800</v>
+        <v>8240000</v>
       </c>
       <c r="H61" s="3">
-        <v>10258600</v>
+        <v>10745300</v>
       </c>
       <c r="I61" s="3">
-        <v>10255000</v>
+        <v>10741500</v>
       </c>
       <c r="J61" s="3">
-        <v>9873500</v>
+        <v>10341900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500200</v>
+        <v>1571400</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>707400</v>
+        <v>741000</v>
       </c>
       <c r="G62" s="3">
-        <v>1128100</v>
+        <v>1181700</v>
       </c>
       <c r="H62" s="3">
-        <v>2462100</v>
+        <v>2578900</v>
       </c>
       <c r="I62" s="3">
-        <v>2813800</v>
+        <v>2947300</v>
       </c>
       <c r="J62" s="3">
-        <v>714400</v>
+        <v>748300</v>
       </c>
       <c r="K62" s="3">
         <v>1124000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>482595000</v>
+        <v>505490000</v>
       </c>
       <c r="E66" s="3">
-        <v>426400000</v>
+        <v>446629000</v>
       </c>
       <c r="F66" s="3">
-        <v>374208000</v>
+        <v>391961000</v>
       </c>
       <c r="G66" s="3">
-        <v>347583000</v>
+        <v>364073000</v>
       </c>
       <c r="H66" s="3">
-        <v>308733000</v>
+        <v>323380000</v>
       </c>
       <c r="I66" s="3">
-        <v>285006000</v>
+        <v>298527000</v>
       </c>
       <c r="J66" s="3">
-        <v>254532000</v>
+        <v>266607000</v>
       </c>
       <c r="K66" s="3">
         <v>240735000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41344700</v>
+        <v>43306100</v>
       </c>
       <c r="E72" s="3">
-        <v>33993700</v>
+        <v>35606400</v>
       </c>
       <c r="F72" s="3">
-        <v>34065100</v>
+        <v>35681300</v>
       </c>
       <c r="G72" s="3">
-        <v>30401900</v>
+        <v>31844200</v>
       </c>
       <c r="H72" s="3">
-        <v>29399300</v>
+        <v>30794100</v>
       </c>
       <c r="I72" s="3">
-        <v>25985900</v>
+        <v>27218700</v>
       </c>
       <c r="J72" s="3">
-        <v>22420600</v>
+        <v>23484300</v>
       </c>
       <c r="K72" s="3">
         <v>19164900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58638600</v>
+        <v>61420600</v>
       </c>
       <c r="E76" s="3">
-        <v>46237000</v>
+        <v>48430600</v>
       </c>
       <c r="F76" s="3">
-        <v>46609100</v>
+        <v>48820300</v>
       </c>
       <c r="G76" s="3">
-        <v>44094900</v>
+        <v>46186800</v>
       </c>
       <c r="H76" s="3">
-        <v>46835500</v>
+        <v>49057500</v>
       </c>
       <c r="I76" s="3">
-        <v>41262900</v>
+        <v>43220500</v>
       </c>
       <c r="J76" s="3">
-        <v>31998700</v>
+        <v>33516800</v>
       </c>
       <c r="K76" s="3">
         <v>31721300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8465000</v>
+        <v>8866600</v>
       </c>
       <c r="E81" s="3">
-        <v>1654900</v>
+        <v>1733400</v>
       </c>
       <c r="F81" s="3">
-        <v>4684100</v>
+        <v>4906300</v>
       </c>
       <c r="G81" s="3">
-        <v>2777800</v>
+        <v>2909600</v>
       </c>
       <c r="H81" s="3">
-        <v>5039300</v>
+        <v>5278400</v>
       </c>
       <c r="I81" s="3">
-        <v>4678000</v>
+        <v>4899900</v>
       </c>
       <c r="J81" s="3">
-        <v>3596600</v>
+        <v>3767300</v>
       </c>
       <c r="K81" s="3">
         <v>1587000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>636000</v>
+        <v>666100</v>
       </c>
       <c r="E83" s="3">
-        <v>383100</v>
+        <v>401300</v>
       </c>
       <c r="F83" s="3">
-        <v>325300</v>
+        <v>340700</v>
       </c>
       <c r="G83" s="3">
-        <v>302500</v>
+        <v>316900</v>
       </c>
       <c r="H83" s="3">
-        <v>295700</v>
+        <v>309700</v>
       </c>
       <c r="I83" s="3">
-        <v>308500</v>
+        <v>323100</v>
       </c>
       <c r="J83" s="3">
-        <v>294200</v>
+        <v>308200</v>
       </c>
       <c r="K83" s="3">
         <v>279600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41540400</v>
+        <v>43511200</v>
       </c>
       <c r="E89" s="3">
-        <v>21429000</v>
+        <v>22445600</v>
       </c>
       <c r="F89" s="3">
-        <v>29189800</v>
+        <v>30574600</v>
       </c>
       <c r="G89" s="3">
-        <v>12939700</v>
+        <v>13553600</v>
       </c>
       <c r="H89" s="3">
-        <v>-2731900</v>
+        <v>-2861500</v>
       </c>
       <c r="I89" s="3">
-        <v>11363800</v>
+        <v>11902900</v>
       </c>
       <c r="J89" s="3">
-        <v>9918000</v>
+        <v>10388600</v>
       </c>
       <c r="K89" s="3">
         <v>18965500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1657800</v>
+        <v>-1736400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2838700</v>
+        <v>-2973300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1397000</v>
+        <v>-1463200</v>
       </c>
       <c r="G91" s="3">
-        <v>-771200</v>
+        <v>-807800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1217600</v>
+        <v>-1275400</v>
       </c>
       <c r="I91" s="3">
-        <v>-733100</v>
+        <v>-767900</v>
       </c>
       <c r="J91" s="3">
-        <v>-540800</v>
+        <v>-566500</v>
       </c>
       <c r="K91" s="3">
         <v>-951600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35946600</v>
+        <v>-37652000</v>
       </c>
       <c r="E94" s="3">
-        <v>-34618900</v>
+        <v>-36261300</v>
       </c>
       <c r="F94" s="3">
-        <v>-25223000</v>
+        <v>-26419600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15206000</v>
+        <v>-15927400</v>
       </c>
       <c r="H94" s="3">
-        <v>9737200</v>
+        <v>10199200</v>
       </c>
       <c r="I94" s="3">
-        <v>-10058200</v>
+        <v>-10535400</v>
       </c>
       <c r="J94" s="3">
-        <v>-8747600</v>
+        <v>-9162600</v>
       </c>
       <c r="K94" s="3">
         <v>-29241800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-714000</v>
+        <v>-747800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1697700</v>
+        <v>-1778300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1040400</v>
+        <v>-1089800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1780100</v>
+        <v>-1864500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1668800</v>
+        <v>-1748000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1902100</v>
+        <v>-1992300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1167600</v>
+        <v>-1223000</v>
       </c>
       <c r="K96" s="3">
         <v>-1195600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5239200</v>
+        <v>-5487700</v>
       </c>
       <c r="E100" s="3">
-        <v>13501000</v>
+        <v>14141500</v>
       </c>
       <c r="F100" s="3">
-        <v>-6621800</v>
+        <v>-6935900</v>
       </c>
       <c r="G100" s="3">
-        <v>910600</v>
+        <v>953800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2819600</v>
+        <v>-2953400</v>
       </c>
       <c r="I100" s="3">
-        <v>2425900</v>
+        <v>2541000</v>
       </c>
       <c r="J100" s="3">
-        <v>-8148100</v>
+        <v>-8534700</v>
       </c>
       <c r="K100" s="3">
         <v>12208600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="E101" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="F101" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="G101" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="H101" s="3">
-        <v>35000</v>
+        <v>36700</v>
       </c>
       <c r="I101" s="3">
         <v>1500</v>
       </c>
       <c r="J101" s="3">
-        <v>-11000</v>
+        <v>-11600</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>362600</v>
+        <v>379800</v>
       </c>
       <c r="E102" s="3">
-        <v>322800</v>
+        <v>338200</v>
       </c>
       <c r="F102" s="3">
-        <v>-2680900</v>
+        <v>-2808100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1314300</v>
+        <v>-1376700</v>
       </c>
       <c r="H102" s="3">
-        <v>4220700</v>
+        <v>4420900</v>
       </c>
       <c r="I102" s="3">
-        <v>3733000</v>
+        <v>3910100</v>
       </c>
       <c r="J102" s="3">
-        <v>-6988800</v>
+        <v>-7320300</v>
       </c>
       <c r="K102" s="3">
         <v>1932200</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>111939200</v>
+        <v>112424800</v>
       </c>
       <c r="E8" s="3">
-        <v>96691100</v>
+        <v>97110600</v>
       </c>
       <c r="F8" s="3">
-        <v>98286600</v>
+        <v>98713000</v>
       </c>
       <c r="G8" s="3">
-        <v>82667600</v>
+        <v>83026300</v>
       </c>
       <c r="H8" s="3">
-        <v>77242000</v>
+        <v>77577100</v>
       </c>
       <c r="I8" s="3">
-        <v>67224100</v>
+        <v>67515800</v>
       </c>
       <c r="J8" s="3">
-        <v>64146900</v>
+        <v>64425200</v>
       </c>
       <c r="K8" s="3">
         <v>53300700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91275000</v>
+        <v>91671100</v>
       </c>
       <c r="E9" s="3">
-        <v>83857100</v>
+        <v>84220900</v>
       </c>
       <c r="F9" s="3">
-        <v>81978700</v>
+        <v>82334400</v>
       </c>
       <c r="G9" s="3">
-        <v>70641900</v>
+        <v>70948400</v>
       </c>
       <c r="H9" s="3">
-        <v>59334700</v>
+        <v>59592100</v>
       </c>
       <c r="I9" s="3">
-        <v>52390000</v>
+        <v>52617300</v>
       </c>
       <c r="J9" s="3">
-        <v>51689800</v>
+        <v>51914000</v>
       </c>
       <c r="K9" s="3">
         <v>47398300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20664100</v>
+        <v>20753800</v>
       </c>
       <c r="E10" s="3">
-        <v>12834100</v>
+        <v>12889700</v>
       </c>
       <c r="F10" s="3">
-        <v>16307900</v>
+        <v>16378600</v>
       </c>
       <c r="G10" s="3">
-        <v>12025700</v>
+        <v>12077900</v>
       </c>
       <c r="H10" s="3">
-        <v>17907300</v>
+        <v>17985000</v>
       </c>
       <c r="I10" s="3">
-        <v>14834100</v>
+        <v>14898500</v>
       </c>
       <c r="J10" s="3">
-        <v>12457100</v>
+        <v>12511200</v>
       </c>
       <c r="K10" s="3">
         <v>5902300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>971600</v>
+        <v>975800</v>
       </c>
       <c r="E14" s="3">
-        <v>1248100</v>
+        <v>1253600</v>
       </c>
       <c r="F14" s="3">
-        <v>419400</v>
+        <v>421200</v>
       </c>
       <c r="G14" s="3">
-        <v>404000</v>
+        <v>405800</v>
       </c>
       <c r="H14" s="3">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="I14" s="3">
-        <v>174800</v>
+        <v>175500</v>
       </c>
       <c r="J14" s="3">
-        <v>578500</v>
+        <v>581000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104061800</v>
+        <v>104513300</v>
       </c>
       <c r="E17" s="3">
-        <v>95751600</v>
+        <v>96167100</v>
       </c>
       <c r="F17" s="3">
-        <v>93034200</v>
+        <v>93437800</v>
       </c>
       <c r="G17" s="3">
-        <v>79931500</v>
+        <v>80278300</v>
       </c>
       <c r="H17" s="3">
-        <v>70555200</v>
+        <v>70861400</v>
       </c>
       <c r="I17" s="3">
-        <v>60954200</v>
+        <v>61218600</v>
       </c>
       <c r="J17" s="3">
-        <v>59528800</v>
+        <v>59787100</v>
       </c>
       <c r="K17" s="3">
         <v>51793300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7877400</v>
+        <v>7911600</v>
       </c>
       <c r="E18" s="3">
-        <v>939500</v>
+        <v>943600</v>
       </c>
       <c r="F18" s="3">
-        <v>5252400</v>
+        <v>5275200</v>
       </c>
       <c r="G18" s="3">
-        <v>2736200</v>
+        <v>2748100</v>
       </c>
       <c r="H18" s="3">
-        <v>6686700</v>
+        <v>6715800</v>
       </c>
       <c r="I18" s="3">
-        <v>6269900</v>
+        <v>6297100</v>
       </c>
       <c r="J18" s="3">
-        <v>4618100</v>
+        <v>4638100</v>
       </c>
       <c r="K18" s="3">
         <v>1507400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1218600</v>
+        <v>1223900</v>
       </c>
       <c r="E20" s="3">
-        <v>1178200</v>
+        <v>1183300</v>
       </c>
       <c r="F20" s="3">
-        <v>1086600</v>
+        <v>1091300</v>
       </c>
       <c r="G20" s="3">
-        <v>890700</v>
+        <v>894500</v>
       </c>
       <c r="H20" s="3">
-        <v>300300</v>
+        <v>301600</v>
       </c>
       <c r="I20" s="3">
-        <v>-124000</v>
+        <v>-124500</v>
       </c>
       <c r="J20" s="3">
-        <v>475400</v>
+        <v>477400</v>
       </c>
       <c r="K20" s="3">
         <v>435700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9762100</v>
+        <v>9806800</v>
       </c>
       <c r="E21" s="3">
-        <v>2518900</v>
+        <v>2531300</v>
       </c>
       <c r="F21" s="3">
-        <v>6679700</v>
+        <v>6709900</v>
       </c>
       <c r="G21" s="3">
-        <v>3943700</v>
+        <v>3961900</v>
       </c>
       <c r="H21" s="3">
-        <v>7296700</v>
+        <v>7329500</v>
       </c>
       <c r="I21" s="3">
-        <v>6469000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5401600</v>
+        <v>6498200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2222700</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>613300</v>
+        <v>616000</v>
       </c>
       <c r="K22" s="3">
         <v>369500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9096000</v>
+        <v>9135500</v>
       </c>
       <c r="E23" s="3">
-        <v>2117700</v>
+        <v>2126900</v>
       </c>
       <c r="F23" s="3">
-        <v>6339000</v>
+        <v>6366500</v>
       </c>
       <c r="G23" s="3">
-        <v>3626800</v>
+        <v>3642600</v>
       </c>
       <c r="H23" s="3">
-        <v>6987000</v>
+        <v>7017300</v>
       </c>
       <c r="I23" s="3">
-        <v>6146000</v>
+        <v>6172600</v>
       </c>
       <c r="J23" s="3">
-        <v>4480100</v>
+        <v>4499500</v>
       </c>
       <c r="K23" s="3">
         <v>1573700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118800</v>
+        <v>119300</v>
       </c>
       <c r="E24" s="3">
-        <v>302000</v>
+        <v>303300</v>
       </c>
       <c r="F24" s="3">
-        <v>1356800</v>
+        <v>1362600</v>
       </c>
       <c r="G24" s="3">
-        <v>647600</v>
+        <v>650400</v>
       </c>
       <c r="H24" s="3">
-        <v>1634400</v>
+        <v>1641500</v>
       </c>
       <c r="I24" s="3">
-        <v>1199900</v>
+        <v>1205100</v>
       </c>
       <c r="J24" s="3">
-        <v>675900</v>
+        <v>678800</v>
       </c>
       <c r="K24" s="3">
         <v>-43600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8977200</v>
+        <v>9016200</v>
       </c>
       <c r="E26" s="3">
-        <v>1815700</v>
+        <v>1823600</v>
       </c>
       <c r="F26" s="3">
-        <v>4982200</v>
+        <v>5003900</v>
       </c>
       <c r="G26" s="3">
-        <v>2979300</v>
+        <v>2992200</v>
       </c>
       <c r="H26" s="3">
-        <v>5352600</v>
+        <v>5375900</v>
       </c>
       <c r="I26" s="3">
-        <v>4946000</v>
+        <v>4967500</v>
       </c>
       <c r="J26" s="3">
-        <v>3804200</v>
+        <v>3820700</v>
       </c>
       <c r="K26" s="3">
         <v>1617300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8866600</v>
+        <v>8905100</v>
       </c>
       <c r="E27" s="3">
-        <v>1733400</v>
+        <v>1740900</v>
       </c>
       <c r="F27" s="3">
-        <v>4906300</v>
+        <v>4927600</v>
       </c>
       <c r="G27" s="3">
-        <v>2909600</v>
+        <v>2922200</v>
       </c>
       <c r="H27" s="3">
-        <v>5278400</v>
+        <v>5301300</v>
       </c>
       <c r="I27" s="3">
-        <v>4899900</v>
+        <v>4921200</v>
       </c>
       <c r="J27" s="3">
-        <v>3767300</v>
+        <v>3783600</v>
       </c>
       <c r="K27" s="3">
         <v>1587000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1218600</v>
+        <v>-1223900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1178200</v>
+        <v>-1183300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1086600</v>
+        <v>-1091300</v>
       </c>
       <c r="G32" s="3">
-        <v>-890700</v>
+        <v>-894500</v>
       </c>
       <c r="H32" s="3">
-        <v>-300300</v>
+        <v>-301600</v>
       </c>
       <c r="I32" s="3">
-        <v>124000</v>
+        <v>124500</v>
       </c>
       <c r="J32" s="3">
-        <v>-475400</v>
+        <v>-477400</v>
       </c>
       <c r="K32" s="3">
         <v>-435700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8866600</v>
+        <v>8905100</v>
       </c>
       <c r="E33" s="3">
-        <v>1733400</v>
+        <v>1740900</v>
       </c>
       <c r="F33" s="3">
-        <v>4906300</v>
+        <v>4927600</v>
       </c>
       <c r="G33" s="3">
-        <v>2909600</v>
+        <v>2922200</v>
       </c>
       <c r="H33" s="3">
-        <v>5278400</v>
+        <v>5301300</v>
       </c>
       <c r="I33" s="3">
-        <v>4899900</v>
+        <v>4921200</v>
       </c>
       <c r="J33" s="3">
-        <v>3767300</v>
+        <v>3783600</v>
       </c>
       <c r="K33" s="3">
         <v>1587000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8866600</v>
+        <v>8905100</v>
       </c>
       <c r="E35" s="3">
-        <v>1733400</v>
+        <v>1740900</v>
       </c>
       <c r="F35" s="3">
-        <v>4906300</v>
+        <v>4927600</v>
       </c>
       <c r="G35" s="3">
-        <v>2909600</v>
+        <v>2922200</v>
       </c>
       <c r="H35" s="3">
-        <v>5278400</v>
+        <v>5301300</v>
       </c>
       <c r="I35" s="3">
-        <v>4899900</v>
+        <v>4921200</v>
       </c>
       <c r="J35" s="3">
-        <v>3767300</v>
+        <v>3783600</v>
       </c>
       <c r="K35" s="3">
         <v>1587000</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8031900</v>
+        <v>8066800</v>
       </c>
       <c r="E41" s="3">
-        <v>7726500</v>
+        <v>7760000</v>
       </c>
       <c r="F41" s="3">
-        <v>7217200</v>
+        <v>7248500</v>
       </c>
       <c r="G41" s="3">
-        <v>9791100</v>
+        <v>9833500</v>
       </c>
       <c r="H41" s="3">
-        <v>11277400</v>
+        <v>11326300</v>
       </c>
       <c r="I41" s="3">
-        <v>7154800</v>
+        <v>7185900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2628800</v>
+        <v>2640200</v>
       </c>
       <c r="E43" s="3">
-        <v>2380400</v>
+        <v>2390700</v>
       </c>
       <c r="F43" s="3">
-        <v>2148100</v>
+        <v>2157400</v>
       </c>
       <c r="G43" s="3">
-        <v>2041600</v>
+        <v>2050500</v>
       </c>
       <c r="H43" s="3">
-        <v>1812200</v>
+        <v>1820100</v>
       </c>
       <c r="I43" s="3">
-        <v>2426900</v>
+        <v>2437500</v>
       </c>
       <c r="J43" s="3">
-        <v>1585900</v>
+        <v>1592700</v>
       </c>
       <c r="K43" s="3">
         <v>1253700</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128800</v>
+        <v>129400</v>
       </c>
       <c r="E45" s="3">
-        <v>76700</v>
+        <v>77000</v>
       </c>
       <c r="F45" s="3">
-        <v>61300</v>
+        <v>61600</v>
       </c>
       <c r="G45" s="3">
-        <v>999600</v>
+        <v>1003900</v>
       </c>
       <c r="H45" s="3">
-        <v>964600</v>
+        <v>968800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>533675000</v>
+        <v>535991000</v>
       </c>
       <c r="E47" s="3">
-        <v>463969000</v>
+        <v>465982000</v>
       </c>
       <c r="F47" s="3">
-        <v>413125000</v>
+        <v>414918000</v>
       </c>
       <c r="G47" s="3">
-        <v>381195000</v>
+        <v>382849000</v>
       </c>
       <c r="H47" s="3">
-        <v>344031000</v>
+        <v>345524000</v>
       </c>
       <c r="I47" s="3">
-        <v>318771000</v>
+        <v>320154000</v>
       </c>
       <c r="J47" s="3">
-        <v>282325000</v>
+        <v>283550000</v>
       </c>
       <c r="K47" s="3">
         <v>250262000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10255800</v>
+        <v>10300300</v>
       </c>
       <c r="E48" s="3">
-        <v>8675100</v>
+        <v>8712700</v>
       </c>
       <c r="F48" s="3">
-        <v>6962700</v>
+        <v>6992900</v>
       </c>
       <c r="G48" s="3">
-        <v>4803900</v>
+        <v>4824800</v>
       </c>
       <c r="H48" s="3">
-        <v>4291500</v>
+        <v>4310100</v>
       </c>
       <c r="I48" s="3">
-        <v>4051100</v>
+        <v>4068700</v>
       </c>
       <c r="J48" s="3">
-        <v>3760700</v>
+        <v>3777000</v>
       </c>
       <c r="K48" s="3">
         <v>3204600</v>
@@ -1931,10 +1931,10 @@
         <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>933600</v>
+        <v>937600</v>
       </c>
       <c r="J49" s="3">
-        <v>940600</v>
+        <v>944600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E52" s="3">
-        <v>191200</v>
+        <v>192000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="3">
-        <v>3047900</v>
+        <v>3061100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>566911000</v>
+        <v>569370000</v>
       </c>
       <c r="E54" s="3">
-        <v>495060000</v>
+        <v>497208000</v>
       </c>
       <c r="F54" s="3">
-        <v>440782000</v>
+        <v>442694000</v>
       </c>
       <c r="G54" s="3">
-        <v>410260000</v>
+        <v>412040000</v>
       </c>
       <c r="H54" s="3">
-        <v>372438000</v>
+        <v>374054000</v>
       </c>
       <c r="I54" s="3">
-        <v>341748000</v>
+        <v>343231000</v>
       </c>
       <c r="J54" s="3">
-        <v>300124000</v>
+        <v>301426000</v>
       </c>
       <c r="K54" s="3">
         <v>272457000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>479737000</v>
+        <v>481818000</v>
       </c>
       <c r="E59" s="3">
-        <v>429764000</v>
+        <v>431628000</v>
       </c>
       <c r="F59" s="3">
-        <v>376484000</v>
+        <v>378118000</v>
       </c>
       <c r="G59" s="3">
-        <v>344446000</v>
+        <v>345941000</v>
       </c>
       <c r="H59" s="3">
-        <v>302191000</v>
+        <v>303502000</v>
       </c>
       <c r="I59" s="3">
-        <v>277850000</v>
+        <v>279055000</v>
       </c>
       <c r="J59" s="3">
-        <v>249893000</v>
+        <v>250977000</v>
       </c>
       <c r="K59" s="3">
         <v>27699500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8842100</v>
+        <v>8880500</v>
       </c>
       <c r="E61" s="3">
-        <v>3065200</v>
+        <v>3078500</v>
       </c>
       <c r="F61" s="3">
-        <v>2858900</v>
+        <v>2871300</v>
       </c>
       <c r="G61" s="3">
-        <v>8240000</v>
+        <v>8275800</v>
       </c>
       <c r="H61" s="3">
-        <v>10745300</v>
+        <v>10791900</v>
       </c>
       <c r="I61" s="3">
-        <v>10741500</v>
+        <v>10788100</v>
       </c>
       <c r="J61" s="3">
-        <v>10341900</v>
+        <v>10386700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1571400</v>
+        <v>1578200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>741000</v>
+        <v>744200</v>
       </c>
       <c r="G62" s="3">
-        <v>1181700</v>
+        <v>1186800</v>
       </c>
       <c r="H62" s="3">
-        <v>2578900</v>
+        <v>2590100</v>
       </c>
       <c r="I62" s="3">
-        <v>2947300</v>
+        <v>2960100</v>
       </c>
       <c r="J62" s="3">
-        <v>748300</v>
+        <v>751500</v>
       </c>
       <c r="K62" s="3">
         <v>1124000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>505490000</v>
+        <v>507683000</v>
       </c>
       <c r="E66" s="3">
-        <v>446629000</v>
+        <v>448567000</v>
       </c>
       <c r="F66" s="3">
-        <v>391961000</v>
+        <v>393662000</v>
       </c>
       <c r="G66" s="3">
-        <v>364073000</v>
+        <v>365653000</v>
       </c>
       <c r="H66" s="3">
-        <v>323380000</v>
+        <v>324783000</v>
       </c>
       <c r="I66" s="3">
-        <v>298527000</v>
+        <v>299823000</v>
       </c>
       <c r="J66" s="3">
-        <v>266607000</v>
+        <v>267764000</v>
       </c>
       <c r="K66" s="3">
         <v>240735000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43306100</v>
+        <v>43494000</v>
       </c>
       <c r="E72" s="3">
-        <v>35606400</v>
+        <v>35760900</v>
       </c>
       <c r="F72" s="3">
-        <v>35681300</v>
+        <v>35836100</v>
       </c>
       <c r="G72" s="3">
-        <v>31844200</v>
+        <v>31982400</v>
       </c>
       <c r="H72" s="3">
-        <v>30794100</v>
+        <v>30927700</v>
       </c>
       <c r="I72" s="3">
-        <v>27218700</v>
+        <v>27336800</v>
       </c>
       <c r="J72" s="3">
-        <v>23484300</v>
+        <v>23586200</v>
       </c>
       <c r="K72" s="3">
         <v>19164900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61420600</v>
+        <v>61687100</v>
       </c>
       <c r="E76" s="3">
-        <v>48430600</v>
+        <v>48640700</v>
       </c>
       <c r="F76" s="3">
-        <v>48820300</v>
+        <v>49032100</v>
       </c>
       <c r="G76" s="3">
-        <v>46186800</v>
+        <v>46387200</v>
       </c>
       <c r="H76" s="3">
-        <v>49057500</v>
+        <v>49270300</v>
       </c>
       <c r="I76" s="3">
-        <v>43220500</v>
+        <v>43408000</v>
       </c>
       <c r="J76" s="3">
-        <v>33516800</v>
+        <v>33662200</v>
       </c>
       <c r="K76" s="3">
         <v>31721300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8866600</v>
+        <v>8905100</v>
       </c>
       <c r="E81" s="3">
-        <v>1733400</v>
+        <v>1740900</v>
       </c>
       <c r="F81" s="3">
-        <v>4906300</v>
+        <v>4927600</v>
       </c>
       <c r="G81" s="3">
-        <v>2909600</v>
+        <v>2922200</v>
       </c>
       <c r="H81" s="3">
-        <v>5278400</v>
+        <v>5301300</v>
       </c>
       <c r="I81" s="3">
-        <v>4899900</v>
+        <v>4921200</v>
       </c>
       <c r="J81" s="3">
-        <v>3767300</v>
+        <v>3783600</v>
       </c>
       <c r="K81" s="3">
         <v>1587000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>666100</v>
+        <v>669000</v>
       </c>
       <c r="E83" s="3">
-        <v>401300</v>
+        <v>403000</v>
       </c>
       <c r="F83" s="3">
-        <v>340700</v>
+        <v>342200</v>
       </c>
       <c r="G83" s="3">
-        <v>316900</v>
+        <v>318200</v>
       </c>
       <c r="H83" s="3">
-        <v>309700</v>
+        <v>311100</v>
       </c>
       <c r="I83" s="3">
-        <v>323100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>308200</v>
+        <v>324500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>279600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43511200</v>
+        <v>43700000</v>
       </c>
       <c r="E89" s="3">
-        <v>22445600</v>
+        <v>22543000</v>
       </c>
       <c r="F89" s="3">
-        <v>30574600</v>
+        <v>30707300</v>
       </c>
       <c r="G89" s="3">
-        <v>13553600</v>
+        <v>13612400</v>
       </c>
       <c r="H89" s="3">
-        <v>-2861500</v>
+        <v>-2873900</v>
       </c>
       <c r="I89" s="3">
-        <v>11902900</v>
+        <v>11954600</v>
       </c>
       <c r="J89" s="3">
-        <v>10388600</v>
+        <v>10433700</v>
       </c>
       <c r="K89" s="3">
         <v>18965500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1736400</v>
+        <v>-1744000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2973300</v>
+        <v>-2986200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1463200</v>
+        <v>-1469600</v>
       </c>
       <c r="G91" s="3">
-        <v>-807800</v>
+        <v>-811300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1275400</v>
+        <v>-1280900</v>
       </c>
       <c r="I91" s="3">
-        <v>-767900</v>
+        <v>-771200</v>
       </c>
       <c r="J91" s="3">
-        <v>-566500</v>
+        <v>-569000</v>
       </c>
       <c r="K91" s="3">
         <v>-951600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37652000</v>
+        <v>-37815300</v>
       </c>
       <c r="E94" s="3">
-        <v>-36261300</v>
+        <v>-36418600</v>
       </c>
       <c r="F94" s="3">
-        <v>-26419600</v>
+        <v>-26534200</v>
       </c>
       <c r="G94" s="3">
-        <v>-15927400</v>
+        <v>-15996500</v>
       </c>
       <c r="H94" s="3">
-        <v>10199200</v>
+        <v>10243400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10535400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9162600</v>
+        <v>-10581100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-29241800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-747800</v>
+        <v>-751100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1778300</v>
+        <v>-1786000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1089800</v>
+        <v>-1094500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1864500</v>
+        <v>-1872600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1748000</v>
+        <v>-1755600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1992300</v>
+        <v>-2001000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1223000</v>
+        <v>-1228400</v>
       </c>
       <c r="K96" s="3">
         <v>-1195600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5487700</v>
+        <v>-5511500</v>
       </c>
       <c r="E100" s="3">
-        <v>14141500</v>
+        <v>14202900</v>
       </c>
       <c r="F100" s="3">
-        <v>-6935900</v>
+        <v>-6966000</v>
       </c>
       <c r="G100" s="3">
-        <v>953800</v>
+        <v>957900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2953400</v>
+        <v>-2966200</v>
       </c>
       <c r="I100" s="3">
-        <v>2541000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-8534700</v>
+        <v>2552000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>12208600</v>
@@ -3466,22 +3466,22 @@
         <v>8400</v>
       </c>
       <c r="E101" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="G101" s="3">
-        <v>43400</v>
+        <v>43500</v>
       </c>
       <c r="H101" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
-        <v>-11600</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>379800</v>
+        <v>381500</v>
       </c>
       <c r="E102" s="3">
-        <v>338200</v>
+        <v>339600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2808100</v>
+        <v>-2820300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1376700</v>
+        <v>-1382700</v>
       </c>
       <c r="H102" s="3">
-        <v>4420900</v>
+        <v>4440100</v>
       </c>
       <c r="I102" s="3">
-        <v>3910100</v>
+        <v>3927100</v>
       </c>
       <c r="J102" s="3">
-        <v>-7320300</v>
+        <v>-7352100</v>
       </c>
       <c r="K102" s="3">
         <v>1932200</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>112424800</v>
+        <v>127396200</v>
       </c>
       <c r="E8" s="3">
-        <v>97110600</v>
+        <v>114801700</v>
       </c>
       <c r="F8" s="3">
-        <v>98713000</v>
+        <v>99163700</v>
       </c>
       <c r="G8" s="3">
-        <v>83026300</v>
+        <v>100799900</v>
       </c>
       <c r="H8" s="3">
-        <v>77577100</v>
+        <v>84781600</v>
       </c>
       <c r="I8" s="3">
-        <v>67515800</v>
+        <v>79217200</v>
       </c>
       <c r="J8" s="3">
+        <v>68943200</v>
+      </c>
+      <c r="K8" s="3">
         <v>64425200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53300700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55045100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91671100</v>
+        <v>105305000</v>
       </c>
       <c r="E9" s="3">
-        <v>84220900</v>
+        <v>93609100</v>
       </c>
       <c r="F9" s="3">
-        <v>82334400</v>
+        <v>86001400</v>
       </c>
       <c r="G9" s="3">
-        <v>70948400</v>
+        <v>84075000</v>
       </c>
       <c r="H9" s="3">
-        <v>59592100</v>
+        <v>72448400</v>
       </c>
       <c r="I9" s="3">
-        <v>52617300</v>
+        <v>60852000</v>
       </c>
       <c r="J9" s="3">
+        <v>53729700</v>
+      </c>
+      <c r="K9" s="3">
         <v>51914000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47398300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47518200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20753800</v>
+        <v>22091200</v>
       </c>
       <c r="E10" s="3">
-        <v>12889700</v>
+        <v>21192600</v>
       </c>
       <c r="F10" s="3">
-        <v>16378600</v>
+        <v>13162300</v>
       </c>
       <c r="G10" s="3">
-        <v>12077900</v>
+        <v>16724900</v>
       </c>
       <c r="H10" s="3">
-        <v>17985000</v>
+        <v>12333200</v>
       </c>
       <c r="I10" s="3">
-        <v>14898500</v>
+        <v>18365200</v>
       </c>
       <c r="J10" s="3">
+        <v>15213500</v>
+      </c>
+      <c r="K10" s="3">
         <v>12511200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5902300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7526900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>975800</v>
+        <v>1814200</v>
       </c>
       <c r="E14" s="3">
-        <v>1253600</v>
+        <v>996400</v>
       </c>
       <c r="F14" s="3">
-        <v>421200</v>
+        <v>1280100</v>
       </c>
       <c r="G14" s="3">
-        <v>405800</v>
+        <v>430100</v>
       </c>
       <c r="H14" s="3">
-        <v>49000</v>
+        <v>414400</v>
       </c>
       <c r="I14" s="3">
-        <v>175500</v>
+        <v>50100</v>
       </c>
       <c r="J14" s="3">
+        <v>179300</v>
+      </c>
+      <c r="K14" s="3">
         <v>581000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104513300</v>
+        <v>120091500</v>
       </c>
       <c r="E17" s="3">
-        <v>96167100</v>
+        <v>106722900</v>
       </c>
       <c r="F17" s="3">
-        <v>93437800</v>
+        <v>98200200</v>
       </c>
       <c r="G17" s="3">
-        <v>80278300</v>
+        <v>95413200</v>
       </c>
       <c r="H17" s="3">
-        <v>70861400</v>
+        <v>81975500</v>
       </c>
       <c r="I17" s="3">
-        <v>61218600</v>
+        <v>72359500</v>
       </c>
       <c r="J17" s="3">
+        <v>62512900</v>
+      </c>
+      <c r="K17" s="3">
         <v>59787100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51793300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52199700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7911600</v>
+        <v>7304700</v>
       </c>
       <c r="E18" s="3">
-        <v>943600</v>
+        <v>8078800</v>
       </c>
       <c r="F18" s="3">
-        <v>5275200</v>
+        <v>963500</v>
       </c>
       <c r="G18" s="3">
-        <v>2748100</v>
+        <v>5386700</v>
       </c>
       <c r="H18" s="3">
-        <v>6715800</v>
+        <v>2806200</v>
       </c>
       <c r="I18" s="3">
-        <v>6297100</v>
+        <v>6857700</v>
       </c>
       <c r="J18" s="3">
+        <v>6430300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4638100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1507400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2845500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1223900</v>
+        <v>1196000</v>
       </c>
       <c r="E20" s="3">
-        <v>1183300</v>
+        <v>1249800</v>
       </c>
       <c r="F20" s="3">
-        <v>1091300</v>
+        <v>1208300</v>
       </c>
       <c r="G20" s="3">
-        <v>894500</v>
+        <v>1114400</v>
       </c>
       <c r="H20" s="3">
-        <v>301600</v>
+        <v>913400</v>
       </c>
       <c r="I20" s="3">
-        <v>-124500</v>
+        <v>308000</v>
       </c>
       <c r="J20" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="K20" s="3">
         <v>477400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>435700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>328400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9806800</v>
+        <v>9304900</v>
       </c>
       <c r="E21" s="3">
-        <v>2531300</v>
+        <v>10011000</v>
       </c>
       <c r="F21" s="3">
-        <v>6709900</v>
+        <v>2582900</v>
       </c>
       <c r="G21" s="3">
-        <v>3961900</v>
+        <v>6850100</v>
       </c>
       <c r="H21" s="3">
-        <v>7329500</v>
+        <v>4044200</v>
       </c>
       <c r="I21" s="3">
-        <v>6498200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+        <v>7482900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6634100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>2222700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,84 +1178,93 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>616000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>369500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>129600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9135500</v>
+        <v>8500700</v>
       </c>
       <c r="E23" s="3">
-        <v>2126900</v>
+        <v>9328600</v>
       </c>
       <c r="F23" s="3">
-        <v>6366500</v>
+        <v>2171800</v>
       </c>
       <c r="G23" s="3">
-        <v>3642600</v>
+        <v>6501100</v>
       </c>
       <c r="H23" s="3">
-        <v>7017300</v>
+        <v>3719600</v>
       </c>
       <c r="I23" s="3">
-        <v>6172600</v>
+        <v>7165700</v>
       </c>
       <c r="J23" s="3">
+        <v>6303100</v>
+      </c>
+      <c r="K23" s="3">
         <v>4499500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1573700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3044300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>119300</v>
+        <v>484100</v>
       </c>
       <c r="E24" s="3">
-        <v>303300</v>
+        <v>121800</v>
       </c>
       <c r="F24" s="3">
-        <v>1362600</v>
+        <v>309700</v>
       </c>
       <c r="G24" s="3">
-        <v>650400</v>
+        <v>1391500</v>
       </c>
       <c r="H24" s="3">
-        <v>1641500</v>
+        <v>664100</v>
       </c>
       <c r="I24" s="3">
-        <v>1205100</v>
+        <v>1676200</v>
       </c>
       <c r="J24" s="3">
+        <v>1230600</v>
+      </c>
+      <c r="K24" s="3">
         <v>678800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-43600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9016200</v>
+        <v>8016600</v>
       </c>
       <c r="E26" s="3">
-        <v>1823600</v>
+        <v>9206800</v>
       </c>
       <c r="F26" s="3">
-        <v>5003900</v>
+        <v>1862100</v>
       </c>
       <c r="G26" s="3">
-        <v>2992200</v>
+        <v>5109600</v>
       </c>
       <c r="H26" s="3">
-        <v>5375900</v>
+        <v>3055500</v>
       </c>
       <c r="I26" s="3">
-        <v>4967500</v>
+        <v>5489500</v>
       </c>
       <c r="J26" s="3">
+        <v>5072500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3820700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1617300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2744200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8905100</v>
+        <v>7842300</v>
       </c>
       <c r="E27" s="3">
-        <v>1740900</v>
+        <v>9093400</v>
       </c>
       <c r="F27" s="3">
-        <v>4927600</v>
+        <v>1777700</v>
       </c>
       <c r="G27" s="3">
-        <v>2922200</v>
+        <v>5031800</v>
       </c>
       <c r="H27" s="3">
-        <v>5301300</v>
+        <v>2984000</v>
       </c>
       <c r="I27" s="3">
-        <v>4921200</v>
+        <v>5413400</v>
       </c>
       <c r="J27" s="3">
+        <v>5025200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3783600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1587000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2720500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1223900</v>
+        <v>-1196000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1183300</v>
+        <v>-1249800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1091300</v>
+        <v>-1208300</v>
       </c>
       <c r="G32" s="3">
-        <v>-894500</v>
+        <v>-1114400</v>
       </c>
       <c r="H32" s="3">
-        <v>-301600</v>
+        <v>-913400</v>
       </c>
       <c r="I32" s="3">
-        <v>124500</v>
+        <v>-308000</v>
       </c>
       <c r="J32" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-477400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-435700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-328400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8905100</v>
+        <v>7842300</v>
       </c>
       <c r="E33" s="3">
-        <v>1740900</v>
+        <v>9093400</v>
       </c>
       <c r="F33" s="3">
-        <v>4927600</v>
+        <v>1777700</v>
       </c>
       <c r="G33" s="3">
-        <v>2922200</v>
+        <v>5031800</v>
       </c>
       <c r="H33" s="3">
-        <v>5301300</v>
+        <v>2984000</v>
       </c>
       <c r="I33" s="3">
-        <v>4921200</v>
+        <v>5413400</v>
       </c>
       <c r="J33" s="3">
+        <v>5025200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3783600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1587000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2720500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8905100</v>
+        <v>7842300</v>
       </c>
       <c r="E35" s="3">
-        <v>1740900</v>
+        <v>9093400</v>
       </c>
       <c r="F35" s="3">
-        <v>4927600</v>
+        <v>1777700</v>
       </c>
       <c r="G35" s="3">
-        <v>2922200</v>
+        <v>5031800</v>
       </c>
       <c r="H35" s="3">
-        <v>5301300</v>
+        <v>2984000</v>
       </c>
       <c r="I35" s="3">
-        <v>4921200</v>
+        <v>5413400</v>
       </c>
       <c r="J35" s="3">
+        <v>5025200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3783600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1587000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2720500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8066800</v>
+        <v>8816100</v>
       </c>
       <c r="E41" s="3">
-        <v>7760000</v>
+        <v>8237300</v>
       </c>
       <c r="F41" s="3">
-        <v>7248500</v>
+        <v>7924100</v>
       </c>
       <c r="G41" s="3">
-        <v>9833500</v>
+        <v>7401700</v>
       </c>
       <c r="H41" s="3">
-        <v>11326300</v>
+        <v>10041400</v>
       </c>
       <c r="I41" s="3">
-        <v>7185900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+        <v>11565800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7337800</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>9964400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7717500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2640200</v>
+        <v>3234100</v>
       </c>
       <c r="E43" s="3">
-        <v>2390700</v>
+        <v>2696000</v>
       </c>
       <c r="F43" s="3">
-        <v>2157400</v>
+        <v>2441200</v>
       </c>
       <c r="G43" s="3">
-        <v>2050500</v>
+        <v>2203000</v>
       </c>
       <c r="H43" s="3">
-        <v>1820100</v>
+        <v>2093800</v>
       </c>
       <c r="I43" s="3">
-        <v>2437500</v>
+        <v>1858500</v>
       </c>
       <c r="J43" s="3">
+        <v>2489000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1592700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1253700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1224800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,29 +1872,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129400</v>
+        <v>29200</v>
       </c>
       <c r="E45" s="3">
-        <v>77000</v>
+        <v>132100</v>
       </c>
       <c r="F45" s="3">
-        <v>61600</v>
+        <v>78600</v>
       </c>
       <c r="G45" s="3">
-        <v>1003900</v>
+        <v>62900</v>
       </c>
       <c r="H45" s="3">
-        <v>968800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>1025100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>989300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,75 +1944,84 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>535991000</v>
+        <v>627815000</v>
       </c>
       <c r="E47" s="3">
-        <v>465982000</v>
+        <v>547322000</v>
       </c>
       <c r="F47" s="3">
-        <v>414918000</v>
+        <v>475834000</v>
       </c>
       <c r="G47" s="3">
-        <v>382849000</v>
+        <v>423690000</v>
       </c>
       <c r="H47" s="3">
-        <v>345524000</v>
+        <v>390943000</v>
       </c>
       <c r="I47" s="3">
-        <v>320154000</v>
+        <v>352829000</v>
       </c>
       <c r="J47" s="3">
+        <v>326922000</v>
+      </c>
+      <c r="K47" s="3">
         <v>283550000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250262000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>216866000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10300300</v>
+        <v>10926900</v>
       </c>
       <c r="E48" s="3">
-        <v>8712700</v>
+        <v>10518000</v>
       </c>
       <c r="F48" s="3">
-        <v>6992900</v>
+        <v>8896900</v>
       </c>
       <c r="G48" s="3">
-        <v>4824800</v>
+        <v>7140700</v>
       </c>
       <c r="H48" s="3">
-        <v>4310100</v>
+        <v>4926800</v>
       </c>
       <c r="I48" s="3">
-        <v>4068700</v>
+        <v>4401200</v>
       </c>
       <c r="J48" s="3">
+        <v>4154700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3777000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3204600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3002500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1930,21 +2040,24 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>937600</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
+        <v>957400</v>
+      </c>
+      <c r="K49" s="3">
         <v>944600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,20 +2124,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19600</v>
+        <v>13600</v>
       </c>
       <c r="E52" s="3">
-        <v>192000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+        <v>20000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>196100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2032,18 +2151,21 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>3061100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>569370000</v>
+        <v>663419000</v>
       </c>
       <c r="E54" s="3">
-        <v>497208000</v>
+        <v>581408000</v>
       </c>
       <c r="F54" s="3">
-        <v>442694000</v>
+        <v>507719000</v>
       </c>
       <c r="G54" s="3">
-        <v>412040000</v>
+        <v>452053000</v>
       </c>
       <c r="H54" s="3">
-        <v>374054000</v>
+        <v>420751000</v>
       </c>
       <c r="I54" s="3">
-        <v>343231000</v>
+        <v>381962000</v>
       </c>
       <c r="J54" s="3">
+        <v>350487000</v>
+      </c>
+      <c r="K54" s="3">
         <v>301426000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>272457000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>235068000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>481818000</v>
+        <v>564660000</v>
       </c>
       <c r="E59" s="3">
-        <v>431628000</v>
+        <v>492005000</v>
       </c>
       <c r="F59" s="3">
-        <v>378118000</v>
+        <v>440754000</v>
       </c>
       <c r="G59" s="3">
-        <v>345941000</v>
+        <v>386112000</v>
       </c>
       <c r="H59" s="3">
-        <v>303502000</v>
+        <v>353254000</v>
       </c>
       <c r="I59" s="3">
-        <v>279055000</v>
+        <v>309919000</v>
       </c>
       <c r="J59" s="3">
+        <v>284955000</v>
+      </c>
+      <c r="K59" s="3">
         <v>250977000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27699500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21459800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8880500</v>
+        <v>8925600</v>
       </c>
       <c r="E61" s="3">
-        <v>3078500</v>
+        <v>9068200</v>
       </c>
       <c r="F61" s="3">
-        <v>2871300</v>
+        <v>3143600</v>
       </c>
       <c r="G61" s="3">
-        <v>8275800</v>
+        <v>2932100</v>
       </c>
       <c r="H61" s="3">
-        <v>10791900</v>
+        <v>8450700</v>
       </c>
       <c r="I61" s="3">
-        <v>10788100</v>
+        <v>11020100</v>
       </c>
       <c r="J61" s="3">
+        <v>11016200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10386700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1578200</v>
+        <v>2384800</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1611600</v>
       </c>
       <c r="F62" s="3">
-        <v>744200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>1186800</v>
+        <v>759900</v>
       </c>
       <c r="H62" s="3">
-        <v>2590100</v>
+        <v>1211900</v>
       </c>
       <c r="I62" s="3">
-        <v>2960100</v>
+        <v>2644800</v>
       </c>
       <c r="J62" s="3">
+        <v>3022700</v>
+      </c>
+      <c r="K62" s="3">
         <v>751500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1124000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>215800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>507683000</v>
+        <v>593206000</v>
       </c>
       <c r="E66" s="3">
-        <v>448567000</v>
+        <v>518417000</v>
       </c>
       <c r="F66" s="3">
-        <v>393662000</v>
+        <v>458050000</v>
       </c>
       <c r="G66" s="3">
-        <v>365653000</v>
+        <v>401984000</v>
       </c>
       <c r="H66" s="3">
-        <v>324783000</v>
+        <v>373383000</v>
       </c>
       <c r="I66" s="3">
-        <v>299823000</v>
+        <v>331650000</v>
       </c>
       <c r="J66" s="3">
+        <v>306161000</v>
+      </c>
+      <c r="K66" s="3">
         <v>267764000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>240735000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206643000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43494000</v>
+        <v>48841000</v>
       </c>
       <c r="E72" s="3">
-        <v>35760900</v>
+        <v>44413600</v>
       </c>
       <c r="F72" s="3">
-        <v>35836100</v>
+        <v>36516900</v>
       </c>
       <c r="G72" s="3">
-        <v>31982400</v>
+        <v>36593700</v>
       </c>
       <c r="H72" s="3">
-        <v>30927700</v>
+        <v>32658500</v>
       </c>
       <c r="I72" s="3">
-        <v>27336800</v>
+        <v>31581600</v>
       </c>
       <c r="J72" s="3">
+        <v>27914700</v>
+      </c>
+      <c r="K72" s="3">
         <v>23586200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19164900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19146700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61687100</v>
+        <v>70212500</v>
       </c>
       <c r="E76" s="3">
-        <v>48640700</v>
+        <v>62991200</v>
       </c>
       <c r="F76" s="3">
-        <v>49032100</v>
+        <v>49669100</v>
       </c>
       <c r="G76" s="3">
-        <v>46387200</v>
+        <v>50068800</v>
       </c>
       <c r="H76" s="3">
-        <v>49270300</v>
+        <v>47367900</v>
       </c>
       <c r="I76" s="3">
-        <v>43408000</v>
+        <v>50312000</v>
       </c>
       <c r="J76" s="3">
+        <v>44325700</v>
+      </c>
+      <c r="K76" s="3">
         <v>33662200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31721300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28425000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8905100</v>
+        <v>7842300</v>
       </c>
       <c r="E81" s="3">
-        <v>1740900</v>
+        <v>9093400</v>
       </c>
       <c r="F81" s="3">
-        <v>4927600</v>
+        <v>1777700</v>
       </c>
       <c r="G81" s="3">
-        <v>2922200</v>
+        <v>5031800</v>
       </c>
       <c r="H81" s="3">
-        <v>5301300</v>
+        <v>2984000</v>
       </c>
       <c r="I81" s="3">
-        <v>4921200</v>
+        <v>5413400</v>
       </c>
       <c r="J81" s="3">
+        <v>5025200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3783600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1587000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2720500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>669000</v>
+        <v>805200</v>
       </c>
       <c r="E83" s="3">
-        <v>403000</v>
+        <v>683200</v>
       </c>
       <c r="F83" s="3">
-        <v>342200</v>
+        <v>411600</v>
       </c>
       <c r="G83" s="3">
-        <v>318200</v>
+        <v>349500</v>
       </c>
       <c r="H83" s="3">
-        <v>311100</v>
+        <v>325000</v>
       </c>
       <c r="I83" s="3">
-        <v>324500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+        <v>317600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>279600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43700000</v>
+        <v>47430800</v>
       </c>
       <c r="E89" s="3">
-        <v>22543000</v>
+        <v>44623900</v>
       </c>
       <c r="F89" s="3">
-        <v>30707300</v>
+        <v>23019600</v>
       </c>
       <c r="G89" s="3">
-        <v>13612400</v>
+        <v>31356400</v>
       </c>
       <c r="H89" s="3">
-        <v>-2873900</v>
+        <v>13900200</v>
       </c>
       <c r="I89" s="3">
-        <v>11954600</v>
+        <v>-2934700</v>
       </c>
       <c r="J89" s="3">
+        <v>12207300</v>
+      </c>
+      <c r="K89" s="3">
         <v>10433700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18965500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19880000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1744000</v>
+        <v>-1164900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2986200</v>
+        <v>-1780900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1469600</v>
+        <v>-3049400</v>
       </c>
       <c r="G91" s="3">
-        <v>-811300</v>
+        <v>-1500700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1280900</v>
+        <v>-828400</v>
       </c>
       <c r="I91" s="3">
-        <v>-771200</v>
+        <v>-1308000</v>
       </c>
       <c r="J91" s="3">
+        <v>-787500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-569000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-951600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-995500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37815300</v>
+        <v>-45679300</v>
       </c>
       <c r="E94" s="3">
-        <v>-36418600</v>
+        <v>-38614800</v>
       </c>
       <c r="F94" s="3">
-        <v>-26534200</v>
+        <v>-37188600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15996500</v>
+        <v>-27095200</v>
       </c>
       <c r="H94" s="3">
-        <v>10243400</v>
+        <v>-16334700</v>
       </c>
       <c r="I94" s="3">
-        <v>-10581100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+        <v>10460000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10804800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-29241800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-751100</v>
+        <v>-3250300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1786000</v>
+        <v>-766900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1094500</v>
+        <v>-1823800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1872600</v>
+        <v>-1117700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1755600</v>
+        <v>-1912200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2001000</v>
+        <v>-1792700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2043300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1228400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1195600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1762500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5511500</v>
+        <v>-1210600</v>
       </c>
       <c r="E100" s="3">
-        <v>14202900</v>
+        <v>-5628100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6966000</v>
+        <v>14503200</v>
       </c>
       <c r="G100" s="3">
-        <v>957900</v>
+        <v>-7113300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2966200</v>
+        <v>978200</v>
       </c>
       <c r="I100" s="3">
-        <v>2552000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-3028900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2606000</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>12208600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8400</v>
+        <v>-22500</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3">
-        <v>-27300</v>
+        <v>12600</v>
       </c>
       <c r="G101" s="3">
-        <v>43500</v>
+        <v>-27900</v>
       </c>
       <c r="H101" s="3">
-        <v>36800</v>
+        <v>44500</v>
       </c>
       <c r="I101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+        <v>37600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>381500</v>
+        <v>518400</v>
       </c>
       <c r="E102" s="3">
-        <v>339600</v>
+        <v>389600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2820300</v>
+        <v>346800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1382700</v>
+        <v>-2879900</v>
       </c>
       <c r="H102" s="3">
-        <v>4440100</v>
+        <v>-1411900</v>
       </c>
       <c r="I102" s="3">
-        <v>3927100</v>
+        <v>4534000</v>
       </c>
       <c r="J102" s="3">
+        <v>4010100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7352100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1932200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1206700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127396200</v>
+        <v>125738500</v>
       </c>
       <c r="E8" s="3">
-        <v>114801700</v>
+        <v>113307900</v>
       </c>
       <c r="F8" s="3">
-        <v>99163700</v>
+        <v>97873400</v>
       </c>
       <c r="G8" s="3">
-        <v>100799900</v>
+        <v>99488300</v>
       </c>
       <c r="H8" s="3">
-        <v>84781600</v>
+        <v>83678400</v>
       </c>
       <c r="I8" s="3">
-        <v>79217200</v>
+        <v>78186400</v>
       </c>
       <c r="J8" s="3">
-        <v>68943200</v>
+        <v>68046100</v>
       </c>
       <c r="K8" s="3">
         <v>64425200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105305000</v>
+        <v>103934800</v>
       </c>
       <c r="E9" s="3">
-        <v>93609100</v>
+        <v>92391100</v>
       </c>
       <c r="F9" s="3">
-        <v>86001400</v>
+        <v>84882400</v>
       </c>
       <c r="G9" s="3">
-        <v>84075000</v>
+        <v>82981100</v>
       </c>
       <c r="H9" s="3">
-        <v>72448400</v>
+        <v>71505700</v>
       </c>
       <c r="I9" s="3">
-        <v>60852000</v>
+        <v>60060200</v>
       </c>
       <c r="J9" s="3">
-        <v>53729700</v>
+        <v>53030600</v>
       </c>
       <c r="K9" s="3">
         <v>51914000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22091200</v>
+        <v>21803700</v>
       </c>
       <c r="E10" s="3">
-        <v>21192600</v>
+        <v>20916800</v>
       </c>
       <c r="F10" s="3">
-        <v>13162300</v>
+        <v>12991000</v>
       </c>
       <c r="G10" s="3">
-        <v>16724900</v>
+        <v>16507300</v>
       </c>
       <c r="H10" s="3">
-        <v>12333200</v>
+        <v>12172700</v>
       </c>
       <c r="I10" s="3">
-        <v>18365200</v>
+        <v>18126200</v>
       </c>
       <c r="J10" s="3">
-        <v>15213500</v>
+        <v>15015500</v>
       </c>
       <c r="K10" s="3">
         <v>12511200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1814200</v>
+        <v>1790600</v>
       </c>
       <c r="E14" s="3">
-        <v>996400</v>
+        <v>983500</v>
       </c>
       <c r="F14" s="3">
-        <v>1280100</v>
+        <v>1263400</v>
       </c>
       <c r="G14" s="3">
-        <v>430100</v>
+        <v>424500</v>
       </c>
       <c r="H14" s="3">
-        <v>414400</v>
+        <v>409000</v>
       </c>
       <c r="I14" s="3">
-        <v>50100</v>
+        <v>49400</v>
       </c>
       <c r="J14" s="3">
-        <v>179300</v>
+        <v>176900</v>
       </c>
       <c r="K14" s="3">
         <v>581000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>120091500</v>
+        <v>118528900</v>
       </c>
       <c r="E17" s="3">
-        <v>106722900</v>
+        <v>105334200</v>
       </c>
       <c r="F17" s="3">
-        <v>98200200</v>
+        <v>96922400</v>
       </c>
       <c r="G17" s="3">
-        <v>95413200</v>
+        <v>94171700</v>
       </c>
       <c r="H17" s="3">
-        <v>81975500</v>
+        <v>80908800</v>
       </c>
       <c r="I17" s="3">
-        <v>72359500</v>
+        <v>71417900</v>
       </c>
       <c r="J17" s="3">
-        <v>62512900</v>
+        <v>61699500</v>
       </c>
       <c r="K17" s="3">
         <v>59787100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7304700</v>
+        <v>7209700</v>
       </c>
       <c r="E18" s="3">
-        <v>8078800</v>
+        <v>7973700</v>
       </c>
       <c r="F18" s="3">
-        <v>963500</v>
+        <v>951000</v>
       </c>
       <c r="G18" s="3">
-        <v>5386700</v>
+        <v>5316600</v>
       </c>
       <c r="H18" s="3">
-        <v>2806200</v>
+        <v>2769600</v>
       </c>
       <c r="I18" s="3">
-        <v>6857700</v>
+        <v>6768500</v>
       </c>
       <c r="J18" s="3">
-        <v>6430300</v>
+        <v>6346600</v>
       </c>
       <c r="K18" s="3">
         <v>4638100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1196000</v>
+        <v>1180400</v>
       </c>
       <c r="E20" s="3">
-        <v>1249800</v>
+        <v>1233500</v>
       </c>
       <c r="F20" s="3">
-        <v>1208300</v>
+        <v>1192600</v>
       </c>
       <c r="G20" s="3">
-        <v>1114400</v>
+        <v>1099900</v>
       </c>
       <c r="H20" s="3">
-        <v>913400</v>
+        <v>901600</v>
       </c>
       <c r="I20" s="3">
-        <v>308000</v>
+        <v>304000</v>
       </c>
       <c r="J20" s="3">
-        <v>-127100</v>
+        <v>-125500</v>
       </c>
       <c r="K20" s="3">
         <v>477400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9304900</v>
+        <v>9186000</v>
       </c>
       <c r="E21" s="3">
-        <v>10011000</v>
+        <v>9882600</v>
       </c>
       <c r="F21" s="3">
-        <v>2582900</v>
+        <v>2550400</v>
       </c>
       <c r="G21" s="3">
-        <v>6850100</v>
+        <v>6762000</v>
       </c>
       <c r="H21" s="3">
-        <v>4044200</v>
+        <v>3992400</v>
       </c>
       <c r="I21" s="3">
-        <v>7482900</v>
+        <v>7386400</v>
       </c>
       <c r="J21" s="3">
-        <v>6634100</v>
+        <v>6548700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8500700</v>
+        <v>8390100</v>
       </c>
       <c r="E23" s="3">
-        <v>9328600</v>
+        <v>9207200</v>
       </c>
       <c r="F23" s="3">
-        <v>2171800</v>
+        <v>2143600</v>
       </c>
       <c r="G23" s="3">
-        <v>6501100</v>
+        <v>6416500</v>
       </c>
       <c r="H23" s="3">
-        <v>3719600</v>
+        <v>3671200</v>
       </c>
       <c r="I23" s="3">
-        <v>7165700</v>
+        <v>7072500</v>
       </c>
       <c r="J23" s="3">
-        <v>6303100</v>
+        <v>6221100</v>
       </c>
       <c r="K23" s="3">
         <v>4499500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>484100</v>
+        <v>477800</v>
       </c>
       <c r="E24" s="3">
-        <v>121800</v>
+        <v>120300</v>
       </c>
       <c r="F24" s="3">
-        <v>309700</v>
+        <v>305700</v>
       </c>
       <c r="G24" s="3">
-        <v>1391500</v>
+        <v>1373300</v>
       </c>
       <c r="H24" s="3">
-        <v>664100</v>
+        <v>655500</v>
       </c>
       <c r="I24" s="3">
-        <v>1676200</v>
+        <v>1654400</v>
       </c>
       <c r="J24" s="3">
-        <v>1230600</v>
+        <v>1214600</v>
       </c>
       <c r="K24" s="3">
         <v>678800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8016600</v>
+        <v>7912300</v>
       </c>
       <c r="E26" s="3">
-        <v>9206800</v>
+        <v>9087000</v>
       </c>
       <c r="F26" s="3">
-        <v>1862100</v>
+        <v>1837900</v>
       </c>
       <c r="G26" s="3">
-        <v>5109600</v>
+        <v>5043200</v>
       </c>
       <c r="H26" s="3">
-        <v>3055500</v>
+        <v>3015700</v>
       </c>
       <c r="I26" s="3">
-        <v>5489500</v>
+        <v>5418100</v>
       </c>
       <c r="J26" s="3">
-        <v>5072500</v>
+        <v>5006500</v>
       </c>
       <c r="K26" s="3">
         <v>3820700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7842300</v>
+        <v>7740300</v>
       </c>
       <c r="E27" s="3">
-        <v>9093400</v>
+        <v>8975000</v>
       </c>
       <c r="F27" s="3">
-        <v>1777700</v>
+        <v>1754600</v>
       </c>
       <c r="G27" s="3">
-        <v>5031800</v>
+        <v>4966300</v>
       </c>
       <c r="H27" s="3">
-        <v>2984000</v>
+        <v>2945200</v>
       </c>
       <c r="I27" s="3">
-        <v>5413400</v>
+        <v>5343000</v>
       </c>
       <c r="J27" s="3">
-        <v>5025200</v>
+        <v>4959800</v>
       </c>
       <c r="K27" s="3">
         <v>3783600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1196000</v>
+        <v>-1180400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1249800</v>
+        <v>-1233500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1208300</v>
+        <v>-1192600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1114400</v>
+        <v>-1099900</v>
       </c>
       <c r="H32" s="3">
-        <v>-913400</v>
+        <v>-901600</v>
       </c>
       <c r="I32" s="3">
-        <v>-308000</v>
+        <v>-304000</v>
       </c>
       <c r="J32" s="3">
-        <v>127100</v>
+        <v>125500</v>
       </c>
       <c r="K32" s="3">
         <v>-477400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7842300</v>
+        <v>7740300</v>
       </c>
       <c r="E33" s="3">
-        <v>9093400</v>
+        <v>8975000</v>
       </c>
       <c r="F33" s="3">
-        <v>1777700</v>
+        <v>1754600</v>
       </c>
       <c r="G33" s="3">
-        <v>5031800</v>
+        <v>4966300</v>
       </c>
       <c r="H33" s="3">
-        <v>2984000</v>
+        <v>2945200</v>
       </c>
       <c r="I33" s="3">
-        <v>5413400</v>
+        <v>5343000</v>
       </c>
       <c r="J33" s="3">
-        <v>5025200</v>
+        <v>4959800</v>
       </c>
       <c r="K33" s="3">
         <v>3783600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7842300</v>
+        <v>7740300</v>
       </c>
       <c r="E35" s="3">
-        <v>9093400</v>
+        <v>8975000</v>
       </c>
       <c r="F35" s="3">
-        <v>1777700</v>
+        <v>1754600</v>
       </c>
       <c r="G35" s="3">
-        <v>5031800</v>
+        <v>4966300</v>
       </c>
       <c r="H35" s="3">
-        <v>2984000</v>
+        <v>2945200</v>
       </c>
       <c r="I35" s="3">
-        <v>5413400</v>
+        <v>5343000</v>
       </c>
       <c r="J35" s="3">
-        <v>5025200</v>
+        <v>4959800</v>
       </c>
       <c r="K35" s="3">
         <v>3783600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8816100</v>
+        <v>8701400</v>
       </c>
       <c r="E41" s="3">
-        <v>8237300</v>
+        <v>8130100</v>
       </c>
       <c r="F41" s="3">
-        <v>7924100</v>
+        <v>7821000</v>
       </c>
       <c r="G41" s="3">
-        <v>7401700</v>
+        <v>7305400</v>
       </c>
       <c r="H41" s="3">
-        <v>10041400</v>
+        <v>9910800</v>
       </c>
       <c r="I41" s="3">
-        <v>11565800</v>
+        <v>11415300</v>
       </c>
       <c r="J41" s="3">
-        <v>7337800</v>
+        <v>7242300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3234100</v>
+        <v>3192000</v>
       </c>
       <c r="E43" s="3">
-        <v>2696000</v>
+        <v>2660900</v>
       </c>
       <c r="F43" s="3">
-        <v>2441200</v>
+        <v>2409500</v>
       </c>
       <c r="G43" s="3">
-        <v>2203000</v>
+        <v>2174400</v>
       </c>
       <c r="H43" s="3">
-        <v>2093800</v>
+        <v>2066600</v>
       </c>
       <c r="I43" s="3">
-        <v>1858500</v>
+        <v>1834400</v>
       </c>
       <c r="J43" s="3">
-        <v>2489000</v>
+        <v>2456600</v>
       </c>
       <c r="K43" s="3">
         <v>1592700</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="E45" s="3">
-        <v>132100</v>
+        <v>130400</v>
       </c>
       <c r="F45" s="3">
-        <v>78600</v>
+        <v>77600</v>
       </c>
       <c r="G45" s="3">
-        <v>62900</v>
+        <v>62100</v>
       </c>
       <c r="H45" s="3">
-        <v>1025100</v>
+        <v>1011800</v>
       </c>
       <c r="I45" s="3">
-        <v>989300</v>
+        <v>976400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>627815000</v>
+        <v>619646000</v>
       </c>
       <c r="E47" s="3">
-        <v>547322000</v>
+        <v>540201000</v>
       </c>
       <c r="F47" s="3">
-        <v>475834000</v>
+        <v>469642000</v>
       </c>
       <c r="G47" s="3">
-        <v>423690000</v>
+        <v>418177000</v>
       </c>
       <c r="H47" s="3">
-        <v>390943000</v>
+        <v>385856000</v>
       </c>
       <c r="I47" s="3">
-        <v>352829000</v>
+        <v>348238000</v>
       </c>
       <c r="J47" s="3">
-        <v>326922000</v>
+        <v>322668000</v>
       </c>
       <c r="K47" s="3">
         <v>283550000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10926900</v>
+        <v>10784800</v>
       </c>
       <c r="E48" s="3">
-        <v>10518000</v>
+        <v>10381200</v>
       </c>
       <c r="F48" s="3">
-        <v>8896900</v>
+        <v>8781200</v>
       </c>
       <c r="G48" s="3">
-        <v>7140700</v>
+        <v>7047800</v>
       </c>
       <c r="H48" s="3">
-        <v>4926800</v>
+        <v>4862700</v>
       </c>
       <c r="I48" s="3">
-        <v>4401200</v>
+        <v>4343900</v>
       </c>
       <c r="J48" s="3">
-        <v>4154700</v>
+        <v>4100600</v>
       </c>
       <c r="K48" s="3">
         <v>3777000</v>
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>957400</v>
+        <v>945000</v>
       </c>
       <c r="K49" s="3">
         <v>944600</v>
@@ -2134,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="E52" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="F52" s="3">
-        <v>196100</v>
+        <v>193600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>663419000</v>
+        <v>654786000</v>
       </c>
       <c r="E54" s="3">
-        <v>581408000</v>
+        <v>573843000</v>
       </c>
       <c r="F54" s="3">
-        <v>507719000</v>
+        <v>501113000</v>
       </c>
       <c r="G54" s="3">
-        <v>452053000</v>
+        <v>446171000</v>
       </c>
       <c r="H54" s="3">
-        <v>420751000</v>
+        <v>415277000</v>
       </c>
       <c r="I54" s="3">
-        <v>381962000</v>
+        <v>376992000</v>
       </c>
       <c r="J54" s="3">
-        <v>350487000</v>
+        <v>345926000</v>
       </c>
       <c r="K54" s="3">
         <v>301426000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>564660000</v>
+        <v>557312000</v>
       </c>
       <c r="E59" s="3">
-        <v>492005000</v>
+        <v>485603000</v>
       </c>
       <c r="F59" s="3">
-        <v>440754000</v>
+        <v>435018000</v>
       </c>
       <c r="G59" s="3">
-        <v>386112000</v>
+        <v>381087000</v>
       </c>
       <c r="H59" s="3">
-        <v>353254000</v>
+        <v>348658000</v>
       </c>
       <c r="I59" s="3">
-        <v>309919000</v>
+        <v>305886000</v>
       </c>
       <c r="J59" s="3">
-        <v>284955000</v>
+        <v>281247000</v>
       </c>
       <c r="K59" s="3">
         <v>250977000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8925600</v>
+        <v>8809500</v>
       </c>
       <c r="E61" s="3">
-        <v>9068200</v>
+        <v>8950200</v>
       </c>
       <c r="F61" s="3">
-        <v>3143600</v>
+        <v>3102700</v>
       </c>
       <c r="G61" s="3">
-        <v>2932100</v>
+        <v>2893900</v>
       </c>
       <c r="H61" s="3">
-        <v>8450700</v>
+        <v>8340800</v>
       </c>
       <c r="I61" s="3">
-        <v>11020100</v>
+        <v>10876700</v>
       </c>
       <c r="J61" s="3">
-        <v>11016200</v>
+        <v>10872800</v>
       </c>
       <c r="K61" s="3">
         <v>10386700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2384800</v>
+        <v>2353700</v>
       </c>
       <c r="E62" s="3">
-        <v>1611600</v>
+        <v>1590600</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>759900</v>
+        <v>750000</v>
       </c>
       <c r="H62" s="3">
-        <v>1211900</v>
+        <v>1196100</v>
       </c>
       <c r="I62" s="3">
-        <v>2644800</v>
+        <v>2610400</v>
       </c>
       <c r="J62" s="3">
-        <v>3022700</v>
+        <v>2983400</v>
       </c>
       <c r="K62" s="3">
         <v>751500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>593206000</v>
+        <v>585487000</v>
       </c>
       <c r="E66" s="3">
-        <v>518417000</v>
+        <v>511671000</v>
       </c>
       <c r="F66" s="3">
-        <v>458050000</v>
+        <v>452090000</v>
       </c>
       <c r="G66" s="3">
-        <v>401984000</v>
+        <v>396754000</v>
       </c>
       <c r="H66" s="3">
-        <v>373383000</v>
+        <v>368525000</v>
       </c>
       <c r="I66" s="3">
-        <v>331650000</v>
+        <v>327334000</v>
       </c>
       <c r="J66" s="3">
-        <v>306161000</v>
+        <v>302177000</v>
       </c>
       <c r="K66" s="3">
         <v>267764000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>48841000</v>
+        <v>48205400</v>
       </c>
       <c r="E72" s="3">
-        <v>44413600</v>
+        <v>43835600</v>
       </c>
       <c r="F72" s="3">
-        <v>36516900</v>
+        <v>36041800</v>
       </c>
       <c r="G72" s="3">
-        <v>36593700</v>
+        <v>36117500</v>
       </c>
       <c r="H72" s="3">
-        <v>32658500</v>
+        <v>32233600</v>
       </c>
       <c r="I72" s="3">
-        <v>31581600</v>
+        <v>31170600</v>
       </c>
       <c r="J72" s="3">
-        <v>27914700</v>
+        <v>27551500</v>
       </c>
       <c r="K72" s="3">
         <v>23586200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70212500</v>
+        <v>69298900</v>
       </c>
       <c r="E76" s="3">
-        <v>62991200</v>
+        <v>62171600</v>
       </c>
       <c r="F76" s="3">
-        <v>49669100</v>
+        <v>49022800</v>
       </c>
       <c r="G76" s="3">
-        <v>50068800</v>
+        <v>49417300</v>
       </c>
       <c r="H76" s="3">
-        <v>47367900</v>
+        <v>46751600</v>
       </c>
       <c r="I76" s="3">
-        <v>50312000</v>
+        <v>49657300</v>
       </c>
       <c r="J76" s="3">
-        <v>44325700</v>
+        <v>43749000</v>
       </c>
       <c r="K76" s="3">
         <v>33662200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7842300</v>
+        <v>7740300</v>
       </c>
       <c r="E81" s="3">
-        <v>9093400</v>
+        <v>8975000</v>
       </c>
       <c r="F81" s="3">
-        <v>1777700</v>
+        <v>1754600</v>
       </c>
       <c r="G81" s="3">
-        <v>5031800</v>
+        <v>4966300</v>
       </c>
       <c r="H81" s="3">
-        <v>2984000</v>
+        <v>2945200</v>
       </c>
       <c r="I81" s="3">
-        <v>5413400</v>
+        <v>5343000</v>
       </c>
       <c r="J81" s="3">
-        <v>5025200</v>
+        <v>4959800</v>
       </c>
       <c r="K81" s="3">
         <v>3783600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>805200</v>
+        <v>794700</v>
       </c>
       <c r="E83" s="3">
-        <v>683200</v>
+        <v>674300</v>
       </c>
       <c r="F83" s="3">
-        <v>411600</v>
+        <v>406200</v>
       </c>
       <c r="G83" s="3">
-        <v>349500</v>
+        <v>344900</v>
       </c>
       <c r="H83" s="3">
-        <v>325000</v>
+        <v>320700</v>
       </c>
       <c r="I83" s="3">
-        <v>317600</v>
+        <v>313500</v>
       </c>
       <c r="J83" s="3">
-        <v>331400</v>
+        <v>327100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47430800</v>
+        <v>46813600</v>
       </c>
       <c r="E89" s="3">
-        <v>44623900</v>
+        <v>44043200</v>
       </c>
       <c r="F89" s="3">
-        <v>23019600</v>
+        <v>22720100</v>
       </c>
       <c r="G89" s="3">
-        <v>31356400</v>
+        <v>30948400</v>
       </c>
       <c r="H89" s="3">
-        <v>13900200</v>
+        <v>13719300</v>
       </c>
       <c r="I89" s="3">
-        <v>-2934700</v>
+        <v>-2896500</v>
       </c>
       <c r="J89" s="3">
-        <v>12207300</v>
+        <v>12048500</v>
       </c>
       <c r="K89" s="3">
         <v>10433700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1164900</v>
+        <v>-1149800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1780900</v>
+        <v>-1757700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3049400</v>
+        <v>-3009700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1500700</v>
+        <v>-1481100</v>
       </c>
       <c r="H91" s="3">
-        <v>-828400</v>
+        <v>-817600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1308000</v>
+        <v>-1291000</v>
       </c>
       <c r="J91" s="3">
-        <v>-787500</v>
+        <v>-777300</v>
       </c>
       <c r="K91" s="3">
         <v>-569000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45679300</v>
+        <v>-45084900</v>
       </c>
       <c r="E94" s="3">
-        <v>-38614800</v>
+        <v>-38112400</v>
       </c>
       <c r="F94" s="3">
-        <v>-37188600</v>
+        <v>-36704700</v>
       </c>
       <c r="G94" s="3">
-        <v>-27095200</v>
+        <v>-26742600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16334700</v>
+        <v>-16122200</v>
       </c>
       <c r="I94" s="3">
-        <v>10460000</v>
+        <v>10323900</v>
       </c>
       <c r="J94" s="3">
-        <v>-10804800</v>
+        <v>-10664200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3250300</v>
+        <v>-3208000</v>
       </c>
       <c r="E96" s="3">
-        <v>-766900</v>
+        <v>-757000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1823800</v>
+        <v>-1800000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1117700</v>
+        <v>-1103100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1912200</v>
+        <v>-1887300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1792700</v>
+        <v>-1769400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2043300</v>
+        <v>-2016700</v>
       </c>
       <c r="K96" s="3">
         <v>-1228400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1210600</v>
+        <v>-1194900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5628100</v>
+        <v>-5554800</v>
       </c>
       <c r="F100" s="3">
-        <v>14503200</v>
+        <v>14314400</v>
       </c>
       <c r="G100" s="3">
-        <v>-7113300</v>
+        <v>-7020700</v>
       </c>
       <c r="H100" s="3">
-        <v>978200</v>
+        <v>965500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3028900</v>
+        <v>-2989500</v>
       </c>
       <c r="J100" s="3">
-        <v>2606000</v>
+        <v>2572100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F101" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G101" s="3">
-        <v>-27900</v>
+        <v>-27600</v>
       </c>
       <c r="H101" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="I101" s="3">
-        <v>37600</v>
+        <v>37100</v>
       </c>
       <c r="J101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>518400</v>
+        <v>511700</v>
       </c>
       <c r="E102" s="3">
-        <v>389600</v>
+        <v>384500</v>
       </c>
       <c r="F102" s="3">
-        <v>346800</v>
+        <v>342300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2879900</v>
+        <v>-2842500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1411900</v>
+        <v>-1393500</v>
       </c>
       <c r="I102" s="3">
-        <v>4534000</v>
+        <v>4475000</v>
       </c>
       <c r="J102" s="3">
-        <v>4010100</v>
+        <v>3957900</v>
       </c>
       <c r="K102" s="3">
         <v>-7352100</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>125738500</v>
+        <v>127845300</v>
       </c>
       <c r="E8" s="3">
-        <v>113307900</v>
+        <v>115206400</v>
       </c>
       <c r="F8" s="3">
-        <v>97873400</v>
+        <v>99513300</v>
       </c>
       <c r="G8" s="3">
-        <v>99488300</v>
+        <v>101155300</v>
       </c>
       <c r="H8" s="3">
-        <v>83678400</v>
+        <v>85080500</v>
       </c>
       <c r="I8" s="3">
-        <v>78186400</v>
+        <v>79496500</v>
       </c>
       <c r="J8" s="3">
-        <v>68046100</v>
+        <v>69186200</v>
       </c>
       <c r="K8" s="3">
         <v>64425200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>103934800</v>
+        <v>105676300</v>
       </c>
       <c r="E9" s="3">
-        <v>92391100</v>
+        <v>93939100</v>
       </c>
       <c r="F9" s="3">
-        <v>84882400</v>
+        <v>86304600</v>
       </c>
       <c r="G9" s="3">
-        <v>82981100</v>
+        <v>84371400</v>
       </c>
       <c r="H9" s="3">
-        <v>71505700</v>
+        <v>72703800</v>
       </c>
       <c r="I9" s="3">
-        <v>60060200</v>
+        <v>61066500</v>
       </c>
       <c r="J9" s="3">
-        <v>53030600</v>
+        <v>53919100</v>
       </c>
       <c r="K9" s="3">
         <v>51914000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21803700</v>
+        <v>22169100</v>
       </c>
       <c r="E10" s="3">
-        <v>20916800</v>
+        <v>21267300</v>
       </c>
       <c r="F10" s="3">
-        <v>12991000</v>
+        <v>13208700</v>
       </c>
       <c r="G10" s="3">
-        <v>16507300</v>
+        <v>16783900</v>
       </c>
       <c r="H10" s="3">
-        <v>12172700</v>
+        <v>12376700</v>
       </c>
       <c r="I10" s="3">
-        <v>18126200</v>
+        <v>18429900</v>
       </c>
       <c r="J10" s="3">
-        <v>15015500</v>
+        <v>15267100</v>
       </c>
       <c r="K10" s="3">
         <v>12511200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1790600</v>
+        <v>1820600</v>
       </c>
       <c r="E14" s="3">
-        <v>983500</v>
+        <v>999900</v>
       </c>
       <c r="F14" s="3">
-        <v>1263400</v>
+        <v>1284600</v>
       </c>
       <c r="G14" s="3">
-        <v>424500</v>
+        <v>431600</v>
       </c>
       <c r="H14" s="3">
-        <v>409000</v>
+        <v>415800</v>
       </c>
       <c r="I14" s="3">
-        <v>49400</v>
+        <v>50300</v>
       </c>
       <c r="J14" s="3">
-        <v>176900</v>
+        <v>179900</v>
       </c>
       <c r="K14" s="3">
         <v>581000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>118528900</v>
+        <v>120514900</v>
       </c>
       <c r="E17" s="3">
-        <v>105334200</v>
+        <v>107099100</v>
       </c>
       <c r="F17" s="3">
-        <v>96922400</v>
+        <v>98546400</v>
       </c>
       <c r="G17" s="3">
-        <v>94171700</v>
+        <v>95749600</v>
       </c>
       <c r="H17" s="3">
-        <v>80908800</v>
+        <v>82264500</v>
       </c>
       <c r="I17" s="3">
-        <v>71417900</v>
+        <v>72614600</v>
       </c>
       <c r="J17" s="3">
-        <v>61699500</v>
+        <v>62733300</v>
       </c>
       <c r="K17" s="3">
         <v>59787100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7209700</v>
+        <v>7330500</v>
       </c>
       <c r="E18" s="3">
-        <v>7973700</v>
+        <v>8107300</v>
       </c>
       <c r="F18" s="3">
-        <v>951000</v>
+        <v>966900</v>
       </c>
       <c r="G18" s="3">
-        <v>5316600</v>
+        <v>5405700</v>
       </c>
       <c r="H18" s="3">
-        <v>2769600</v>
+        <v>2816000</v>
       </c>
       <c r="I18" s="3">
-        <v>6768500</v>
+        <v>6881900</v>
       </c>
       <c r="J18" s="3">
-        <v>6346600</v>
+        <v>6452900</v>
       </c>
       <c r="K18" s="3">
         <v>4638100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1180400</v>
+        <v>1200200</v>
       </c>
       <c r="E20" s="3">
-        <v>1233500</v>
+        <v>1254200</v>
       </c>
       <c r="F20" s="3">
-        <v>1192600</v>
+        <v>1212600</v>
       </c>
       <c r="G20" s="3">
-        <v>1099900</v>
+        <v>1118300</v>
       </c>
       <c r="H20" s="3">
-        <v>901600</v>
+        <v>916700</v>
       </c>
       <c r="I20" s="3">
-        <v>304000</v>
+        <v>309000</v>
       </c>
       <c r="J20" s="3">
-        <v>-125500</v>
+        <v>-127600</v>
       </c>
       <c r="K20" s="3">
         <v>477400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9186000</v>
+        <v>9338000</v>
       </c>
       <c r="E21" s="3">
-        <v>9882600</v>
+        <v>10046600</v>
       </c>
       <c r="F21" s="3">
-        <v>2550400</v>
+        <v>2592200</v>
       </c>
       <c r="G21" s="3">
-        <v>6762000</v>
+        <v>6874400</v>
       </c>
       <c r="H21" s="3">
-        <v>3992400</v>
+        <v>4058600</v>
       </c>
       <c r="I21" s="3">
-        <v>7386400</v>
+        <v>7509500</v>
       </c>
       <c r="J21" s="3">
-        <v>6548700</v>
+        <v>6657600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8390100</v>
+        <v>8530600</v>
       </c>
       <c r="E23" s="3">
-        <v>9207200</v>
+        <v>9361500</v>
       </c>
       <c r="F23" s="3">
-        <v>2143600</v>
+        <v>2179500</v>
       </c>
       <c r="G23" s="3">
-        <v>6416500</v>
+        <v>6524000</v>
       </c>
       <c r="H23" s="3">
-        <v>3671200</v>
+        <v>3732700</v>
       </c>
       <c r="I23" s="3">
-        <v>7072500</v>
+        <v>7191000</v>
       </c>
       <c r="J23" s="3">
-        <v>6221100</v>
+        <v>6325300</v>
       </c>
       <c r="K23" s="3">
         <v>4499500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>477800</v>
+        <v>485800</v>
       </c>
       <c r="E24" s="3">
-        <v>120300</v>
+        <v>122300</v>
       </c>
       <c r="F24" s="3">
-        <v>305700</v>
+        <v>310800</v>
       </c>
       <c r="G24" s="3">
-        <v>1373300</v>
+        <v>1396400</v>
       </c>
       <c r="H24" s="3">
-        <v>655500</v>
+        <v>666500</v>
       </c>
       <c r="I24" s="3">
-        <v>1654400</v>
+        <v>1682100</v>
       </c>
       <c r="J24" s="3">
-        <v>1214600</v>
+        <v>1234900</v>
       </c>
       <c r="K24" s="3">
         <v>678800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7912300</v>
+        <v>8044800</v>
       </c>
       <c r="E26" s="3">
-        <v>9087000</v>
+        <v>9239200</v>
       </c>
       <c r="F26" s="3">
-        <v>1837900</v>
+        <v>1868700</v>
       </c>
       <c r="G26" s="3">
-        <v>5043200</v>
+        <v>5127700</v>
       </c>
       <c r="H26" s="3">
-        <v>3015700</v>
+        <v>3066200</v>
       </c>
       <c r="I26" s="3">
-        <v>5418100</v>
+        <v>5508900</v>
       </c>
       <c r="J26" s="3">
-        <v>5006500</v>
+        <v>5090400</v>
       </c>
       <c r="K26" s="3">
         <v>3820700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7740300</v>
+        <v>7870000</v>
       </c>
       <c r="E27" s="3">
-        <v>8975000</v>
+        <v>9125400</v>
       </c>
       <c r="F27" s="3">
-        <v>1754600</v>
+        <v>1784000</v>
       </c>
       <c r="G27" s="3">
-        <v>4966300</v>
+        <v>5049500</v>
       </c>
       <c r="H27" s="3">
-        <v>2945200</v>
+        <v>2994500</v>
       </c>
       <c r="I27" s="3">
-        <v>5343000</v>
+        <v>5432500</v>
       </c>
       <c r="J27" s="3">
-        <v>4959800</v>
+        <v>5043000</v>
       </c>
       <c r="K27" s="3">
         <v>3783600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1180400</v>
+        <v>-1200200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1233500</v>
+        <v>-1254200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1192600</v>
+        <v>-1212600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1099900</v>
+        <v>-1118300</v>
       </c>
       <c r="H32" s="3">
-        <v>-901600</v>
+        <v>-916700</v>
       </c>
       <c r="I32" s="3">
-        <v>-304000</v>
+        <v>-309000</v>
       </c>
       <c r="J32" s="3">
-        <v>125500</v>
+        <v>127600</v>
       </c>
       <c r="K32" s="3">
         <v>-477400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7740300</v>
+        <v>7870000</v>
       </c>
       <c r="E33" s="3">
-        <v>8975000</v>
+        <v>9125400</v>
       </c>
       <c r="F33" s="3">
-        <v>1754600</v>
+        <v>1784000</v>
       </c>
       <c r="G33" s="3">
-        <v>4966300</v>
+        <v>5049500</v>
       </c>
       <c r="H33" s="3">
-        <v>2945200</v>
+        <v>2994500</v>
       </c>
       <c r="I33" s="3">
-        <v>5343000</v>
+        <v>5432500</v>
       </c>
       <c r="J33" s="3">
-        <v>4959800</v>
+        <v>5043000</v>
       </c>
       <c r="K33" s="3">
         <v>3783600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7740300</v>
+        <v>7870000</v>
       </c>
       <c r="E35" s="3">
-        <v>8975000</v>
+        <v>9125400</v>
       </c>
       <c r="F35" s="3">
-        <v>1754600</v>
+        <v>1784000</v>
       </c>
       <c r="G35" s="3">
-        <v>4966300</v>
+        <v>5049500</v>
       </c>
       <c r="H35" s="3">
-        <v>2945200</v>
+        <v>2994500</v>
       </c>
       <c r="I35" s="3">
-        <v>5343000</v>
+        <v>5432500</v>
       </c>
       <c r="J35" s="3">
-        <v>4959800</v>
+        <v>5043000</v>
       </c>
       <c r="K35" s="3">
         <v>3783600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8701400</v>
+        <v>8847200</v>
       </c>
       <c r="E41" s="3">
-        <v>8130100</v>
+        <v>8266400</v>
       </c>
       <c r="F41" s="3">
-        <v>7821000</v>
+        <v>7952000</v>
       </c>
       <c r="G41" s="3">
-        <v>7305400</v>
+        <v>7427800</v>
       </c>
       <c r="H41" s="3">
-        <v>9910800</v>
+        <v>10076800</v>
       </c>
       <c r="I41" s="3">
-        <v>11415300</v>
+        <v>11606600</v>
       </c>
       <c r="J41" s="3">
-        <v>7242300</v>
+        <v>7363600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3192000</v>
+        <v>3245500</v>
       </c>
       <c r="E43" s="3">
-        <v>2660900</v>
+        <v>2705500</v>
       </c>
       <c r="F43" s="3">
-        <v>2409500</v>
+        <v>2449900</v>
       </c>
       <c r="G43" s="3">
-        <v>2174400</v>
+        <v>2210800</v>
       </c>
       <c r="H43" s="3">
-        <v>2066600</v>
+        <v>2101200</v>
       </c>
       <c r="I43" s="3">
-        <v>1834400</v>
+        <v>1865100</v>
       </c>
       <c r="J43" s="3">
-        <v>2456600</v>
+        <v>2497800</v>
       </c>
       <c r="K43" s="3">
         <v>1592700</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="E45" s="3">
-        <v>130400</v>
+        <v>132600</v>
       </c>
       <c r="F45" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="G45" s="3">
-        <v>62100</v>
+        <v>63100</v>
       </c>
       <c r="H45" s="3">
-        <v>1011800</v>
+        <v>1028800</v>
       </c>
       <c r="I45" s="3">
-        <v>976400</v>
+        <v>992700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>619646000</v>
+        <v>630028000</v>
       </c>
       <c r="E47" s="3">
-        <v>540201000</v>
+        <v>549252000</v>
       </c>
       <c r="F47" s="3">
-        <v>469642000</v>
+        <v>477511000</v>
       </c>
       <c r="G47" s="3">
-        <v>418177000</v>
+        <v>425184000</v>
       </c>
       <c r="H47" s="3">
-        <v>385856000</v>
+        <v>392321000</v>
       </c>
       <c r="I47" s="3">
-        <v>348238000</v>
+        <v>354073000</v>
       </c>
       <c r="J47" s="3">
-        <v>322668000</v>
+        <v>328075000</v>
       </c>
       <c r="K47" s="3">
         <v>283550000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10784800</v>
+        <v>10965500</v>
       </c>
       <c r="E48" s="3">
-        <v>10381200</v>
+        <v>10555100</v>
       </c>
       <c r="F48" s="3">
-        <v>8781200</v>
+        <v>8928300</v>
       </c>
       <c r="G48" s="3">
-        <v>7047800</v>
+        <v>7165900</v>
       </c>
       <c r="H48" s="3">
-        <v>4862700</v>
+        <v>4944200</v>
       </c>
       <c r="I48" s="3">
-        <v>4343900</v>
+        <v>4416700</v>
       </c>
       <c r="J48" s="3">
-        <v>4100600</v>
+        <v>4169300</v>
       </c>
       <c r="K48" s="3">
         <v>3777000</v>
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>945000</v>
+        <v>960800</v>
       </c>
       <c r="K49" s="3">
         <v>944600</v>
@@ -2134,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="E52" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="F52" s="3">
-        <v>193600</v>
+        <v>196800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>654786000</v>
+        <v>665757000</v>
       </c>
       <c r="E54" s="3">
-        <v>573843000</v>
+        <v>583458000</v>
       </c>
       <c r="F54" s="3">
-        <v>501113000</v>
+        <v>509509000</v>
       </c>
       <c r="G54" s="3">
-        <v>446171000</v>
+        <v>453647000</v>
       </c>
       <c r="H54" s="3">
-        <v>415277000</v>
+        <v>422235000</v>
       </c>
       <c r="I54" s="3">
-        <v>376992000</v>
+        <v>383308000</v>
       </c>
       <c r="J54" s="3">
-        <v>345926000</v>
+        <v>351723000</v>
       </c>
       <c r="K54" s="3">
         <v>301426000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>557312000</v>
+        <v>566650000</v>
       </c>
       <c r="E59" s="3">
-        <v>485603000</v>
+        <v>493739000</v>
       </c>
       <c r="F59" s="3">
-        <v>435018000</v>
+        <v>442307000</v>
       </c>
       <c r="G59" s="3">
-        <v>381087000</v>
+        <v>387473000</v>
       </c>
       <c r="H59" s="3">
-        <v>348658000</v>
+        <v>354500000</v>
       </c>
       <c r="I59" s="3">
-        <v>305886000</v>
+        <v>311011000</v>
       </c>
       <c r="J59" s="3">
-        <v>281247000</v>
+        <v>285960000</v>
       </c>
       <c r="K59" s="3">
         <v>250977000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8809500</v>
+        <v>8957100</v>
       </c>
       <c r="E61" s="3">
-        <v>8950200</v>
+        <v>9100200</v>
       </c>
       <c r="F61" s="3">
-        <v>3102700</v>
+        <v>3154700</v>
       </c>
       <c r="G61" s="3">
-        <v>2893900</v>
+        <v>2942400</v>
       </c>
       <c r="H61" s="3">
-        <v>8340800</v>
+        <v>8480500</v>
       </c>
       <c r="I61" s="3">
-        <v>10876700</v>
+        <v>11058900</v>
       </c>
       <c r="J61" s="3">
-        <v>10872800</v>
+        <v>11055000</v>
       </c>
       <c r="K61" s="3">
         <v>10386700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2353700</v>
+        <v>2393200</v>
       </c>
       <c r="E62" s="3">
-        <v>1590600</v>
+        <v>1617300</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>750000</v>
+        <v>762600</v>
       </c>
       <c r="H62" s="3">
-        <v>1196100</v>
+        <v>1216200</v>
       </c>
       <c r="I62" s="3">
-        <v>2610400</v>
+        <v>2654200</v>
       </c>
       <c r="J62" s="3">
-        <v>2983400</v>
+        <v>3033300</v>
       </c>
       <c r="K62" s="3">
         <v>751500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>585487000</v>
+        <v>595297000</v>
       </c>
       <c r="E66" s="3">
-        <v>511671000</v>
+        <v>520244000</v>
       </c>
       <c r="F66" s="3">
-        <v>452090000</v>
+        <v>459665000</v>
       </c>
       <c r="G66" s="3">
-        <v>396754000</v>
+        <v>403402000</v>
       </c>
       <c r="H66" s="3">
-        <v>368525000</v>
+        <v>374700000</v>
       </c>
       <c r="I66" s="3">
-        <v>327334000</v>
+        <v>332819000</v>
       </c>
       <c r="J66" s="3">
-        <v>302177000</v>
+        <v>307241000</v>
       </c>
       <c r="K66" s="3">
         <v>267764000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>48205400</v>
+        <v>49013100</v>
       </c>
       <c r="E72" s="3">
-        <v>43835600</v>
+        <v>44570100</v>
       </c>
       <c r="F72" s="3">
-        <v>36041800</v>
+        <v>36645700</v>
       </c>
       <c r="G72" s="3">
-        <v>36117500</v>
+        <v>36722700</v>
       </c>
       <c r="H72" s="3">
-        <v>32233600</v>
+        <v>32773600</v>
       </c>
       <c r="I72" s="3">
-        <v>31170600</v>
+        <v>31692900</v>
       </c>
       <c r="J72" s="3">
-        <v>27551500</v>
+        <v>28013100</v>
       </c>
       <c r="K72" s="3">
         <v>23586200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69298900</v>
+        <v>70460000</v>
       </c>
       <c r="E76" s="3">
-        <v>62171600</v>
+        <v>63213300</v>
       </c>
       <c r="F76" s="3">
-        <v>49022800</v>
+        <v>49844200</v>
       </c>
       <c r="G76" s="3">
-        <v>49417300</v>
+        <v>50245300</v>
       </c>
       <c r="H76" s="3">
-        <v>46751600</v>
+        <v>47534900</v>
       </c>
       <c r="I76" s="3">
-        <v>49657300</v>
+        <v>50489300</v>
       </c>
       <c r="J76" s="3">
-        <v>43749000</v>
+        <v>44482000</v>
       </c>
       <c r="K76" s="3">
         <v>33662200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7740300</v>
+        <v>7870000</v>
       </c>
       <c r="E81" s="3">
-        <v>8975000</v>
+        <v>9125400</v>
       </c>
       <c r="F81" s="3">
-        <v>1754600</v>
+        <v>1784000</v>
       </c>
       <c r="G81" s="3">
-        <v>4966300</v>
+        <v>5049500</v>
       </c>
       <c r="H81" s="3">
-        <v>2945200</v>
+        <v>2994500</v>
       </c>
       <c r="I81" s="3">
-        <v>5343000</v>
+        <v>5432500</v>
       </c>
       <c r="J81" s="3">
-        <v>4959800</v>
+        <v>5043000</v>
       </c>
       <c r="K81" s="3">
         <v>3783600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>794700</v>
+        <v>808000</v>
       </c>
       <c r="E83" s="3">
-        <v>674300</v>
+        <v>685600</v>
       </c>
       <c r="F83" s="3">
-        <v>406200</v>
+        <v>413000</v>
       </c>
       <c r="G83" s="3">
-        <v>344900</v>
+        <v>350700</v>
       </c>
       <c r="H83" s="3">
-        <v>320700</v>
+        <v>326100</v>
       </c>
       <c r="I83" s="3">
-        <v>313500</v>
+        <v>318800</v>
       </c>
       <c r="J83" s="3">
-        <v>327100</v>
+        <v>332500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46813600</v>
+        <v>47598000</v>
       </c>
       <c r="E89" s="3">
-        <v>44043200</v>
+        <v>44781200</v>
       </c>
       <c r="F89" s="3">
-        <v>22720100</v>
+        <v>23100700</v>
       </c>
       <c r="G89" s="3">
-        <v>30948400</v>
+        <v>31467000</v>
       </c>
       <c r="H89" s="3">
-        <v>13719300</v>
+        <v>13949200</v>
       </c>
       <c r="I89" s="3">
-        <v>-2896500</v>
+        <v>-2945100</v>
       </c>
       <c r="J89" s="3">
-        <v>12048500</v>
+        <v>12250400</v>
       </c>
       <c r="K89" s="3">
         <v>10433700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1149800</v>
+        <v>-1169000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1757700</v>
+        <v>-1787100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3009700</v>
+        <v>-3060100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1481100</v>
+        <v>-1506000</v>
       </c>
       <c r="H91" s="3">
-        <v>-817600</v>
+        <v>-831300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1291000</v>
+        <v>-1312600</v>
       </c>
       <c r="J91" s="3">
-        <v>-777300</v>
+        <v>-790300</v>
       </c>
       <c r="K91" s="3">
         <v>-569000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45084900</v>
+        <v>-45840300</v>
       </c>
       <c r="E94" s="3">
-        <v>-38112400</v>
+        <v>-38750900</v>
       </c>
       <c r="F94" s="3">
-        <v>-36704700</v>
+        <v>-37319700</v>
       </c>
       <c r="G94" s="3">
-        <v>-26742600</v>
+        <v>-27190700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16122200</v>
+        <v>-16392300</v>
       </c>
       <c r="I94" s="3">
-        <v>10323900</v>
+        <v>10496900</v>
       </c>
       <c r="J94" s="3">
-        <v>-10664200</v>
+        <v>-10842900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3208000</v>
+        <v>-3261800</v>
       </c>
       <c r="E96" s="3">
-        <v>-757000</v>
+        <v>-769600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1800000</v>
+        <v>-1830200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1103100</v>
+        <v>-1121600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1887300</v>
+        <v>-1919000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1769400</v>
+        <v>-1799000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2016700</v>
+        <v>-2050500</v>
       </c>
       <c r="K96" s="3">
         <v>-1228400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1194900</v>
+        <v>-1214900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5554800</v>
+        <v>-5647900</v>
       </c>
       <c r="F100" s="3">
-        <v>14314400</v>
+        <v>14554300</v>
       </c>
       <c r="G100" s="3">
-        <v>-7020700</v>
+        <v>-7138400</v>
       </c>
       <c r="H100" s="3">
-        <v>965500</v>
+        <v>981600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2989500</v>
+        <v>-3039600</v>
       </c>
       <c r="J100" s="3">
-        <v>2572100</v>
+        <v>2615200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22200</v>
+        <v>-22500</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="G101" s="3">
-        <v>-27600</v>
+        <v>-28000</v>
       </c>
       <c r="H101" s="3">
-        <v>43900</v>
+        <v>44600</v>
       </c>
       <c r="I101" s="3">
-        <v>37100</v>
+        <v>37700</v>
       </c>
       <c r="J101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>511700</v>
+        <v>520200</v>
       </c>
       <c r="E102" s="3">
-        <v>384500</v>
+        <v>390900</v>
       </c>
       <c r="F102" s="3">
-        <v>342300</v>
+        <v>348000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2842500</v>
+        <v>-2890100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1393500</v>
+        <v>-1416900</v>
       </c>
       <c r="I102" s="3">
-        <v>4475000</v>
+        <v>4549900</v>
       </c>
       <c r="J102" s="3">
-        <v>3957900</v>
+        <v>4024200</v>
       </c>
       <c r="K102" s="3">
         <v>-7352100</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127845300</v>
+        <v>128825200</v>
       </c>
       <c r="E8" s="3">
-        <v>115206400</v>
+        <v>116089400</v>
       </c>
       <c r="F8" s="3">
-        <v>99513300</v>
+        <v>100276000</v>
       </c>
       <c r="G8" s="3">
-        <v>101155300</v>
+        <v>101930600</v>
       </c>
       <c r="H8" s="3">
-        <v>85080500</v>
+        <v>85732600</v>
       </c>
       <c r="I8" s="3">
-        <v>79496500</v>
+        <v>80105800</v>
       </c>
       <c r="J8" s="3">
-        <v>69186200</v>
+        <v>69716500</v>
       </c>
       <c r="K8" s="3">
         <v>64425200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105676300</v>
+        <v>106486300</v>
       </c>
       <c r="E9" s="3">
-        <v>93939100</v>
+        <v>94659200</v>
       </c>
       <c r="F9" s="3">
-        <v>86304600</v>
+        <v>86966100</v>
       </c>
       <c r="G9" s="3">
-        <v>84371400</v>
+        <v>85018100</v>
       </c>
       <c r="H9" s="3">
-        <v>72703800</v>
+        <v>73261100</v>
       </c>
       <c r="I9" s="3">
-        <v>61066500</v>
+        <v>61534600</v>
       </c>
       <c r="J9" s="3">
-        <v>53919100</v>
+        <v>54332400</v>
       </c>
       <c r="K9" s="3">
         <v>51914000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22169100</v>
+        <v>22339000</v>
       </c>
       <c r="E10" s="3">
-        <v>21267300</v>
+        <v>21430300</v>
       </c>
       <c r="F10" s="3">
-        <v>13208700</v>
+        <v>13309900</v>
       </c>
       <c r="G10" s="3">
-        <v>16783900</v>
+        <v>16912500</v>
       </c>
       <c r="H10" s="3">
-        <v>12376700</v>
+        <v>12471600</v>
       </c>
       <c r="I10" s="3">
-        <v>18429900</v>
+        <v>18571200</v>
       </c>
       <c r="J10" s="3">
-        <v>15267100</v>
+        <v>15384100</v>
       </c>
       <c r="K10" s="3">
         <v>12511200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1820600</v>
+        <v>1834600</v>
       </c>
       <c r="E14" s="3">
-        <v>999900</v>
+        <v>1007600</v>
       </c>
       <c r="F14" s="3">
-        <v>1284600</v>
+        <v>1294400</v>
       </c>
       <c r="G14" s="3">
-        <v>431600</v>
+        <v>434900</v>
       </c>
       <c r="H14" s="3">
-        <v>415800</v>
+        <v>419000</v>
       </c>
       <c r="I14" s="3">
-        <v>50300</v>
+        <v>50600</v>
       </c>
       <c r="J14" s="3">
-        <v>179900</v>
+        <v>181300</v>
       </c>
       <c r="K14" s="3">
         <v>581000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>120514900</v>
+        <v>121438600</v>
       </c>
       <c r="E17" s="3">
-        <v>107099100</v>
+        <v>107920000</v>
       </c>
       <c r="F17" s="3">
-        <v>98546400</v>
+        <v>99301700</v>
       </c>
       <c r="G17" s="3">
-        <v>95749600</v>
+        <v>96483500</v>
       </c>
       <c r="H17" s="3">
-        <v>82264500</v>
+        <v>82895000</v>
       </c>
       <c r="I17" s="3">
-        <v>72614600</v>
+        <v>73171100</v>
       </c>
       <c r="J17" s="3">
-        <v>62733300</v>
+        <v>63214100</v>
       </c>
       <c r="K17" s="3">
         <v>59787100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7330500</v>
+        <v>7386600</v>
       </c>
       <c r="E18" s="3">
-        <v>8107300</v>
+        <v>8169400</v>
       </c>
       <c r="F18" s="3">
-        <v>966900</v>
+        <v>974300</v>
       </c>
       <c r="G18" s="3">
-        <v>5405700</v>
+        <v>5447100</v>
       </c>
       <c r="H18" s="3">
-        <v>2816000</v>
+        <v>2837600</v>
       </c>
       <c r="I18" s="3">
-        <v>6881900</v>
+        <v>6934700</v>
       </c>
       <c r="J18" s="3">
-        <v>6452900</v>
+        <v>6502400</v>
       </c>
       <c r="K18" s="3">
         <v>4638100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200200</v>
+        <v>1209400</v>
       </c>
       <c r="E20" s="3">
-        <v>1254200</v>
+        <v>1263800</v>
       </c>
       <c r="F20" s="3">
-        <v>1212600</v>
+        <v>1221900</v>
       </c>
       <c r="G20" s="3">
-        <v>1118300</v>
+        <v>1126900</v>
       </c>
       <c r="H20" s="3">
-        <v>916700</v>
+        <v>923700</v>
       </c>
       <c r="I20" s="3">
-        <v>309000</v>
+        <v>311400</v>
       </c>
       <c r="J20" s="3">
-        <v>-127600</v>
+        <v>-128600</v>
       </c>
       <c r="K20" s="3">
         <v>477400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9338000</v>
+        <v>9413000</v>
       </c>
       <c r="E21" s="3">
-        <v>10046600</v>
+        <v>10126400</v>
       </c>
       <c r="F21" s="3">
-        <v>2592200</v>
+        <v>2613700</v>
       </c>
       <c r="G21" s="3">
-        <v>6874400</v>
+        <v>6928600</v>
       </c>
       <c r="H21" s="3">
-        <v>4058600</v>
+        <v>4091000</v>
       </c>
       <c r="I21" s="3">
-        <v>7509500</v>
+        <v>7568400</v>
       </c>
       <c r="J21" s="3">
-        <v>6657600</v>
+        <v>6710000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8530600</v>
+        <v>8596000</v>
       </c>
       <c r="E23" s="3">
-        <v>9361500</v>
+        <v>9433300</v>
       </c>
       <c r="F23" s="3">
-        <v>2179500</v>
+        <v>2196200</v>
       </c>
       <c r="G23" s="3">
-        <v>6524000</v>
+        <v>6574000</v>
       </c>
       <c r="H23" s="3">
-        <v>3732700</v>
+        <v>3761300</v>
       </c>
       <c r="I23" s="3">
-        <v>7191000</v>
+        <v>7246100</v>
       </c>
       <c r="J23" s="3">
-        <v>6325300</v>
+        <v>6373800</v>
       </c>
       <c r="K23" s="3">
         <v>4499500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>485800</v>
+        <v>489500</v>
       </c>
       <c r="E24" s="3">
-        <v>122300</v>
+        <v>123200</v>
       </c>
       <c r="F24" s="3">
-        <v>310800</v>
+        <v>313200</v>
       </c>
       <c r="G24" s="3">
-        <v>1396400</v>
+        <v>1407100</v>
       </c>
       <c r="H24" s="3">
-        <v>666500</v>
+        <v>671600</v>
       </c>
       <c r="I24" s="3">
-        <v>1682100</v>
+        <v>1695000</v>
       </c>
       <c r="J24" s="3">
-        <v>1234900</v>
+        <v>1244400</v>
       </c>
       <c r="K24" s="3">
         <v>678800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8044800</v>
+        <v>8106500</v>
       </c>
       <c r="E26" s="3">
-        <v>9239200</v>
+        <v>9310000</v>
       </c>
       <c r="F26" s="3">
-        <v>1868700</v>
+        <v>1883000</v>
       </c>
       <c r="G26" s="3">
-        <v>5127700</v>
+        <v>5167000</v>
       </c>
       <c r="H26" s="3">
-        <v>3066200</v>
+        <v>3089700</v>
       </c>
       <c r="I26" s="3">
-        <v>5508900</v>
+        <v>5551100</v>
       </c>
       <c r="J26" s="3">
-        <v>5090400</v>
+        <v>5129400</v>
       </c>
       <c r="K26" s="3">
         <v>3820700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7870000</v>
+        <v>7930300</v>
       </c>
       <c r="E27" s="3">
-        <v>9125400</v>
+        <v>9195400</v>
       </c>
       <c r="F27" s="3">
-        <v>1784000</v>
+        <v>1797700</v>
       </c>
       <c r="G27" s="3">
-        <v>5049500</v>
+        <v>5088200</v>
       </c>
       <c r="H27" s="3">
-        <v>2994500</v>
+        <v>3017500</v>
       </c>
       <c r="I27" s="3">
-        <v>5432500</v>
+        <v>5474100</v>
       </c>
       <c r="J27" s="3">
-        <v>5043000</v>
+        <v>5081600</v>
       </c>
       <c r="K27" s="3">
         <v>3783600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200200</v>
+        <v>-1209400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1254200</v>
+        <v>-1263800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1212600</v>
+        <v>-1221900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1118300</v>
+        <v>-1126900</v>
       </c>
       <c r="H32" s="3">
-        <v>-916700</v>
+        <v>-923700</v>
       </c>
       <c r="I32" s="3">
-        <v>-309000</v>
+        <v>-311400</v>
       </c>
       <c r="J32" s="3">
-        <v>127600</v>
+        <v>128600</v>
       </c>
       <c r="K32" s="3">
         <v>-477400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7870000</v>
+        <v>7930300</v>
       </c>
       <c r="E33" s="3">
-        <v>9125400</v>
+        <v>9195400</v>
       </c>
       <c r="F33" s="3">
-        <v>1784000</v>
+        <v>1797700</v>
       </c>
       <c r="G33" s="3">
-        <v>5049500</v>
+        <v>5088200</v>
       </c>
       <c r="H33" s="3">
-        <v>2994500</v>
+        <v>3017500</v>
       </c>
       <c r="I33" s="3">
-        <v>5432500</v>
+        <v>5474100</v>
       </c>
       <c r="J33" s="3">
-        <v>5043000</v>
+        <v>5081600</v>
       </c>
       <c r="K33" s="3">
         <v>3783600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7870000</v>
+        <v>7930300</v>
       </c>
       <c r="E35" s="3">
-        <v>9125400</v>
+        <v>9195400</v>
       </c>
       <c r="F35" s="3">
-        <v>1784000</v>
+        <v>1797700</v>
       </c>
       <c r="G35" s="3">
-        <v>5049500</v>
+        <v>5088200</v>
       </c>
       <c r="H35" s="3">
-        <v>2994500</v>
+        <v>3017500</v>
       </c>
       <c r="I35" s="3">
-        <v>5432500</v>
+        <v>5474100</v>
       </c>
       <c r="J35" s="3">
-        <v>5043000</v>
+        <v>5081600</v>
       </c>
       <c r="K35" s="3">
         <v>3783600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8847200</v>
+        <v>8915000</v>
       </c>
       <c r="E41" s="3">
-        <v>8266400</v>
+        <v>8329700</v>
       </c>
       <c r="F41" s="3">
-        <v>7952000</v>
+        <v>8012900</v>
       </c>
       <c r="G41" s="3">
-        <v>7427800</v>
+        <v>7484800</v>
       </c>
       <c r="H41" s="3">
-        <v>10076800</v>
+        <v>10154100</v>
       </c>
       <c r="I41" s="3">
-        <v>11606600</v>
+        <v>11695500</v>
       </c>
       <c r="J41" s="3">
-        <v>7363600</v>
+        <v>7420100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3245500</v>
+        <v>3270400</v>
       </c>
       <c r="E43" s="3">
-        <v>2705500</v>
+        <v>2726300</v>
       </c>
       <c r="F43" s="3">
-        <v>2449900</v>
+        <v>2468600</v>
       </c>
       <c r="G43" s="3">
-        <v>2210800</v>
+        <v>2227700</v>
       </c>
       <c r="H43" s="3">
-        <v>2101200</v>
+        <v>2117300</v>
       </c>
       <c r="I43" s="3">
-        <v>1865100</v>
+        <v>1879400</v>
       </c>
       <c r="J43" s="3">
-        <v>2497800</v>
+        <v>2516900</v>
       </c>
       <c r="K43" s="3">
         <v>1592700</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="E45" s="3">
-        <v>132600</v>
+        <v>133600</v>
       </c>
       <c r="F45" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="G45" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="H45" s="3">
-        <v>1028800</v>
+        <v>1036600</v>
       </c>
       <c r="I45" s="3">
-        <v>992700</v>
+        <v>1000400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>630028000</v>
+        <v>634857000</v>
       </c>
       <c r="E47" s="3">
-        <v>549252000</v>
+        <v>553462000</v>
       </c>
       <c r="F47" s="3">
-        <v>477511000</v>
+        <v>481171000</v>
       </c>
       <c r="G47" s="3">
-        <v>425184000</v>
+        <v>428442000</v>
       </c>
       <c r="H47" s="3">
-        <v>392321000</v>
+        <v>395328000</v>
       </c>
       <c r="I47" s="3">
-        <v>354073000</v>
+        <v>356787000</v>
       </c>
       <c r="J47" s="3">
-        <v>328075000</v>
+        <v>330589000</v>
       </c>
       <c r="K47" s="3">
         <v>283550000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10965500</v>
+        <v>11049500</v>
       </c>
       <c r="E48" s="3">
-        <v>10555100</v>
+        <v>10636000</v>
       </c>
       <c r="F48" s="3">
-        <v>8928300</v>
+        <v>8996700</v>
       </c>
       <c r="G48" s="3">
-        <v>7165900</v>
+        <v>7220800</v>
       </c>
       <c r="H48" s="3">
-        <v>4944200</v>
+        <v>4982100</v>
       </c>
       <c r="I48" s="3">
-        <v>4416700</v>
+        <v>4450600</v>
       </c>
       <c r="J48" s="3">
-        <v>4169300</v>
+        <v>4201300</v>
       </c>
       <c r="K48" s="3">
         <v>3777000</v>
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>960800</v>
+        <v>968200</v>
       </c>
       <c r="K49" s="3">
         <v>944600</v>
@@ -2134,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="E52" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="F52" s="3">
-        <v>196800</v>
+        <v>198300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>665757000</v>
+        <v>670860000</v>
       </c>
       <c r="E54" s="3">
-        <v>583458000</v>
+        <v>587930000</v>
       </c>
       <c r="F54" s="3">
-        <v>509509000</v>
+        <v>513415000</v>
       </c>
       <c r="G54" s="3">
-        <v>453647000</v>
+        <v>457124000</v>
       </c>
       <c r="H54" s="3">
-        <v>422235000</v>
+        <v>425471000</v>
       </c>
       <c r="I54" s="3">
-        <v>383308000</v>
+        <v>386246000</v>
       </c>
       <c r="J54" s="3">
-        <v>351723000</v>
+        <v>354418000</v>
       </c>
       <c r="K54" s="3">
         <v>301426000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>566650000</v>
+        <v>570994000</v>
       </c>
       <c r="E59" s="3">
-        <v>493739000</v>
+        <v>497524000</v>
       </c>
       <c r="F59" s="3">
-        <v>442307000</v>
+        <v>445698000</v>
       </c>
       <c r="G59" s="3">
-        <v>387473000</v>
+        <v>390443000</v>
       </c>
       <c r="H59" s="3">
-        <v>354500000</v>
+        <v>357217000</v>
       </c>
       <c r="I59" s="3">
-        <v>311011000</v>
+        <v>313395000</v>
       </c>
       <c r="J59" s="3">
-        <v>285960000</v>
+        <v>288151000</v>
       </c>
       <c r="K59" s="3">
         <v>250977000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8957100</v>
+        <v>9025800</v>
       </c>
       <c r="E61" s="3">
-        <v>9100200</v>
+        <v>9170000</v>
       </c>
       <c r="F61" s="3">
-        <v>3154700</v>
+        <v>3178900</v>
       </c>
       <c r="G61" s="3">
-        <v>2942400</v>
+        <v>2964900</v>
       </c>
       <c r="H61" s="3">
-        <v>8480500</v>
+        <v>8545500</v>
       </c>
       <c r="I61" s="3">
-        <v>11058900</v>
+        <v>11143700</v>
       </c>
       <c r="J61" s="3">
-        <v>11055000</v>
+        <v>11139700</v>
       </c>
       <c r="K61" s="3">
         <v>10386700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2393200</v>
+        <v>2411500</v>
       </c>
       <c r="E62" s="3">
-        <v>1617300</v>
+        <v>1629700</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>762600</v>
+        <v>768400</v>
       </c>
       <c r="H62" s="3">
-        <v>1216200</v>
+        <v>1225500</v>
       </c>
       <c r="I62" s="3">
-        <v>2654200</v>
+        <v>2674500</v>
       </c>
       <c r="J62" s="3">
-        <v>3033300</v>
+        <v>3056600</v>
       </c>
       <c r="K62" s="3">
         <v>751500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>595297000</v>
+        <v>599860000</v>
       </c>
       <c r="E66" s="3">
-        <v>520244000</v>
+        <v>524232000</v>
       </c>
       <c r="F66" s="3">
-        <v>459665000</v>
+        <v>463188000</v>
       </c>
       <c r="G66" s="3">
-        <v>403402000</v>
+        <v>406494000</v>
       </c>
       <c r="H66" s="3">
-        <v>374700000</v>
+        <v>377572000</v>
       </c>
       <c r="I66" s="3">
-        <v>332819000</v>
+        <v>335370000</v>
       </c>
       <c r="J66" s="3">
-        <v>307241000</v>
+        <v>309596000</v>
       </c>
       <c r="K66" s="3">
         <v>267764000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49013100</v>
+        <v>49388800</v>
       </c>
       <c r="E72" s="3">
-        <v>44570100</v>
+        <v>44911700</v>
       </c>
       <c r="F72" s="3">
-        <v>36645700</v>
+        <v>36926600</v>
       </c>
       <c r="G72" s="3">
-        <v>36722700</v>
+        <v>37004200</v>
       </c>
       <c r="H72" s="3">
-        <v>32773600</v>
+        <v>33024800</v>
       </c>
       <c r="I72" s="3">
-        <v>31692900</v>
+        <v>31935800</v>
       </c>
       <c r="J72" s="3">
-        <v>28013100</v>
+        <v>28227800</v>
       </c>
       <c r="K72" s="3">
         <v>23586200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70460000</v>
+        <v>71000000</v>
       </c>
       <c r="E76" s="3">
-        <v>63213300</v>
+        <v>63697800</v>
       </c>
       <c r="F76" s="3">
-        <v>49844200</v>
+        <v>50226200</v>
       </c>
       <c r="G76" s="3">
-        <v>50245300</v>
+        <v>50630400</v>
       </c>
       <c r="H76" s="3">
-        <v>47534900</v>
+        <v>47899200</v>
       </c>
       <c r="I76" s="3">
-        <v>50489300</v>
+        <v>50876300</v>
       </c>
       <c r="J76" s="3">
-        <v>44482000</v>
+        <v>44822900</v>
       </c>
       <c r="K76" s="3">
         <v>33662200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7870000</v>
+        <v>7930300</v>
       </c>
       <c r="E81" s="3">
-        <v>9125400</v>
+        <v>9195400</v>
       </c>
       <c r="F81" s="3">
-        <v>1784000</v>
+        <v>1797700</v>
       </c>
       <c r="G81" s="3">
-        <v>5049500</v>
+        <v>5088200</v>
       </c>
       <c r="H81" s="3">
-        <v>2994500</v>
+        <v>3017500</v>
       </c>
       <c r="I81" s="3">
-        <v>5432500</v>
+        <v>5474100</v>
       </c>
       <c r="J81" s="3">
-        <v>5043000</v>
+        <v>5081600</v>
       </c>
       <c r="K81" s="3">
         <v>3783600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>808000</v>
+        <v>814200</v>
       </c>
       <c r="E83" s="3">
-        <v>685600</v>
+        <v>690800</v>
       </c>
       <c r="F83" s="3">
-        <v>413000</v>
+        <v>416200</v>
       </c>
       <c r="G83" s="3">
-        <v>350700</v>
+        <v>353400</v>
       </c>
       <c r="H83" s="3">
-        <v>326100</v>
+        <v>328600</v>
       </c>
       <c r="I83" s="3">
-        <v>318800</v>
+        <v>321200</v>
       </c>
       <c r="J83" s="3">
-        <v>332500</v>
+        <v>335100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47598000</v>
+        <v>47962800</v>
       </c>
       <c r="E89" s="3">
-        <v>44781200</v>
+        <v>45124400</v>
       </c>
       <c r="F89" s="3">
-        <v>23100700</v>
+        <v>23277800</v>
       </c>
       <c r="G89" s="3">
-        <v>31467000</v>
+        <v>31708200</v>
       </c>
       <c r="H89" s="3">
-        <v>13949200</v>
+        <v>14056100</v>
       </c>
       <c r="I89" s="3">
-        <v>-2945100</v>
+        <v>-2967600</v>
       </c>
       <c r="J89" s="3">
-        <v>12250400</v>
+        <v>12344200</v>
       </c>
       <c r="K89" s="3">
         <v>10433700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1169000</v>
+        <v>-1178000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1787100</v>
+        <v>-1800800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3060100</v>
+        <v>-3083600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1506000</v>
+        <v>-1517500</v>
       </c>
       <c r="H91" s="3">
-        <v>-831300</v>
+        <v>-837700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1312600</v>
+        <v>-1322700</v>
       </c>
       <c r="J91" s="3">
-        <v>-790300</v>
+        <v>-796400</v>
       </c>
       <c r="K91" s="3">
         <v>-569000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45840300</v>
+        <v>-46191700</v>
       </c>
       <c r="E94" s="3">
-        <v>-38750900</v>
+        <v>-39048000</v>
       </c>
       <c r="F94" s="3">
-        <v>-37319700</v>
+        <v>-37605700</v>
       </c>
       <c r="G94" s="3">
-        <v>-27190700</v>
+        <v>-27399100</v>
       </c>
       <c r="H94" s="3">
-        <v>-16392300</v>
+        <v>-16517900</v>
       </c>
       <c r="I94" s="3">
-        <v>10496900</v>
+        <v>10577300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10842900</v>
+        <v>-10926000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3261800</v>
+        <v>-3286800</v>
       </c>
       <c r="E96" s="3">
-        <v>-769600</v>
+        <v>-775500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1830200</v>
+        <v>-1844200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1121600</v>
+        <v>-1130200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1919000</v>
+        <v>-1933700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1799000</v>
+        <v>-1812800</v>
       </c>
       <c r="J96" s="3">
-        <v>-2050500</v>
+        <v>-2066200</v>
       </c>
       <c r="K96" s="3">
         <v>-1228400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1214900</v>
+        <v>-1224200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5647900</v>
+        <v>-5691200</v>
       </c>
       <c r="F100" s="3">
-        <v>14554300</v>
+        <v>14665800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7138400</v>
+        <v>-7193100</v>
       </c>
       <c r="H100" s="3">
-        <v>981600</v>
+        <v>989200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3039600</v>
+        <v>-3062900</v>
       </c>
       <c r="J100" s="3">
-        <v>2615200</v>
+        <v>2635200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="G101" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="H101" s="3">
-        <v>44600</v>
+        <v>45000</v>
       </c>
       <c r="I101" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="J101" s="3">
         <v>1600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>520200</v>
+        <v>524200</v>
       </c>
       <c r="E102" s="3">
-        <v>390900</v>
+        <v>393900</v>
       </c>
       <c r="F102" s="3">
-        <v>348000</v>
+        <v>350700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2890100</v>
+        <v>-2912200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1416900</v>
+        <v>-1427700</v>
       </c>
       <c r="I102" s="3">
-        <v>4549900</v>
+        <v>4584800</v>
       </c>
       <c r="J102" s="3">
-        <v>4024200</v>
+        <v>4055100</v>
       </c>
       <c r="K102" s="3">
         <v>-7352100</v>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>128825200</v>
+        <v>124909900</v>
       </c>
       <c r="E8" s="3">
-        <v>116089400</v>
+        <v>120345700</v>
       </c>
       <c r="F8" s="3">
-        <v>100276000</v>
+        <v>108436500</v>
       </c>
       <c r="G8" s="3">
-        <v>101930600</v>
+        <v>93665600</v>
       </c>
       <c r="H8" s="3">
-        <v>85732600</v>
+        <v>95211100</v>
       </c>
       <c r="I8" s="3">
-        <v>80105800</v>
+        <v>80080900</v>
       </c>
       <c r="J8" s="3">
+        <v>74825000</v>
+      </c>
+      <c r="K8" s="3">
         <v>69716500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64425200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53300700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55045100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>106486300</v>
+        <v>102433800</v>
       </c>
       <c r="E9" s="3">
-        <v>94659200</v>
+        <v>99469200</v>
       </c>
       <c r="F9" s="3">
-        <v>86966100</v>
+        <v>88418900</v>
       </c>
       <c r="G9" s="3">
-        <v>85018100</v>
+        <v>81233100</v>
       </c>
       <c r="H9" s="3">
-        <v>73261100</v>
+        <v>79413500</v>
       </c>
       <c r="I9" s="3">
-        <v>61534600</v>
+        <v>68431500</v>
       </c>
       <c r="J9" s="3">
+        <v>57478100</v>
+      </c>
+      <c r="K9" s="3">
         <v>54332400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51914000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47398300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47518200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22339000</v>
+        <v>22476100</v>
       </c>
       <c r="E10" s="3">
-        <v>21430300</v>
+        <v>20876500</v>
       </c>
       <c r="F10" s="3">
-        <v>13309900</v>
+        <v>20017500</v>
       </c>
       <c r="G10" s="3">
-        <v>16912500</v>
+        <v>12432500</v>
       </c>
       <c r="H10" s="3">
-        <v>12471600</v>
+        <v>15797600</v>
       </c>
       <c r="I10" s="3">
-        <v>18571200</v>
+        <v>11649400</v>
       </c>
       <c r="J10" s="3">
+        <v>17346900</v>
+      </c>
+      <c r="K10" s="3">
         <v>15384100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12511200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5902300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7526900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1834600</v>
+        <v>3348200</v>
       </c>
       <c r="E14" s="3">
-        <v>1007600</v>
+        <v>1713600</v>
       </c>
       <c r="F14" s="3">
-        <v>1294400</v>
+        <v>941200</v>
       </c>
       <c r="G14" s="3">
-        <v>434900</v>
+        <v>1209100</v>
       </c>
       <c r="H14" s="3">
-        <v>419000</v>
+        <v>406300</v>
       </c>
       <c r="I14" s="3">
-        <v>50600</v>
+        <v>391400</v>
       </c>
       <c r="J14" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K14" s="3">
         <v>181300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>581000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>121438600</v>
+        <v>118990800</v>
       </c>
       <c r="E17" s="3">
-        <v>107920000</v>
+        <v>113447700</v>
       </c>
       <c r="F17" s="3">
-        <v>99301700</v>
+        <v>100805600</v>
       </c>
       <c r="G17" s="3">
-        <v>96483500</v>
+        <v>92755500</v>
       </c>
       <c r="H17" s="3">
-        <v>82895000</v>
+        <v>90123000</v>
       </c>
       <c r="I17" s="3">
-        <v>73171100</v>
+        <v>77430300</v>
       </c>
       <c r="J17" s="3">
+        <v>68347500</v>
+      </c>
+      <c r="K17" s="3">
         <v>63214100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59787100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51793300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52199700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7386600</v>
+        <v>5919000</v>
       </c>
       <c r="E18" s="3">
-        <v>8169400</v>
+        <v>6897900</v>
       </c>
       <c r="F18" s="3">
-        <v>974300</v>
+        <v>7630900</v>
       </c>
       <c r="G18" s="3">
-        <v>5447100</v>
+        <v>910100</v>
       </c>
       <c r="H18" s="3">
-        <v>2837600</v>
+        <v>5088000</v>
       </c>
       <c r="I18" s="3">
-        <v>6934700</v>
+        <v>2650600</v>
       </c>
       <c r="J18" s="3">
+        <v>6477500</v>
+      </c>
+      <c r="K18" s="3">
         <v>6502400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4638100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1507400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2845500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1209400</v>
+        <v>1521900</v>
       </c>
       <c r="E20" s="3">
-        <v>1263800</v>
+        <v>1129700</v>
       </c>
       <c r="F20" s="3">
-        <v>1221900</v>
+        <v>1180500</v>
       </c>
       <c r="G20" s="3">
-        <v>1126900</v>
+        <v>1141300</v>
       </c>
       <c r="H20" s="3">
-        <v>923700</v>
+        <v>1052600</v>
       </c>
       <c r="I20" s="3">
-        <v>311400</v>
+        <v>862800</v>
       </c>
       <c r="J20" s="3">
+        <v>290900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-128600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>477400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>435700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>328400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9413000</v>
+        <v>8227900</v>
       </c>
       <c r="E21" s="3">
-        <v>10126400</v>
+        <v>8795900</v>
       </c>
       <c r="F21" s="3">
-        <v>2613700</v>
+        <v>9463200</v>
       </c>
       <c r="G21" s="3">
-        <v>6928600</v>
+        <v>2444000</v>
       </c>
       <c r="H21" s="3">
-        <v>4091000</v>
+        <v>6474000</v>
       </c>
       <c r="I21" s="3">
-        <v>7568400</v>
+        <v>3823400</v>
       </c>
       <c r="J21" s="3">
+        <v>7071400</v>
+      </c>
+      <c r="K21" s="3">
         <v>6710000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2222700</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>616000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>369500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>129600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8596000</v>
+        <v>7440900</v>
       </c>
       <c r="E23" s="3">
-        <v>9433300</v>
+        <v>8027600</v>
       </c>
       <c r="F23" s="3">
-        <v>2196200</v>
+        <v>8811400</v>
       </c>
       <c r="G23" s="3">
-        <v>6574000</v>
+        <v>2051400</v>
       </c>
       <c r="H23" s="3">
-        <v>3761300</v>
+        <v>6140600</v>
       </c>
       <c r="I23" s="3">
-        <v>7246100</v>
+        <v>3513400</v>
       </c>
       <c r="J23" s="3">
+        <v>6768400</v>
+      </c>
+      <c r="K23" s="3">
         <v>6373800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4499500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1573700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3044300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>489500</v>
+        <v>-282500</v>
       </c>
       <c r="E24" s="3">
-        <v>123200</v>
+        <v>457300</v>
       </c>
       <c r="F24" s="3">
-        <v>313200</v>
+        <v>115100</v>
       </c>
       <c r="G24" s="3">
-        <v>1407100</v>
+        <v>292500</v>
       </c>
       <c r="H24" s="3">
-        <v>671600</v>
+        <v>1314300</v>
       </c>
       <c r="I24" s="3">
-        <v>1695000</v>
+        <v>627300</v>
       </c>
       <c r="J24" s="3">
+        <v>1583200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1244400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>678800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-43600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8106500</v>
+        <v>7723400</v>
       </c>
       <c r="E26" s="3">
-        <v>9310000</v>
+        <v>7570300</v>
       </c>
       <c r="F26" s="3">
-        <v>1883000</v>
+        <v>8696300</v>
       </c>
       <c r="G26" s="3">
-        <v>5167000</v>
+        <v>1758900</v>
       </c>
       <c r="H26" s="3">
-        <v>3089700</v>
+        <v>4826300</v>
       </c>
       <c r="I26" s="3">
-        <v>5551100</v>
+        <v>2886000</v>
       </c>
       <c r="J26" s="3">
+        <v>5185200</v>
+      </c>
+      <c r="K26" s="3">
         <v>5129400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3820700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1617300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2744200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7930300</v>
+        <v>7503700</v>
       </c>
       <c r="E27" s="3">
-        <v>9195400</v>
+        <v>7405900</v>
       </c>
       <c r="F27" s="3">
-        <v>1797700</v>
+        <v>8589200</v>
       </c>
       <c r="G27" s="3">
-        <v>5088200</v>
+        <v>1679200</v>
       </c>
       <c r="H27" s="3">
-        <v>3017500</v>
+        <v>4752800</v>
       </c>
       <c r="I27" s="3">
-        <v>5474100</v>
+        <v>2818600</v>
       </c>
       <c r="J27" s="3">
+        <v>5113200</v>
+      </c>
+      <c r="K27" s="3">
         <v>5081600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3783600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1587000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2720500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1209400</v>
+        <v>-1521900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1263800</v>
+        <v>-1129700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1221900</v>
+        <v>-1180500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1126900</v>
+        <v>-1141300</v>
       </c>
       <c r="H32" s="3">
-        <v>-923700</v>
+        <v>-1052600</v>
       </c>
       <c r="I32" s="3">
-        <v>-311400</v>
+        <v>-862800</v>
       </c>
       <c r="J32" s="3">
+        <v>-290900</v>
+      </c>
+      <c r="K32" s="3">
         <v>128600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-477400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-435700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-328400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7930300</v>
+        <v>7503700</v>
       </c>
       <c r="E33" s="3">
-        <v>9195400</v>
+        <v>7405900</v>
       </c>
       <c r="F33" s="3">
-        <v>1797700</v>
+        <v>8589200</v>
       </c>
       <c r="G33" s="3">
-        <v>5088200</v>
+        <v>1679200</v>
       </c>
       <c r="H33" s="3">
-        <v>3017500</v>
+        <v>4752800</v>
       </c>
       <c r="I33" s="3">
-        <v>5474100</v>
+        <v>2818600</v>
       </c>
       <c r="J33" s="3">
+        <v>5113200</v>
+      </c>
+      <c r="K33" s="3">
         <v>5081600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3783600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1587000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2720500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7930300</v>
+        <v>7503700</v>
       </c>
       <c r="E35" s="3">
-        <v>9195400</v>
+        <v>7405900</v>
       </c>
       <c r="F35" s="3">
-        <v>1797700</v>
+        <v>8589200</v>
       </c>
       <c r="G35" s="3">
-        <v>5088200</v>
+        <v>1679200</v>
       </c>
       <c r="H35" s="3">
-        <v>3017500</v>
+        <v>4752800</v>
       </c>
       <c r="I35" s="3">
-        <v>5474100</v>
+        <v>2818600</v>
       </c>
       <c r="J35" s="3">
+        <v>5113200</v>
+      </c>
+      <c r="K35" s="3">
         <v>5081600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3783600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1587000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2720500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8915000</v>
+        <v>8906400</v>
       </c>
       <c r="E41" s="3">
-        <v>8329700</v>
+        <v>16676000</v>
       </c>
       <c r="F41" s="3">
-        <v>8012900</v>
+        <v>7780600</v>
       </c>
       <c r="G41" s="3">
-        <v>7484800</v>
+        <v>7484700</v>
       </c>
       <c r="H41" s="3">
-        <v>10154100</v>
+        <v>6991300</v>
       </c>
       <c r="I41" s="3">
-        <v>11695500</v>
+        <v>9484700</v>
       </c>
       <c r="J41" s="3">
+        <v>10924500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7420100</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9964400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7717500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,45 +1892,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3270400</v>
+        <v>3000400</v>
       </c>
       <c r="E43" s="3">
-        <v>2726300</v>
+        <v>3054800</v>
       </c>
       <c r="F43" s="3">
-        <v>2468600</v>
+        <v>2546500</v>
       </c>
       <c r="G43" s="3">
-        <v>2227700</v>
+        <v>2305900</v>
       </c>
       <c r="H43" s="3">
-        <v>2117300</v>
+        <v>2080900</v>
       </c>
       <c r="I43" s="3">
-        <v>1879400</v>
+        <v>1977700</v>
       </c>
       <c r="J43" s="3">
+        <v>1755500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2516900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1592700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1253700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1224800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,32 +1970,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29500</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>133600</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>79500</v>
+        <v>124800</v>
       </c>
       <c r="G45" s="3">
-        <v>63600</v>
+        <v>74300</v>
       </c>
       <c r="H45" s="3">
-        <v>1036600</v>
+        <v>59400</v>
       </c>
       <c r="I45" s="3">
-        <v>1000400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>968300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>934400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>634857000</v>
+        <v>685244000</v>
       </c>
       <c r="E47" s="3">
-        <v>553462000</v>
+        <v>593008000</v>
       </c>
       <c r="F47" s="3">
-        <v>481171000</v>
+        <v>516976000</v>
       </c>
       <c r="G47" s="3">
-        <v>428442000</v>
+        <v>449451000</v>
       </c>
       <c r="H47" s="3">
-        <v>395328000</v>
+        <v>400198000</v>
       </c>
       <c r="I47" s="3">
-        <v>356787000</v>
+        <v>369267000</v>
       </c>
       <c r="J47" s="3">
+        <v>333266000</v>
+      </c>
+      <c r="K47" s="3">
         <v>330589000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>283550000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>250262000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>216866000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11049500</v>
+        <v>10357900</v>
       </c>
       <c r="E48" s="3">
-        <v>10636000</v>
+        <v>10774400</v>
       </c>
       <c r="F48" s="3">
-        <v>8996700</v>
+        <v>9934900</v>
       </c>
       <c r="G48" s="3">
-        <v>7220800</v>
+        <v>8403600</v>
       </c>
       <c r="H48" s="3">
-        <v>4982100</v>
+        <v>6744800</v>
       </c>
       <c r="I48" s="3">
-        <v>4450600</v>
+        <v>4653600</v>
       </c>
       <c r="J48" s="3">
+        <v>4157200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4201300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3777000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3204600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3002500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>968200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>944600</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,23 +2243,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13700</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
-        <v>20200</v>
+        <v>12800</v>
       </c>
       <c r="F52" s="3">
-        <v>198300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+        <v>18900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>185200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2154,18 +2273,21 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>3061100</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>670860000</v>
+        <v>720750000</v>
       </c>
       <c r="E54" s="3">
-        <v>587930000</v>
+        <v>626643000</v>
       </c>
       <c r="F54" s="3">
-        <v>513415000</v>
+        <v>549172000</v>
       </c>
       <c r="G54" s="3">
-        <v>457124000</v>
+        <v>479569000</v>
       </c>
       <c r="H54" s="3">
-        <v>425471000</v>
+        <v>426989000</v>
       </c>
       <c r="I54" s="3">
-        <v>386246000</v>
+        <v>397423000</v>
       </c>
       <c r="J54" s="3">
+        <v>360784000</v>
+      </c>
+      <c r="K54" s="3">
         <v>354418000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>301426000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>272457000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235068000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>570994000</v>
+        <v>623229000</v>
       </c>
       <c r="E59" s="3">
-        <v>497524000</v>
+        <v>533353000</v>
       </c>
       <c r="F59" s="3">
-        <v>445698000</v>
+        <v>464725000</v>
       </c>
       <c r="G59" s="3">
-        <v>390443000</v>
+        <v>416316000</v>
       </c>
       <c r="H59" s="3">
-        <v>357217000</v>
+        <v>364704000</v>
       </c>
       <c r="I59" s="3">
-        <v>313395000</v>
+        <v>333668000</v>
       </c>
       <c r="J59" s="3">
+        <v>292735000</v>
+      </c>
+      <c r="K59" s="3">
         <v>288151000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>250977000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27699500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21459800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9025800</v>
+        <v>8231800</v>
       </c>
       <c r="E61" s="3">
-        <v>9170000</v>
+        <v>8430800</v>
       </c>
       <c r="F61" s="3">
-        <v>3178900</v>
+        <v>8565400</v>
       </c>
       <c r="G61" s="3">
-        <v>2964900</v>
+        <v>2969300</v>
       </c>
       <c r="H61" s="3">
-        <v>8545500</v>
+        <v>2769500</v>
       </c>
       <c r="I61" s="3">
-        <v>11143700</v>
+        <v>7982200</v>
       </c>
       <c r="J61" s="3">
+        <v>10409100</v>
+      </c>
+      <c r="K61" s="3">
         <v>11139700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10386700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2411500</v>
+        <v>1102400</v>
       </c>
       <c r="E62" s="3">
-        <v>1629700</v>
+        <v>2252500</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1522200</v>
       </c>
       <c r="G62" s="3">
-        <v>768400</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>1225500</v>
+        <v>717800</v>
       </c>
       <c r="I62" s="3">
-        <v>2674500</v>
+        <v>1144700</v>
       </c>
       <c r="J62" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3056600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>751500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1124000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>215800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>599860000</v>
+        <v>650226000</v>
       </c>
       <c r="E66" s="3">
-        <v>524232000</v>
+        <v>560323000</v>
       </c>
       <c r="F66" s="3">
-        <v>463188000</v>
+        <v>489673000</v>
       </c>
       <c r="G66" s="3">
-        <v>406494000</v>
+        <v>432654000</v>
       </c>
       <c r="H66" s="3">
-        <v>377572000</v>
+        <v>379696000</v>
       </c>
       <c r="I66" s="3">
-        <v>335370000</v>
+        <v>352681000</v>
       </c>
       <c r="J66" s="3">
+        <v>313261000</v>
+      </c>
+      <c r="K66" s="3">
         <v>309596000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267764000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>240735000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206643000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49388800</v>
+        <v>51003500</v>
       </c>
       <c r="E72" s="3">
-        <v>44911700</v>
+        <v>46127100</v>
       </c>
       <c r="F72" s="3">
-        <v>36926600</v>
+        <v>41951000</v>
       </c>
       <c r="G72" s="3">
-        <v>37004200</v>
+        <v>34492300</v>
       </c>
       <c r="H72" s="3">
-        <v>33024800</v>
+        <v>34564800</v>
       </c>
       <c r="I72" s="3">
-        <v>31935800</v>
+        <v>30847800</v>
       </c>
       <c r="J72" s="3">
+        <v>29830500</v>
+      </c>
+      <c r="K72" s="3">
         <v>28227800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23586200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19164900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19146700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71000000</v>
+        <v>70524300</v>
       </c>
       <c r="E76" s="3">
-        <v>63697800</v>
+        <v>66320300</v>
       </c>
       <c r="F76" s="3">
-        <v>50226200</v>
+        <v>59498700</v>
       </c>
       <c r="G76" s="3">
-        <v>50630400</v>
+        <v>46915200</v>
       </c>
       <c r="H76" s="3">
-        <v>47899200</v>
+        <v>47292700</v>
       </c>
       <c r="I76" s="3">
-        <v>50876300</v>
+        <v>44741600</v>
       </c>
       <c r="J76" s="3">
+        <v>47522400</v>
+      </c>
+      <c r="K76" s="3">
         <v>44822900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33662200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31721300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28425000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7930300</v>
+        <v>7503700</v>
       </c>
       <c r="E81" s="3">
-        <v>9195400</v>
+        <v>7405900</v>
       </c>
       <c r="F81" s="3">
-        <v>1797700</v>
+        <v>8589200</v>
       </c>
       <c r="G81" s="3">
-        <v>5088200</v>
+        <v>1679200</v>
       </c>
       <c r="H81" s="3">
-        <v>3017500</v>
+        <v>4752800</v>
       </c>
       <c r="I81" s="3">
-        <v>5474100</v>
+        <v>2818600</v>
       </c>
       <c r="J81" s="3">
+        <v>5113200</v>
+      </c>
+      <c r="K81" s="3">
         <v>5081600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3783600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1587000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2720500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>814200</v>
+        <v>779100</v>
       </c>
       <c r="E83" s="3">
-        <v>690800</v>
+        <v>760700</v>
       </c>
       <c r="F83" s="3">
-        <v>416200</v>
+        <v>645300</v>
       </c>
       <c r="G83" s="3">
-        <v>353400</v>
+        <v>388700</v>
       </c>
       <c r="H83" s="3">
-        <v>328600</v>
+        <v>330100</v>
       </c>
       <c r="I83" s="3">
-        <v>321200</v>
+        <v>307000</v>
       </c>
       <c r="J83" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K83" s="3">
         <v>335100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>279600</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47962800</v>
+        <v>42211000</v>
       </c>
       <c r="E89" s="3">
-        <v>45124400</v>
+        <v>44800200</v>
       </c>
       <c r="F89" s="3">
-        <v>23277800</v>
+        <v>42149700</v>
       </c>
       <c r="G89" s="3">
-        <v>31708200</v>
+        <v>21743300</v>
       </c>
       <c r="H89" s="3">
-        <v>14056100</v>
+        <v>29617900</v>
       </c>
       <c r="I89" s="3">
-        <v>-2967600</v>
+        <v>13129500</v>
       </c>
       <c r="J89" s="3">
+        <v>-2772000</v>
+      </c>
+      <c r="K89" s="3">
         <v>12344200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10433700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18965500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19880000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1178000</v>
+        <v>-806800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1800800</v>
+        <v>-1100600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3083600</v>
+        <v>-1682100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1517500</v>
+        <v>-2880300</v>
       </c>
       <c r="H91" s="3">
-        <v>-837700</v>
+        <v>-1417500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1322700</v>
+        <v>-782500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1235500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-796400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-569000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-951600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-995500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46191700</v>
+        <v>-58020200</v>
       </c>
       <c r="E94" s="3">
-        <v>-39048000</v>
+        <v>-43146900</v>
       </c>
       <c r="F94" s="3">
-        <v>-37605700</v>
+        <v>-36473800</v>
       </c>
       <c r="G94" s="3">
-        <v>-27399100</v>
+        <v>-35126600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16517900</v>
+        <v>-25592900</v>
       </c>
       <c r="I94" s="3">
-        <v>10577300</v>
+        <v>-15429000</v>
       </c>
       <c r="J94" s="3">
+        <v>9880000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10926000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29241800</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3286800</v>
+        <v>-2665600</v>
       </c>
       <c r="E96" s="3">
-        <v>-775500</v>
+        <v>-3070100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1844200</v>
+        <v>-724400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1130200</v>
+        <v>-1722600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1933700</v>
+        <v>-1055700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1812800</v>
+        <v>-1806200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1693300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2066200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1228400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1195600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1762500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1224200</v>
+        <v>16377400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5691200</v>
+        <v>-1143500</v>
       </c>
       <c r="F100" s="3">
-        <v>14665800</v>
+        <v>-5316000</v>
       </c>
       <c r="G100" s="3">
-        <v>-7193100</v>
+        <v>13699000</v>
       </c>
       <c r="H100" s="3">
-        <v>989200</v>
+        <v>-6718900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3062900</v>
+        <v>923900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2861000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2635200</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12208600</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22700</v>
+        <v>-10500</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>-21200</v>
       </c>
       <c r="F101" s="3">
-        <v>12800</v>
+        <v>8100</v>
       </c>
       <c r="G101" s="3">
-        <v>-28200</v>
+        <v>11900</v>
       </c>
       <c r="H101" s="3">
-        <v>45000</v>
+        <v>-26400</v>
       </c>
       <c r="I101" s="3">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="J101" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>524200</v>
+        <v>557800</v>
       </c>
       <c r="E102" s="3">
-        <v>393900</v>
+        <v>488600</v>
       </c>
       <c r="F102" s="3">
-        <v>350700</v>
+        <v>368000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2912200</v>
+        <v>327600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1427700</v>
+        <v>-2720300</v>
       </c>
       <c r="I102" s="3">
-        <v>4584800</v>
+        <v>-1333600</v>
       </c>
       <c r="J102" s="3">
+        <v>4282600</v>
+      </c>
+      <c r="K102" s="3">
         <v>4055100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7352100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1932200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1206700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>124909900</v>
+        <v>123782500</v>
       </c>
       <c r="E8" s="3">
-        <v>120345700</v>
+        <v>119259500</v>
       </c>
       <c r="F8" s="3">
-        <v>108436500</v>
+        <v>107457800</v>
       </c>
       <c r="G8" s="3">
-        <v>93665600</v>
+        <v>92820200</v>
       </c>
       <c r="H8" s="3">
-        <v>95211100</v>
+        <v>94351700</v>
       </c>
       <c r="I8" s="3">
-        <v>80080900</v>
+        <v>79358100</v>
       </c>
       <c r="J8" s="3">
-        <v>74825000</v>
+        <v>74149700</v>
       </c>
       <c r="K8" s="3">
         <v>69716500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>102433800</v>
+        <v>101509200</v>
       </c>
       <c r="E9" s="3">
-        <v>99469200</v>
+        <v>98571400</v>
       </c>
       <c r="F9" s="3">
-        <v>88418900</v>
+        <v>87620900</v>
       </c>
       <c r="G9" s="3">
-        <v>81233100</v>
+        <v>80499900</v>
       </c>
       <c r="H9" s="3">
-        <v>79413500</v>
+        <v>78696700</v>
       </c>
       <c r="I9" s="3">
-        <v>68431500</v>
+        <v>67813800</v>
       </c>
       <c r="J9" s="3">
-        <v>57478100</v>
+        <v>56959300</v>
       </c>
       <c r="K9" s="3">
         <v>54332400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22476100</v>
+        <v>22273200</v>
       </c>
       <c r="E10" s="3">
-        <v>20876500</v>
+        <v>20688100</v>
       </c>
       <c r="F10" s="3">
-        <v>20017500</v>
+        <v>19836900</v>
       </c>
       <c r="G10" s="3">
-        <v>12432500</v>
+        <v>12320300</v>
       </c>
       <c r="H10" s="3">
-        <v>15797600</v>
+        <v>15655000</v>
       </c>
       <c r="I10" s="3">
-        <v>11649400</v>
+        <v>11544300</v>
       </c>
       <c r="J10" s="3">
-        <v>17346900</v>
+        <v>17190400</v>
       </c>
       <c r="K10" s="3">
         <v>15384100</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3348200</v>
+        <v>3317900</v>
       </c>
       <c r="E14" s="3">
-        <v>1713600</v>
+        <v>1698200</v>
       </c>
       <c r="F14" s="3">
-        <v>941200</v>
+        <v>932700</v>
       </c>
       <c r="G14" s="3">
-        <v>1209100</v>
+        <v>1198200</v>
       </c>
       <c r="H14" s="3">
-        <v>406300</v>
+        <v>402600</v>
       </c>
       <c r="I14" s="3">
-        <v>391400</v>
+        <v>387900</v>
       </c>
       <c r="J14" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="K14" s="3">
         <v>181300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>118990800</v>
+        <v>117916900</v>
       </c>
       <c r="E17" s="3">
-        <v>113447700</v>
+        <v>112423800</v>
       </c>
       <c r="F17" s="3">
-        <v>100805600</v>
+        <v>99895800</v>
       </c>
       <c r="G17" s="3">
-        <v>92755500</v>
+        <v>91918300</v>
       </c>
       <c r="H17" s="3">
-        <v>90123000</v>
+        <v>89309600</v>
       </c>
       <c r="I17" s="3">
-        <v>77430300</v>
+        <v>76731500</v>
       </c>
       <c r="J17" s="3">
-        <v>68347500</v>
+        <v>67730600</v>
       </c>
       <c r="K17" s="3">
         <v>63214100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5919000</v>
+        <v>5865600</v>
       </c>
       <c r="E18" s="3">
-        <v>6897900</v>
+        <v>6835700</v>
       </c>
       <c r="F18" s="3">
-        <v>7630900</v>
+        <v>7562000</v>
       </c>
       <c r="G18" s="3">
-        <v>910100</v>
+        <v>901900</v>
       </c>
       <c r="H18" s="3">
-        <v>5088000</v>
+        <v>5042100</v>
       </c>
       <c r="I18" s="3">
-        <v>2650600</v>
+        <v>2626600</v>
       </c>
       <c r="J18" s="3">
-        <v>6477500</v>
+        <v>6419000</v>
       </c>
       <c r="K18" s="3">
         <v>6502400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1521900</v>
+        <v>1508200</v>
       </c>
       <c r="E20" s="3">
-        <v>1129700</v>
+        <v>1119500</v>
       </c>
       <c r="F20" s="3">
-        <v>1180500</v>
+        <v>1169800</v>
       </c>
       <c r="G20" s="3">
-        <v>1141300</v>
+        <v>1131000</v>
       </c>
       <c r="H20" s="3">
-        <v>1052600</v>
+        <v>1043100</v>
       </c>
       <c r="I20" s="3">
-        <v>862800</v>
+        <v>855000</v>
       </c>
       <c r="J20" s="3">
-        <v>290900</v>
+        <v>288300</v>
       </c>
       <c r="K20" s="3">
         <v>-128600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8227900</v>
+        <v>8144700</v>
       </c>
       <c r="E21" s="3">
-        <v>8795900</v>
+        <v>8707800</v>
       </c>
       <c r="F21" s="3">
-        <v>9463200</v>
+        <v>9370400</v>
       </c>
       <c r="G21" s="3">
-        <v>2444000</v>
+        <v>2417500</v>
       </c>
       <c r="H21" s="3">
-        <v>6474000</v>
+        <v>6411800</v>
       </c>
       <c r="I21" s="3">
-        <v>3823400</v>
+        <v>3785400</v>
       </c>
       <c r="J21" s="3">
-        <v>7071400</v>
+        <v>7004200</v>
       </c>
       <c r="K21" s="3">
         <v>6710000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7440900</v>
+        <v>7373800</v>
       </c>
       <c r="E23" s="3">
-        <v>8027600</v>
+        <v>7955100</v>
       </c>
       <c r="F23" s="3">
-        <v>8811400</v>
+        <v>8731900</v>
       </c>
       <c r="G23" s="3">
-        <v>2051400</v>
+        <v>2032900</v>
       </c>
       <c r="H23" s="3">
-        <v>6140600</v>
+        <v>6085200</v>
       </c>
       <c r="I23" s="3">
-        <v>3513400</v>
+        <v>3481600</v>
       </c>
       <c r="J23" s="3">
-        <v>6768400</v>
+        <v>6707300</v>
       </c>
       <c r="K23" s="3">
         <v>6373800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-282500</v>
+        <v>-279900</v>
       </c>
       <c r="E24" s="3">
-        <v>457300</v>
+        <v>453100</v>
       </c>
       <c r="F24" s="3">
-        <v>115100</v>
+        <v>114000</v>
       </c>
       <c r="G24" s="3">
-        <v>292500</v>
+        <v>289900</v>
       </c>
       <c r="H24" s="3">
-        <v>1314300</v>
+        <v>1302400</v>
       </c>
       <c r="I24" s="3">
-        <v>627300</v>
+        <v>621600</v>
       </c>
       <c r="J24" s="3">
-        <v>1583200</v>
+        <v>1568900</v>
       </c>
       <c r="K24" s="3">
         <v>1244400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7723400</v>
+        <v>7653700</v>
       </c>
       <c r="E26" s="3">
-        <v>7570300</v>
+        <v>7502000</v>
       </c>
       <c r="F26" s="3">
-        <v>8696300</v>
+        <v>8617800</v>
       </c>
       <c r="G26" s="3">
-        <v>1758900</v>
+        <v>1743000</v>
       </c>
       <c r="H26" s="3">
-        <v>4826300</v>
+        <v>4782800</v>
       </c>
       <c r="I26" s="3">
-        <v>2886000</v>
+        <v>2860000</v>
       </c>
       <c r="J26" s="3">
-        <v>5185200</v>
+        <v>5138400</v>
       </c>
       <c r="K26" s="3">
         <v>5129400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7503700</v>
+        <v>7436000</v>
       </c>
       <c r="E27" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="F27" s="3">
-        <v>8589200</v>
+        <v>8511700</v>
       </c>
       <c r="G27" s="3">
-        <v>1679200</v>
+        <v>1664000</v>
       </c>
       <c r="H27" s="3">
-        <v>4752800</v>
+        <v>4709900</v>
       </c>
       <c r="I27" s="3">
-        <v>2818600</v>
+        <v>2793100</v>
       </c>
       <c r="J27" s="3">
-        <v>5113200</v>
+        <v>5067100</v>
       </c>
       <c r="K27" s="3">
         <v>5081600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1521900</v>
+        <v>-1508200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1129700</v>
+        <v>-1119500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1180500</v>
+        <v>-1169800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1141300</v>
+        <v>-1131000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1052600</v>
+        <v>-1043100</v>
       </c>
       <c r="I32" s="3">
-        <v>-862800</v>
+        <v>-855000</v>
       </c>
       <c r="J32" s="3">
-        <v>-290900</v>
+        <v>-288300</v>
       </c>
       <c r="K32" s="3">
         <v>128600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7503700</v>
+        <v>7436000</v>
       </c>
       <c r="E33" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="F33" s="3">
-        <v>8589200</v>
+        <v>8511700</v>
       </c>
       <c r="G33" s="3">
-        <v>1679200</v>
+        <v>1664000</v>
       </c>
       <c r="H33" s="3">
-        <v>4752800</v>
+        <v>4709900</v>
       </c>
       <c r="I33" s="3">
-        <v>2818600</v>
+        <v>2793100</v>
       </c>
       <c r="J33" s="3">
-        <v>5113200</v>
+        <v>5067100</v>
       </c>
       <c r="K33" s="3">
         <v>5081600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7503700</v>
+        <v>7436000</v>
       </c>
       <c r="E35" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="F35" s="3">
-        <v>8589200</v>
+        <v>8511700</v>
       </c>
       <c r="G35" s="3">
-        <v>1679200</v>
+        <v>1664000</v>
       </c>
       <c r="H35" s="3">
-        <v>4752800</v>
+        <v>4709900</v>
       </c>
       <c r="I35" s="3">
-        <v>2818600</v>
+        <v>2793100</v>
       </c>
       <c r="J35" s="3">
-        <v>5113200</v>
+        <v>5067100</v>
       </c>
       <c r="K35" s="3">
         <v>5081600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8906400</v>
+        <v>8826100</v>
       </c>
       <c r="E41" s="3">
-        <v>16676000</v>
+        <v>16525500</v>
       </c>
       <c r="F41" s="3">
-        <v>7780600</v>
+        <v>7710400</v>
       </c>
       <c r="G41" s="3">
-        <v>7484700</v>
+        <v>7417200</v>
       </c>
       <c r="H41" s="3">
-        <v>6991300</v>
+        <v>6928200</v>
       </c>
       <c r="I41" s="3">
-        <v>9484700</v>
+        <v>9399100</v>
       </c>
       <c r="J41" s="3">
-        <v>10924500</v>
+        <v>10825900</v>
       </c>
       <c r="K41" s="3">
         <v>7420100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3000400</v>
+        <v>2973300</v>
       </c>
       <c r="E43" s="3">
-        <v>3054800</v>
+        <v>3027200</v>
       </c>
       <c r="F43" s="3">
-        <v>2546500</v>
+        <v>2523500</v>
       </c>
       <c r="G43" s="3">
-        <v>2305900</v>
+        <v>2285100</v>
       </c>
       <c r="H43" s="3">
-        <v>2080900</v>
+        <v>2062100</v>
       </c>
       <c r="I43" s="3">
-        <v>1977700</v>
+        <v>1959900</v>
       </c>
       <c r="J43" s="3">
-        <v>1755500</v>
+        <v>1739700</v>
       </c>
       <c r="K43" s="3">
         <v>2516900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="F45" s="3">
-        <v>124800</v>
+        <v>123700</v>
       </c>
       <c r="G45" s="3">
-        <v>74300</v>
+        <v>73600</v>
       </c>
       <c r="H45" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="I45" s="3">
-        <v>968300</v>
+        <v>959600</v>
       </c>
       <c r="J45" s="3">
-        <v>934400</v>
+        <v>926000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>685244000</v>
+        <v>679060000</v>
       </c>
       <c r="E47" s="3">
-        <v>593008000</v>
+        <v>587656000</v>
       </c>
       <c r="F47" s="3">
-        <v>516976000</v>
+        <v>512310000</v>
       </c>
       <c r="G47" s="3">
-        <v>449451000</v>
+        <v>445395000</v>
       </c>
       <c r="H47" s="3">
-        <v>400198000</v>
+        <v>396586000</v>
       </c>
       <c r="I47" s="3">
-        <v>369267000</v>
+        <v>365934000</v>
       </c>
       <c r="J47" s="3">
-        <v>333266000</v>
+        <v>330258000</v>
       </c>
       <c r="K47" s="3">
         <v>330589000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10357900</v>
+        <v>10264400</v>
       </c>
       <c r="E48" s="3">
-        <v>10774400</v>
+        <v>10677100</v>
       </c>
       <c r="F48" s="3">
-        <v>9934900</v>
+        <v>9845200</v>
       </c>
       <c r="G48" s="3">
-        <v>8403600</v>
+        <v>8327800</v>
       </c>
       <c r="H48" s="3">
-        <v>6744800</v>
+        <v>6683900</v>
       </c>
       <c r="I48" s="3">
-        <v>4653600</v>
+        <v>4611600</v>
       </c>
       <c r="J48" s="3">
-        <v>4157200</v>
+        <v>4119700</v>
       </c>
       <c r="K48" s="3">
         <v>4201300</v>
@@ -2253,16 +2253,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="E52" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F52" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
-        <v>185200</v>
+        <v>183600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>720750000</v>
+        <v>714245000</v>
       </c>
       <c r="E54" s="3">
-        <v>626643000</v>
+        <v>620988000</v>
       </c>
       <c r="F54" s="3">
-        <v>549172000</v>
+        <v>544215000</v>
       </c>
       <c r="G54" s="3">
-        <v>479569000</v>
+        <v>475241000</v>
       </c>
       <c r="H54" s="3">
-        <v>426989000</v>
+        <v>423135000</v>
       </c>
       <c r="I54" s="3">
-        <v>397423000</v>
+        <v>393836000</v>
       </c>
       <c r="J54" s="3">
-        <v>360784000</v>
+        <v>357527000</v>
       </c>
       <c r="K54" s="3">
         <v>354418000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>623229000</v>
+        <v>617604000</v>
       </c>
       <c r="E59" s="3">
-        <v>533353000</v>
+        <v>528539000</v>
       </c>
       <c r="F59" s="3">
-        <v>464725000</v>
+        <v>460531000</v>
       </c>
       <c r="G59" s="3">
-        <v>416316000</v>
+        <v>412558000</v>
       </c>
       <c r="H59" s="3">
-        <v>364704000</v>
+        <v>361412000</v>
       </c>
       <c r="I59" s="3">
-        <v>333668000</v>
+        <v>330657000</v>
       </c>
       <c r="J59" s="3">
-        <v>292735000</v>
+        <v>290093000</v>
       </c>
       <c r="K59" s="3">
         <v>288151000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8231800</v>
+        <v>8157500</v>
       </c>
       <c r="E61" s="3">
-        <v>8430800</v>
+        <v>8354700</v>
       </c>
       <c r="F61" s="3">
-        <v>8565400</v>
+        <v>8488100</v>
       </c>
       <c r="G61" s="3">
-        <v>2969300</v>
+        <v>2942500</v>
       </c>
       <c r="H61" s="3">
-        <v>2769500</v>
+        <v>2744500</v>
       </c>
       <c r="I61" s="3">
-        <v>7982200</v>
+        <v>7910200</v>
       </c>
       <c r="J61" s="3">
-        <v>10409100</v>
+        <v>10315100</v>
       </c>
       <c r="K61" s="3">
         <v>11139700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1102400</v>
+        <v>1092500</v>
       </c>
       <c r="E62" s="3">
-        <v>2252500</v>
+        <v>2232200</v>
       </c>
       <c r="F62" s="3">
-        <v>1522200</v>
+        <v>1508500</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>717800</v>
+        <v>711300</v>
       </c>
       <c r="I62" s="3">
-        <v>1144700</v>
+        <v>1134400</v>
       </c>
       <c r="J62" s="3">
-        <v>2498200</v>
+        <v>2475600</v>
       </c>
       <c r="K62" s="3">
         <v>3056600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>650226000</v>
+        <v>644357000</v>
       </c>
       <c r="E66" s="3">
-        <v>560323000</v>
+        <v>555266000</v>
       </c>
       <c r="F66" s="3">
-        <v>489673000</v>
+        <v>485253000</v>
       </c>
       <c r="G66" s="3">
-        <v>432654000</v>
+        <v>428749000</v>
       </c>
       <c r="H66" s="3">
-        <v>379696000</v>
+        <v>376269000</v>
       </c>
       <c r="I66" s="3">
-        <v>352681000</v>
+        <v>349498000</v>
       </c>
       <c r="J66" s="3">
-        <v>313261000</v>
+        <v>310434000</v>
       </c>
       <c r="K66" s="3">
         <v>309596000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51003500</v>
+        <v>50543200</v>
       </c>
       <c r="E72" s="3">
-        <v>46127100</v>
+        <v>45710700</v>
       </c>
       <c r="F72" s="3">
-        <v>41951000</v>
+        <v>41572400</v>
       </c>
       <c r="G72" s="3">
-        <v>34492300</v>
+        <v>34181000</v>
       </c>
       <c r="H72" s="3">
-        <v>34564800</v>
+        <v>34252800</v>
       </c>
       <c r="I72" s="3">
-        <v>30847800</v>
+        <v>30569300</v>
       </c>
       <c r="J72" s="3">
-        <v>29830500</v>
+        <v>29561300</v>
       </c>
       <c r="K72" s="3">
         <v>28227800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70524300</v>
+        <v>69887800</v>
       </c>
       <c r="E76" s="3">
-        <v>66320300</v>
+        <v>65721700</v>
       </c>
       <c r="F76" s="3">
-        <v>59498700</v>
+        <v>58961700</v>
       </c>
       <c r="G76" s="3">
-        <v>46915200</v>
+        <v>46491700</v>
       </c>
       <c r="H76" s="3">
-        <v>47292700</v>
+        <v>46865800</v>
       </c>
       <c r="I76" s="3">
-        <v>44741600</v>
+        <v>44337800</v>
       </c>
       <c r="J76" s="3">
-        <v>47522400</v>
+        <v>47093500</v>
       </c>
       <c r="K76" s="3">
         <v>44822900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7503700</v>
+        <v>7436000</v>
       </c>
       <c r="E81" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="F81" s="3">
-        <v>8589200</v>
+        <v>8511700</v>
       </c>
       <c r="G81" s="3">
-        <v>1679200</v>
+        <v>1664000</v>
       </c>
       <c r="H81" s="3">
-        <v>4752800</v>
+        <v>4709900</v>
       </c>
       <c r="I81" s="3">
-        <v>2818600</v>
+        <v>2793100</v>
       </c>
       <c r="J81" s="3">
-        <v>5113200</v>
+        <v>5067100</v>
       </c>
       <c r="K81" s="3">
         <v>5081600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>779100</v>
+        <v>772100</v>
       </c>
       <c r="E83" s="3">
-        <v>760700</v>
+        <v>753800</v>
       </c>
       <c r="F83" s="3">
-        <v>645300</v>
+        <v>639500</v>
       </c>
       <c r="G83" s="3">
-        <v>388700</v>
+        <v>385200</v>
       </c>
       <c r="H83" s="3">
-        <v>330100</v>
+        <v>327100</v>
       </c>
       <c r="I83" s="3">
-        <v>307000</v>
+        <v>304200</v>
       </c>
       <c r="J83" s="3">
-        <v>300000</v>
+        <v>297300</v>
       </c>
       <c r="K83" s="3">
         <v>335100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42211000</v>
+        <v>41830000</v>
       </c>
       <c r="E89" s="3">
-        <v>44800200</v>
+        <v>44395900</v>
       </c>
       <c r="F89" s="3">
-        <v>42149700</v>
+        <v>41769300</v>
       </c>
       <c r="G89" s="3">
-        <v>21743300</v>
+        <v>21547000</v>
       </c>
       <c r="H89" s="3">
-        <v>29617900</v>
+        <v>29350600</v>
       </c>
       <c r="I89" s="3">
-        <v>13129500</v>
+        <v>13011000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2772000</v>
+        <v>-2747000</v>
       </c>
       <c r="K89" s="3">
         <v>12344200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-806800</v>
+        <v>-799500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100600</v>
+        <v>-1090700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1682100</v>
+        <v>-1666900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2880300</v>
+        <v>-2854300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1417500</v>
+        <v>-1404700</v>
       </c>
       <c r="I91" s="3">
-        <v>-782500</v>
+        <v>-775400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1235500</v>
+        <v>-1224300</v>
       </c>
       <c r="K91" s="3">
         <v>-796400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58020200</v>
+        <v>-57496500</v>
       </c>
       <c r="E94" s="3">
-        <v>-43146900</v>
+        <v>-42757400</v>
       </c>
       <c r="F94" s="3">
-        <v>-36473800</v>
+        <v>-36144600</v>
       </c>
       <c r="G94" s="3">
-        <v>-35126600</v>
+        <v>-34809600</v>
       </c>
       <c r="H94" s="3">
-        <v>-25592900</v>
+        <v>-25361900</v>
       </c>
       <c r="I94" s="3">
-        <v>-15429000</v>
+        <v>-15289800</v>
       </c>
       <c r="J94" s="3">
-        <v>9880000</v>
+        <v>9790900</v>
       </c>
       <c r="K94" s="3">
         <v>-10926000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2665600</v>
+        <v>-2641500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3070100</v>
+        <v>-3042400</v>
       </c>
       <c r="F96" s="3">
-        <v>-724400</v>
+        <v>-717900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1722600</v>
+        <v>-1707100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1055700</v>
+        <v>-1046200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1806200</v>
+        <v>-1789900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1693300</v>
+        <v>-1678000</v>
       </c>
       <c r="K96" s="3">
         <v>-2066200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16377400</v>
+        <v>16229600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1143500</v>
+        <v>-1133200</v>
       </c>
       <c r="F100" s="3">
-        <v>-5316000</v>
+        <v>-5268000</v>
       </c>
       <c r="G100" s="3">
-        <v>13699000</v>
+        <v>13575400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6718900</v>
+        <v>-6658200</v>
       </c>
       <c r="I100" s="3">
-        <v>923900</v>
+        <v>915600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2861000</v>
+        <v>-2835200</v>
       </c>
       <c r="K100" s="3">
         <v>2635200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="E101" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="F101" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G101" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="H101" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I101" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="J101" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="K101" s="3">
         <v>1600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>557800</v>
+        <v>552700</v>
       </c>
       <c r="E102" s="3">
-        <v>488600</v>
+        <v>484200</v>
       </c>
       <c r="F102" s="3">
-        <v>368000</v>
+        <v>364600</v>
       </c>
       <c r="G102" s="3">
-        <v>327600</v>
+        <v>324600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2720300</v>
+        <v>-2695700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1333600</v>
+        <v>-1321600</v>
       </c>
       <c r="J102" s="3">
-        <v>4282600</v>
+        <v>4243900</v>
       </c>
       <c r="K102" s="3">
         <v>4055100</v>
